--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -36,9 +36,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -107,13 +108,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
@@ -135,43 +144,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
       <c r="B2">
@@ -188,7 +197,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
       <c r="B3">
@@ -205,7 +214,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
       <c r="B4">
@@ -222,7 +231,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
       <c r="B5">
@@ -239,7 +248,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
       <c r="B6">
@@ -256,7 +265,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
       <c r="B7">
@@ -273,14 +282,14 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
       <c r="B8">
         <v>76063</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8">
         <v>156</v>
@@ -290,7 +299,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
       <c r="B9">
@@ -307,7 +316,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
       <c r="B10">
@@ -324,7 +333,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
       <c r="B11">
@@ -341,7 +350,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
       <c r="B12">
@@ -358,11 +367,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
       <c r="B13">
-        <v>37456</v>
+        <v>37455</v>
       </c>
       <c r="C13">
         <v>141</v>
@@ -375,7 +384,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
       <c r="B14">
@@ -392,7 +401,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
       <c r="B15">
@@ -402,14 +411,14 @@
         <v>153</v>
       </c>
       <c r="D15">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
       <c r="B16">
@@ -426,24 +435,24 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
       <c r="B17">
         <v>35030</v>
       </c>
       <c r="C17">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
       <c r="B18">
@@ -460,7 +469,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
       <c r="B19">
@@ -477,70 +486,189 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
       <c r="B20">
-        <v>31149</v>
+        <v>31148</v>
       </c>
       <c r="C20">
         <v>77</v>
       </c>
       <c r="D20">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
       <c r="B21">
-        <v>39787</v>
+        <v>39789</v>
       </c>
       <c r="C21">
         <v>95</v>
       </c>
       <c r="D21">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5">
+        <v>44313</v>
+      </c>
+      <c r="B22">
+        <v>34176</v>
+      </c>
+      <c r="C22">
+        <v>88</v>
+      </c>
+      <c r="D22">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5">
+        <v>44314</v>
+      </c>
+      <c r="B23">
+        <v>36791</v>
+      </c>
+      <c r="C23">
+        <v>97</v>
+      </c>
+      <c r="D23">
+        <v>92</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5">
+        <v>44315</v>
+      </c>
+      <c r="B24">
+        <v>34644</v>
+      </c>
+      <c r="C24">
+        <v>94</v>
+      </c>
+      <c r="D24">
+        <v>86</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5">
+        <v>44316</v>
+      </c>
+      <c r="B25">
+        <v>36322</v>
+      </c>
+      <c r="C25">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>70</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5">
+        <v>44317</v>
+      </c>
+      <c r="B26">
+        <v>9238</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3">
-        <v>44313</v>
-      </c>
-      <c r="B22">
-        <v>34041</v>
-      </c>
-      <c r="C22">
-        <v>86</v>
-      </c>
-      <c r="D22">
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5">
+        <v>44318</v>
+      </c>
+      <c r="B27">
+        <v>28849</v>
+      </c>
+      <c r="C27">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5">
+        <v>44319</v>
+      </c>
+      <c r="B28">
+        <v>37928</v>
+      </c>
+      <c r="C28">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5">
+        <v>44320</v>
+      </c>
+      <c r="B29">
+        <v>39471</v>
+      </c>
+      <c r="C29">
+        <v>72</v>
+      </c>
+      <c r="D29">
+        <v>66</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>44321</v>
+      </c>
+      <c r="B30">
+        <v>15061</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3">
-        <v>44314</v>
-      </c>
-      <c r="B23">
-        <v>11849</v>
-      </c>
-      <c r="C23">
-        <v>48</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="E30">
         <v>0</v>
       </c>
     </row>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,10 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +131,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -159,780 +162,780 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="7">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>54048</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>276</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="7">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>43024</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>212</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="7">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36064</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>223</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="7">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>86</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="7">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>38995</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="7">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>61406</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>221</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="7">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>76061</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>199</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="7">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>57994</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>196</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="7">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14282</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>95</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="7">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30617</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>109</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="7">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>83</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="7">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>37454</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>141</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="7">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>52886</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>131</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="7">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>55061</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>153</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="7">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>47510</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>114</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="7">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>35039</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>129</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="7">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35691</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>108</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="7">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8759</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>36</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="7">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>31159</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="7">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>39789</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>93</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="7">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>34175</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>87</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="7">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>36792</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>96</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="7">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>34642</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>94</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="7">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>36327</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>79</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="7">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9239</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="7">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>28853</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>50</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="7">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>37956</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="7">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>39514</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>72</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="7">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>40602</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>68</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="7">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>31689</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="7">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>34022</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="7">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>11581</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>16</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="7">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>26930</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>34</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="7">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>40715</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>52</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="7">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>35994</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="7">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>31408</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="7">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>21580</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>31</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="7">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>21475</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>26</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="7">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5653</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>21</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="7">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>6069</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +84,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
     <border/>
     <border/>
   </borders>
@@ -114,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -133,8 +131,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -172,27 +168,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
       <c r="B2">
@@ -209,7 +205,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
       <c r="B3">
@@ -226,7 +222,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
       <c r="B4">
@@ -243,7 +239,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
       <c r="B5">
@@ -260,7 +256,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
       <c r="B6">
@@ -277,7 +273,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
       <c r="B7">
@@ -294,7 +290,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
       <c r="B8">
@@ -311,7 +307,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
       <c r="B9">
@@ -328,7 +324,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
       <c r="B10">
@@ -345,7 +341,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
       <c r="B11">
@@ -362,7 +358,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
       <c r="B12">
@@ -379,7 +375,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
       <c r="B13">
@@ -399,7 +395,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
       <c r="B14">
@@ -419,7 +415,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
       <c r="B15">
@@ -439,7 +435,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
       <c r="B16">
@@ -459,7 +455,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
       <c r="B17">
@@ -479,7 +475,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
       <c r="B18">
@@ -496,7 +492,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
       <c r="B19">
@@ -516,7 +512,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
       <c r="B20">
@@ -536,7 +532,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
       <c r="B21">
@@ -553,7 +549,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
       <c r="B22">
@@ -573,11 +569,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
       <c r="B23">
-        <v>36792</v>
+        <v>36840</v>
       </c>
       <c r="C23">
         <v>96</v>
@@ -590,7 +586,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
       <c r="B24">
@@ -607,7 +603,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
       <c r="B25">
@@ -624,11 +620,11 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
       <c r="B26">
-        <v>9239</v>
+        <v>9240</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -644,7 +640,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
       <c r="B27">
@@ -664,7 +660,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
       <c r="B28">
@@ -684,7 +680,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
       <c r="B29">
@@ -704,7 +700,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
       <c r="B30">
@@ -724,7 +720,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
       <c r="B31">
@@ -744,7 +740,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
       <c r="B32">
@@ -761,7 +757,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
       <c r="B33">
@@ -781,7 +777,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
       <c r="B34">
@@ -801,7 +797,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
       <c r="B35">
@@ -818,14 +814,14 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
       <c r="B36">
-        <v>35994</v>
+        <v>35995</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -838,11 +834,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
       <c r="B37">
-        <v>31408</v>
+        <v>31409</v>
       </c>
       <c r="C37">
         <v>27</v>
@@ -858,11 +854,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
       <c r="B38">
-        <v>21580</v>
+        <v>21744</v>
       </c>
       <c r="C38">
         <v>31</v>
@@ -878,11 +874,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
       <c r="B39">
-        <v>21475</v>
+        <v>21660</v>
       </c>
       <c r="C39">
         <v>26</v>
@@ -895,11 +891,11 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
       <c r="B40">
-        <v>5653</v>
+        <v>5708</v>
       </c>
       <c r="C40">
         <v>21</v>
@@ -915,19 +911,170 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
       <c r="B41">
-        <v>6069</v>
+        <v>15993</v>
       </c>
       <c r="C41">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5">
+        <v>44333</v>
+      </c>
+      <c r="B42">
+        <v>9564</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5">
+        <v>44334</v>
+      </c>
+      <c r="B43">
+        <v>27580</v>
+      </c>
+      <c r="C43">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5">
+        <v>44335</v>
+      </c>
+      <c r="B44">
+        <v>35404</v>
+      </c>
+      <c r="C44">
+        <v>55</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5">
+        <v>44336</v>
+      </c>
+      <c r="B45">
+        <v>24976</v>
+      </c>
+      <c r="C45">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5">
+        <v>44337</v>
+      </c>
+      <c r="B46">
+        <v>28442</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5">
+        <v>44338</v>
+      </c>
+      <c r="B47">
+        <v>7568</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="D41">
+      <c r="F47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5">
+        <v>44339</v>
+      </c>
+      <c r="B48">
+        <v>19530</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>44340</v>
+      </c>
+      <c r="B49">
+        <v>1022</v>
+      </c>
+      <c r="C49">
         <v>0</v>
       </c>
-      <c r="E41">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>0</v>
       </c>
     </row>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -379,7 +379,7 @@
         <v>44304</v>
       </c>
       <c r="B13">
-        <v>37454</v>
+        <v>37455</v>
       </c>
       <c r="C13">
         <v>141</v>
@@ -399,10 +399,10 @@
         <v>44305</v>
       </c>
       <c r="B14">
-        <v>52886</v>
+        <v>52888</v>
       </c>
       <c r="C14">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D14">
         <v>118</v>
@@ -419,10 +419,10 @@
         <v>44306</v>
       </c>
       <c r="B15">
-        <v>55061</v>
+        <v>55068</v>
       </c>
       <c r="C15">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D15">
         <v>134</v>
@@ -496,10 +496,10 @@
         <v>44310</v>
       </c>
       <c r="B19">
-        <v>8759</v>
+        <v>8762</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>24</v>
@@ -624,7 +624,7 @@
         <v>44317</v>
       </c>
       <c r="B26">
-        <v>9240</v>
+        <v>9241</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -664,7 +664,7 @@
         <v>44319</v>
       </c>
       <c r="B28">
-        <v>37956</v>
+        <v>37991</v>
       </c>
       <c r="C28">
         <v>65</v>
@@ -684,7 +684,7 @@
         <v>44320</v>
       </c>
       <c r="B29">
-        <v>39514</v>
+        <v>39539</v>
       </c>
       <c r="C29">
         <v>72</v>
@@ -724,7 +724,7 @@
         <v>44322</v>
       </c>
       <c r="B31">
-        <v>31689</v>
+        <v>31747</v>
       </c>
       <c r="C31">
         <v>48</v>
@@ -784,7 +784,7 @@
         <v>26930</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>32</v>
@@ -801,10 +801,10 @@
         <v>44326</v>
       </c>
       <c r="B35">
-        <v>40715</v>
+        <v>40716</v>
       </c>
       <c r="C35">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35">
         <v>45</v>
@@ -861,7 +861,7 @@
         <v>21744</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <v>29</v>
@@ -878,10 +878,10 @@
         <v>44330</v>
       </c>
       <c r="B39">
-        <v>21660</v>
+        <v>21684</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39">
         <v>19</v>
@@ -898,7 +898,7 @@
         <v>5708</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40">
         <v>18</v>
@@ -949,7 +949,7 @@
         <v>44334</v>
       </c>
       <c r="B43">
-        <v>27580</v>
+        <v>27655</v>
       </c>
       <c r="C43">
         <v>22</v>
@@ -966,7 +966,7 @@
         <v>44335</v>
       </c>
       <c r="B44">
-        <v>35404</v>
+        <v>35431</v>
       </c>
       <c r="C44">
         <v>55</v>
@@ -986,7 +986,7 @@
         <v>44336</v>
       </c>
       <c r="B45">
-        <v>24976</v>
+        <v>24980</v>
       </c>
       <c r="C45">
         <v>33</v>
@@ -1006,10 +1006,10 @@
         <v>44337</v>
       </c>
       <c r="B46">
-        <v>28442</v>
+        <v>28444</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46">
         <v>17</v>
@@ -1023,7 +1023,7 @@
         <v>44338</v>
       </c>
       <c r="B47">
-        <v>7568</v>
+        <v>7576</v>
       </c>
       <c r="C47">
         <v>12</v>
@@ -1043,10 +1043,10 @@
         <v>44339</v>
       </c>
       <c r="B48">
-        <v>19530</v>
+        <v>19559</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48">
         <v>20</v>
@@ -1058,15 +1058,15 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5">
         <v>44340</v>
       </c>
       <c r="B49">
-        <v>1022</v>
+        <v>37916</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1075,6 +1075,111 @@
         <v>0</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5">
+        <v>44341</v>
+      </c>
+      <c r="B50">
+        <v>30188</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5">
+        <v>44342</v>
+      </c>
+      <c r="B51">
+        <v>28735</v>
+      </c>
+      <c r="C51">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5">
+        <v>44343</v>
+      </c>
+      <c r="B52">
+        <v>30692</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5">
+        <v>44344</v>
+      </c>
+      <c r="B53">
+        <v>33919</v>
+      </c>
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5">
+        <v>44345</v>
+      </c>
+      <c r="B54">
+        <v>10136</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5">
+        <v>44346</v>
+      </c>
+      <c r="B55">
+        <v>11705</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
         <v>0</v>
       </c>
     </row>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -112,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,8 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,1050 +145,1094 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
+      <selection pane="bottomLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>54048</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>43024</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36064</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>38995</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>61406</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>76061</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>57994</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14282</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30617</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>37455</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>52888</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>55068</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>47510</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>35039</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35691</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>31159</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>39789</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>34175</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>36840</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>34642</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>36327</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9241</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>28853</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>37991</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>39539</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>40602</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>31747</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>34022</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>11581</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>26930</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>40716</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>35995</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>31409</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>21744</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>21684</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5708</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>15993</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>9564</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>27655</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>35431</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>24980</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>28444</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>7576</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>19559</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>37916</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F49">
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>44341</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>30188</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>28735</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>30692</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>33919</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>44345</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>10136</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>44346</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>11705</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
-        <v>44341</v>
-      </c>
-      <c r="B50">
-        <v>30188</v>
-      </c>
-      <c r="C50">
-        <v>22</v>
-      </c>
-      <c r="D50">
-        <v>16</v>
-      </c>
-      <c r="E50">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
+        <v>44348</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>44349</v>
+      </c>
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
-        <v>44342</v>
-      </c>
-      <c r="B51">
-        <v>28735</v>
-      </c>
-      <c r="C51">
-        <v>14</v>
-      </c>
-      <c r="D51">
-        <v>11</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
-        <v>44343</v>
-      </c>
-      <c r="B52">
-        <v>30692</v>
-      </c>
-      <c r="C52">
-        <v>13</v>
-      </c>
-      <c r="D52">
-        <v>13</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
-        <v>44344</v>
-      </c>
-      <c r="B53">
-        <v>33919</v>
-      </c>
-      <c r="C53">
-        <v>17</v>
-      </c>
-      <c r="D53">
-        <v>12</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
-        <v>44345</v>
-      </c>
-      <c r="B54">
-        <v>10136</v>
-      </c>
-      <c r="C54">
-        <v>12</v>
-      </c>
-      <c r="D54">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
-        <v>44346</v>
-      </c>
-      <c r="B55">
-        <v>11705</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>44350</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -149,22 +149,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -537,7 +537,7 @@
         <v>44312</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>39789</v>
+        <v>39944</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>93</v>
@@ -554,7 +554,7 @@
         <v>44313</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>34175</v>
+        <v>34208</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>87</v>
@@ -574,7 +574,7 @@
         <v>44314</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>36840</v>
+        <v>36852</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>96</v>
@@ -967,7 +967,7 @@
         <v>44335</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>35431</v>
+        <v>35438</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>55</v>
@@ -1007,7 +1007,7 @@
         <v>44337</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>28444</v>
+        <v>28446</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>22</v>
@@ -1044,7 +1044,7 @@
         <v>44339</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>19559</v>
+        <v>19560</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>26</v>
@@ -1064,10 +1064,10 @@
         <v>44340</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>37916</v>
+        <v>37942</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>44341</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>30188</v>
+        <v>30189</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>22</v>
@@ -1118,10 +1118,10 @@
         <v>44343</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>30692</v>
+        <v>30693</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>13</v>
@@ -1135,10 +1135,10 @@
         <v>44344</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>33919</v>
+        <v>33923</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>13</v>
@@ -1169,7 +1169,7 @@
         <v>44346</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>11705</v>
+        <v>22360</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>3</v>
@@ -1185,6 +1185,12 @@
       <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
+      <c r="B56" s="0" t="n">
+        <v>29550</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
@@ -1196,6 +1202,12 @@
       <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
+      <c r="B57" s="0" t="n">
+        <v>25794</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>35</v>
+      </c>
       <c r="D57" s="0" t="n">
         <v>10</v>
       </c>
@@ -1207,6 +1219,12 @@
       <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
+      <c r="B58" s="0" t="n">
+        <v>18779</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
@@ -1218,6 +1236,12 @@
       <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
+      <c r="B59" s="0" t="n">
+        <v>17092</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
@@ -1226,7 +1250,38 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3"/>
+      <c r="A60" s="3" t="n">
+        <v>44351</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>18674</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>44352</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>7575</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,8 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +129,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,1149 +144,1186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
+      <selection pane="bottomLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>54048</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>276</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>43024</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>212</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36064</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>223</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>86</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>38995</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>61406</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>221</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>76061</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>199</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>57994</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>196</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14282</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>95</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30617</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>109</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>83</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>37455</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>141</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>52888</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>133</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>55068</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>159</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>47510</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>114</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>35039</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>129</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35691</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>108</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>39</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>31159</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>39944</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>93</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>34208</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>87</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>36852</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>96</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>34642</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>94</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>36327</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>79</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9241</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>28853</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>50</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>37991</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>39539</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>72</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>40602</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>68</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>31747</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>34022</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>11581</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>16</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>26930</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>40716</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>51</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>35995</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>31409</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>21744</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>21684</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>27</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5708</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>15993</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="5">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>9564</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="5">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>27655</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="5">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>35438</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>55</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="5">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>24980</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="5">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>28446</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="5">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>7576</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>12</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="5">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>19560</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="5">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>37942</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>28</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="5">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>30189</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>22</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="5">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>28735</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>14</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="5">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>30693</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>14</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="5">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
-        <v>33923</v>
-      </c>
-      <c r="C53" s="0" t="n">
+      <c r="B53">
+        <v>33924</v>
+      </c>
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="5">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>10136</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="5">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
-        <v>22360</v>
-      </c>
-      <c r="C55" s="0" t="n">
+      <c r="B55">
+        <v>22361</v>
+      </c>
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="5">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>29550</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="5">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>25794</v>
-      </c>
-      <c r="C57" s="0" t="n">
+      <c r="B57">
+        <v>25811</v>
+      </c>
+      <c r="C57">
         <v>35</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5">
+        <v>44349</v>
+      </c>
+      <c r="B58">
+        <v>18800</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5">
+        <v>44350</v>
+      </c>
+      <c r="B59">
+        <v>17144</v>
+      </c>
+      <c r="C59">
         <v>10</v>
       </c>
-      <c r="E57" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
-        <v>44349</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>18779</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E58" s="0" t="n">
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5">
+        <v>44351</v>
+      </c>
+      <c r="B60">
+        <v>18697</v>
+      </c>
+      <c r="C60">
+        <v>31</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5">
+        <v>44352</v>
+      </c>
+      <c r="B61">
+        <v>7621</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5">
+        <v>44353</v>
+      </c>
+      <c r="B62">
+        <v>17996</v>
+      </c>
+      <c r="C62">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
-        <v>44350</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>17092</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E59" s="0" t="n">
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>44354</v>
+      </c>
+      <c r="B63">
+        <v>13279</v>
+      </c>
+      <c r="C63">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
-        <v>44351</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>18674</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
-        <v>44352</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>7575</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" s="0" t="n">
+      <c r="D63">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
-        <v>4</v>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="F65" activeCellId="0" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -379,7 +379,7 @@
         <v>44304</v>
       </c>
       <c r="B13">
-        <v>37455</v>
+        <v>37454</v>
       </c>
       <c r="C13">
         <v>141</v>
@@ -419,7 +419,7 @@
         <v>44306</v>
       </c>
       <c r="B15">
-        <v>55068</v>
+        <v>55067</v>
       </c>
       <c r="C15">
         <v>159</v>
@@ -878,7 +878,7 @@
         <v>44330</v>
       </c>
       <c r="B39">
-        <v>21684</v>
+        <v>21685</v>
       </c>
       <c r="C39">
         <v>27</v>
@@ -1151,7 +1151,7 @@
         <v>44345</v>
       </c>
       <c r="B54">
-        <v>10136</v>
+        <v>10137</v>
       </c>
       <c r="C54">
         <v>12</v>
@@ -1287,35 +1287,86 @@
         <v>44353</v>
       </c>
       <c r="B62">
-        <v>17996</v>
+        <v>18010</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5">
         <v>44354</v>
       </c>
       <c r="B63">
-        <v>13279</v>
+        <v>25538</v>
       </c>
       <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="D63">
+      <c r="E63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5">
+        <v>44355</v>
+      </c>
+      <c r="B64">
+        <v>24748</v>
+      </c>
+      <c r="C64">
+        <v>29</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5">
+        <v>44356</v>
+      </c>
+      <c r="B65">
+        <v>18069</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>44357</v>
+      </c>
+      <c r="B66">
+        <v>4581</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
         <v>0</v>
       </c>
-      <c r="E63">
+      <c r="E66">
         <v>0</v>
       </c>
-      <c r="F63">
+      <c r="F66">
         <v>0</v>
       </c>
     </row>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -112,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,8 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,1237 +145,1273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F65" activeCellId="0" sqref="F65"/>
+      <selection pane="bottomLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>54048</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>43024</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36064</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>38995</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>61406</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>76061</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>57994</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14282</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30617</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>37454</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>52888</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>55067</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>47510</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>35039</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35691</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>31159</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>39944</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>34208</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>36852</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>34642</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>36327</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9241</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>28853</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>37991</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>39539</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>40602</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>31747</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>34022</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>11581</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>26930</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>40716</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>35995</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>31409</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>21744</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>21685</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5708</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>15993</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>9564</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>27655</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>35438</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>24980</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>28446</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>7576</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>19560</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>37942</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>30189</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>28735</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>30693</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>33924</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>10137</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>22361</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>29550</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>25811</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>18800</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>17144</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>18697</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7621</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>18010</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>25538</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>24748</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>18069</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="5">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>4581</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
+        <v>44358</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
+        <v>44359</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
+        <v>44360</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,10 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +131,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,1273 +148,1308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="7">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>54048</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>276</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="7">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>43024</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>212</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="7">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36064</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>223</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="7">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>86</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="7">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>38995</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="7">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>61406</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>221</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="7">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>76061</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>199</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="7">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>57994</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>196</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="7">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14282</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>95</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="7">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30617</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>109</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="7">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>83</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="7">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>37454</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>141</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="7">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>52888</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>133</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="7">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>55067</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>159</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="7">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>47510</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>114</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="7">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>35039</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>129</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="7">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35691</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>108</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="7">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>39</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="7">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>31159</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="7">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>39944</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>93</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="7">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>34208</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>87</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="7">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>36852</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>96</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="7">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>34642</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>94</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="7">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>36327</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>79</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="7">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9241</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="7">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>28853</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>50</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="7">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>37991</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="7">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>39539</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>72</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="7">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>40602</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>68</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="7">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>31747</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="7">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>34022</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="7">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>11581</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>16</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="7">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>26930</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="7">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>40716</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>51</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="7">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>35995</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="7">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>31409</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="7">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>21744</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="7">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>21685</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>27</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="7">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5708</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="7">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>15993</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="7">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>9564</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="7">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>27655</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="7">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>35438</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>55</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="7">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>24980</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="7">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>28446</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="7">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>7576</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>12</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="7">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>19560</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="7">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>37942</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>28</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="7">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>30189</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>22</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="7">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>28735</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>14</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="7">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>30693</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>14</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="7">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>33924</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="7">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>10137</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="7">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>22361</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="7">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>29550</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="7">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>25811</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>35</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="7">
         <v>44349</v>
       </c>
-      <c r="B58" s="0" t="n">
-        <v>18800</v>
-      </c>
-      <c r="C58" s="0" t="n">
+      <c r="B58">
+        <v>18802</v>
+      </c>
+      <c r="C58">
         <v>13</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="7">
         <v>44350</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>17144</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>10</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="7">
         <v>44351</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>18697</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="7">
         <v>44352</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>7621</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>4</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="7">
         <v>44353</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>18010</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>6</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="7">
         <v>44354</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>25538</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="7">
         <v>44355</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>24748</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>29</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="7">
         <v>44356</v>
       </c>
-      <c r="B65" s="0" t="n">
-        <v>18069</v>
-      </c>
-      <c r="C65" s="0" t="n">
+      <c r="B65">
+        <v>18075</v>
+      </c>
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="7">
         <v>44357</v>
       </c>
-      <c r="B66" s="0" t="n">
-        <v>4581</v>
-      </c>
-      <c r="C66" s="0" t="n">
+      <c r="B66">
+        <v>19055</v>
+      </c>
+      <c r="C66">
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7">
+        <v>44358</v>
+      </c>
+      <c r="B67">
+        <v>18646</v>
+      </c>
+      <c r="C67">
+        <v>18</v>
+      </c>
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F66" s="0" t="n">
+      <c r="E67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7">
+        <v>44359</v>
+      </c>
+      <c r="B68">
+        <v>11058</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="7">
+        <v>44360</v>
+      </c>
+      <c r="B69">
+        <v>20942</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>44361</v>
+      </c>
+      <c r="B70">
+        <v>13245</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
-        <v>44358</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
-        <v>44359</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
-        <v>44360</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3"/>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,10 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -114,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,10 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,1308 +145,1363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>54048</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>43024</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36064</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>38995</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>61406</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>76061</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>57994</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14282</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30617</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>37454</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>52888</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>55067</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>47510</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>35039</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35691</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>31159</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>39944</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>34208</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>36852</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>34642</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>36327</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9241</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>28853</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>37991</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>39539</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>40602</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>31747</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>34022</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>11581</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>26930</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>40716</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>35995</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>31409</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>21744</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>21685</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5708</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>15993</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>9564</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>27655</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>35438</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>24980</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>28446</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>7576</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>19560</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>37942</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>30189</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>28735</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>30693</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>33924</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>10137</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>22361</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>29550</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>25811</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>18802</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>17144</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>18697</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7621</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>18010</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>25538</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>24748</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>18075</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>19055</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7">
+      <c r="A67" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>18646</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7">
+      <c r="A68" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>11058</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7">
+      <c r="A69" s="3" t="n">
         <v>44360</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>20942</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D69">
-        <v>3</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="5">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
         <v>44361</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>13245</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="n">
+        <v>44362</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="n">
+        <v>44363</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="n">
+        <v>44364</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="n">
+        <v>44365</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="n">
+        <v>44366</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,8 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +129,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -159,1349 +158,1379 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>54048</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>276</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>43024</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>212</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36064</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>223</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>86</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>38995</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>61406</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>221</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>76061</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>199</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>57994</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>196</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14282</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>95</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30617</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>109</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>83</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>37454</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>141</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>52888</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>133</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>55067</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>159</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>47510</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>114</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>35039</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>129</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35691</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>108</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>39</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>31159</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>39944</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>93</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>34208</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>87</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>36852</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>96</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>34642</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>94</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>36327</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>79</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9241</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>28853</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>50</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>37991</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>39539</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>72</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>40602</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>68</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>31747</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>34022</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>11581</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>16</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>26930</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>40716</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>51</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>35995</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>31409</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>21744</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>21685</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>27</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5708</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>15993</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="5">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>9564</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="5">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>27655</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="5">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>35438</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>55</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="5">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>24980</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="5">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>28446</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="5">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>7576</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>12</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="5">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>19560</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="5">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>37942</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>28</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="5">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>30189</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>22</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="5">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>28735</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>14</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="5">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>30693</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>14</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="5">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>33924</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="5">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>10137</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="5">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>22361</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="5">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>29550</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="5">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>25811</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>35</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="5">
         <v>44349</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>18802</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>13</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="5">
         <v>44350</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>17144</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>10</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="5">
         <v>44351</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>18697</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="5">
         <v>44352</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>7621</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>4</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="5">
         <v>44353</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>18010</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5">
+        <v>44354</v>
+      </c>
+      <c r="B63">
+        <v>25538</v>
+      </c>
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
-        <v>44354</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>25538</v>
-      </c>
-      <c r="C63" s="0" t="n">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5">
+        <v>44355</v>
+      </c>
+      <c r="B64">
+        <v>24748</v>
+      </c>
+      <c r="C64">
+        <v>29</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5">
+        <v>44356</v>
+      </c>
+      <c r="B65">
+        <v>18075</v>
+      </c>
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
-        <v>44355</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>24748</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
-        <v>44356</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>18075</v>
-      </c>
-      <c r="C65" s="0" t="n">
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5">
+        <v>44357</v>
+      </c>
+      <c r="B66">
+        <v>19055</v>
+      </c>
+      <c r="C66">
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E65" s="0" t="n">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5">
+        <v>44358</v>
+      </c>
+      <c r="B67">
+        <v>18646</v>
+      </c>
+      <c r="C67">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5">
+        <v>44359</v>
+      </c>
+      <c r="B68">
+        <v>11058</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
-        <v>44357</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>19055</v>
-      </c>
-      <c r="C66" s="0" t="n">
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5">
+        <v>44360</v>
+      </c>
+      <c r="B69">
+        <v>21017</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5">
+        <v>44361</v>
+      </c>
+      <c r="B70">
+        <v>30824</v>
+      </c>
+      <c r="C70">
+        <v>25</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>13</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5">
+        <v>44362</v>
+      </c>
+      <c r="B71">
+        <v>28123</v>
+      </c>
+      <c r="C71">
+        <v>26</v>
+      </c>
+      <c r="D71">
         <v>18</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E66" s="0" t="n">
+      <c r="E71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5">
+        <v>44363</v>
+      </c>
+      <c r="B72">
+        <v>22855</v>
+      </c>
+      <c r="C72">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72">
         <v>6</v>
       </c>
-      <c r="F66" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
-        <v>44358</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>18646</v>
-      </c>
-      <c r="C67" s="0" t="n">
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5">
+        <v>44364</v>
+      </c>
+      <c r="B73">
+        <v>21279</v>
+      </c>
+      <c r="C73">
+        <v>26</v>
+      </c>
+      <c r="D73">
         <v>18</v>
       </c>
-      <c r="D67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
-        <v>44359</v>
-      </c>
-      <c r="B68" s="0" t="n">
-        <v>11058</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
-        <v>44360</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>20942</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
-        <v>44361</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>13245</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
-        <v>44362</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E71" s="0" t="n">
+      <c r="E73">
         <v>8</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
-        <v>44363</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E72" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
-        <v>44364</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E73" s="0" t="n">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5">
+        <v>44365</v>
+      </c>
+      <c r="B74">
+        <v>27347</v>
+      </c>
+      <c r="C74">
+        <v>34</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5">
+        <v>44366</v>
+      </c>
+      <c r="B75">
+        <v>15952</v>
+      </c>
+      <c r="C75">
+        <v>46</v>
+      </c>
+      <c r="D75">
+        <v>39</v>
+      </c>
+      <c r="E75">
         <v>8</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
-        <v>44365</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
-        <v>44366</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,6 +84,10 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
     <border/>
     <border/>
   </borders>
@@ -112,7 +116,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,6 +135,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,27 +176,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>44293</v>
       </c>
       <c r="B2">
@@ -205,7 +213,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>44294</v>
       </c>
       <c r="B3">
@@ -222,7 +230,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>44295</v>
       </c>
       <c r="B4">
@@ -239,7 +247,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>44296</v>
       </c>
       <c r="B5">
@@ -256,7 +264,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>44297</v>
       </c>
       <c r="B6">
@@ -273,7 +281,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>44298</v>
       </c>
       <c r="B7">
@@ -290,7 +298,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>44299</v>
       </c>
       <c r="B8">
@@ -307,7 +315,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>44300</v>
       </c>
       <c r="B9">
@@ -324,7 +332,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>44301</v>
       </c>
       <c r="B10">
@@ -341,7 +349,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>44302</v>
       </c>
       <c r="B11">
@@ -358,7 +366,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>44303</v>
       </c>
       <c r="B12">
@@ -375,7 +383,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>44304</v>
       </c>
       <c r="B13">
@@ -395,7 +403,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>44305</v>
       </c>
       <c r="B14">
@@ -415,7 +423,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>44306</v>
       </c>
       <c r="B15">
@@ -435,7 +443,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>44307</v>
       </c>
       <c r="B16">
@@ -455,7 +463,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>44308</v>
       </c>
       <c r="B17">
@@ -475,7 +483,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>44309</v>
       </c>
       <c r="B18">
@@ -492,7 +500,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>44310</v>
       </c>
       <c r="B19">
@@ -512,7 +520,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>44311</v>
       </c>
       <c r="B20">
@@ -532,7 +540,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>44312</v>
       </c>
       <c r="B21">
@@ -549,7 +557,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="9">
         <v>44313</v>
       </c>
       <c r="B22">
@@ -569,7 +577,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>44314</v>
       </c>
       <c r="B23">
@@ -586,7 +594,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="9">
         <v>44315</v>
       </c>
       <c r="B24">
@@ -603,7 +611,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>44316</v>
       </c>
       <c r="B25">
@@ -620,7 +628,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="9">
         <v>44317</v>
       </c>
       <c r="B26">
@@ -640,7 +648,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="9">
         <v>44318</v>
       </c>
       <c r="B27">
@@ -660,7 +668,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="9">
         <v>44319</v>
       </c>
       <c r="B28">
@@ -680,7 +688,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>44320</v>
       </c>
       <c r="B29">
@@ -700,7 +708,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="9">
         <v>44321</v>
       </c>
       <c r="B30">
@@ -720,7 +728,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="9">
         <v>44322</v>
       </c>
       <c r="B31">
@@ -740,7 +748,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="9">
         <v>44323</v>
       </c>
       <c r="B32">
@@ -757,7 +765,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="9">
         <v>44324</v>
       </c>
       <c r="B33">
@@ -777,7 +785,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="9">
         <v>44325</v>
       </c>
       <c r="B34">
@@ -797,7 +805,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="9">
         <v>44326</v>
       </c>
       <c r="B35">
@@ -814,7 +822,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="9">
         <v>44327</v>
       </c>
       <c r="B36">
@@ -834,7 +842,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="9">
         <v>44328</v>
       </c>
       <c r="B37">
@@ -854,7 +862,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="9">
         <v>44329</v>
       </c>
       <c r="B38">
@@ -874,7 +882,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="9">
         <v>44330</v>
       </c>
       <c r="B39">
@@ -891,7 +899,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="9">
         <v>44331</v>
       </c>
       <c r="B40">
@@ -911,7 +919,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="9">
         <v>44332</v>
       </c>
       <c r="B41">
@@ -928,7 +936,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="9">
         <v>44333</v>
       </c>
       <c r="B42">
@@ -945,7 +953,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="9">
         <v>44334</v>
       </c>
       <c r="B43">
@@ -962,7 +970,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="9">
         <v>44335</v>
       </c>
       <c r="B44">
@@ -982,7 +990,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="9">
         <v>44336</v>
       </c>
       <c r="B45">
@@ -1002,7 +1010,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="9">
         <v>44337</v>
       </c>
       <c r="B46">
@@ -1019,7 +1027,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="9">
         <v>44338</v>
       </c>
       <c r="B47">
@@ -1039,7 +1047,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="9">
         <v>44339</v>
       </c>
       <c r="B48">
@@ -1059,7 +1067,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="9">
         <v>44340</v>
       </c>
       <c r="B49">
@@ -1076,7 +1084,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
+      <c r="A50" s="9">
         <v>44341</v>
       </c>
       <c r="B50">
@@ -1096,7 +1104,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
+      <c r="A51" s="9">
         <v>44342</v>
       </c>
       <c r="B51">
@@ -1113,7 +1121,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
+      <c r="A52" s="9">
         <v>44343</v>
       </c>
       <c r="B52">
@@ -1130,7 +1138,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
+      <c r="A53" s="9">
         <v>44344</v>
       </c>
       <c r="B53">
@@ -1147,7 +1155,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
+      <c r="A54" s="9">
         <v>44345</v>
       </c>
       <c r="B54">
@@ -1164,7 +1172,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
+      <c r="A55" s="9">
         <v>44346</v>
       </c>
       <c r="B55">
@@ -1181,7 +1189,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5">
+      <c r="A56" s="9">
         <v>44347</v>
       </c>
       <c r="B56">
@@ -1198,7 +1206,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5">
+      <c r="A57" s="9">
         <v>44348</v>
       </c>
       <c r="B57">
@@ -1215,7 +1223,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5">
+      <c r="A58" s="9">
         <v>44349</v>
       </c>
       <c r="B58">
@@ -1232,7 +1240,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5">
+      <c r="A59" s="9">
         <v>44350</v>
       </c>
       <c r="B59">
@@ -1249,7 +1257,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5">
+      <c r="A60" s="9">
         <v>44351</v>
       </c>
       <c r="B60">
@@ -1266,7 +1274,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5">
+      <c r="A61" s="9">
         <v>44352</v>
       </c>
       <c r="B61">
@@ -1283,7 +1291,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5">
+      <c r="A62" s="9">
         <v>44353</v>
       </c>
       <c r="B62">
@@ -1300,7 +1308,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5">
+      <c r="A63" s="9">
         <v>44354</v>
       </c>
       <c r="B63">
@@ -1317,7 +1325,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5">
+      <c r="A64" s="9">
         <v>44355</v>
       </c>
       <c r="B64">
@@ -1334,7 +1342,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5">
+      <c r="A65" s="9">
         <v>44356</v>
       </c>
       <c r="B65">
@@ -1351,7 +1359,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5">
+      <c r="A66" s="9">
         <v>44357</v>
       </c>
       <c r="B66">
@@ -1371,7 +1379,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5">
+      <c r="A67" s="9">
         <v>44358</v>
       </c>
       <c r="B67">
@@ -1388,7 +1396,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5">
+      <c r="A68" s="9">
         <v>44359</v>
       </c>
       <c r="B68">
@@ -1405,7 +1413,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5">
+      <c r="A69" s="9">
         <v>44360</v>
       </c>
       <c r="B69">
@@ -1422,7 +1430,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5">
+      <c r="A70" s="9">
         <v>44361</v>
       </c>
       <c r="B70">
@@ -1442,7 +1450,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5">
+      <c r="A71" s="9">
         <v>44362</v>
       </c>
       <c r="B71">
@@ -1459,7 +1467,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5">
+      <c r="A72" s="9">
         <v>44363</v>
       </c>
       <c r="B72">
@@ -1476,7 +1484,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5">
+      <c r="A73" s="9">
         <v>44364</v>
       </c>
       <c r="B73">
@@ -1493,7 +1501,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5">
+      <c r="A74" s="9">
         <v>44365</v>
       </c>
       <c r="B74">
@@ -1510,7 +1518,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5">
+      <c r="A75" s="9">
         <v>44366</v>
       </c>
       <c r="B75">

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,10 +84,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
     <border/>
     <border/>
   </borders>
@@ -116,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -135,10 +131,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -176,27 +168,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
       <c r="B2">
@@ -213,7 +205,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
       <c r="B3">
@@ -230,7 +222,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
       <c r="B4">
@@ -247,7 +239,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
       <c r="B5">
@@ -264,7 +256,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
       <c r="B6">
@@ -281,7 +273,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
       <c r="B7">
@@ -298,7 +290,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
       <c r="B8">
@@ -315,7 +307,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
       <c r="B9">
@@ -332,7 +324,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
       <c r="B10">
@@ -349,7 +341,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
       <c r="B11">
@@ -366,7 +358,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
       <c r="B12">
@@ -383,7 +375,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
       <c r="B13">
@@ -403,7 +395,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
       <c r="B14">
@@ -423,7 +415,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
       <c r="B15">
@@ -443,7 +435,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
       <c r="B16">
@@ -463,7 +455,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
       <c r="B17">
@@ -483,7 +475,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
       <c r="B18">
@@ -500,7 +492,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
       <c r="B19">
@@ -520,7 +512,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
       <c r="B20">
@@ -540,7 +532,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
       <c r="B21">
@@ -557,7 +549,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
       <c r="B22">
@@ -577,7 +569,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
       <c r="B23">
@@ -594,7 +586,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
       <c r="B24">
@@ -611,7 +603,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
       <c r="B25">
@@ -628,7 +620,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
       <c r="B26">
@@ -648,7 +640,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
       <c r="B27">
@@ -668,7 +660,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
       <c r="B28">
@@ -688,11 +680,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
       <c r="B29">
-        <v>39539</v>
+        <v>39558</v>
       </c>
       <c r="C29">
         <v>72</v>
@@ -708,7 +700,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
       <c r="B30">
@@ -728,7 +720,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
       <c r="B31">
@@ -748,7 +740,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
       <c r="B32">
@@ -765,7 +757,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
       <c r="B33">
@@ -785,7 +777,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
       <c r="B34">
@@ -805,7 +797,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
       <c r="B35">
@@ -822,7 +814,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
       <c r="B36">
@@ -842,7 +834,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
       <c r="B37">
@@ -862,7 +854,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
       <c r="B38">
@@ -882,7 +874,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
       <c r="B39">
@@ -899,7 +891,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
       <c r="B40">
@@ -919,7 +911,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
       <c r="B41">
@@ -936,7 +928,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9">
+      <c r="A42" s="5">
         <v>44333</v>
       </c>
       <c r="B42">
@@ -953,7 +945,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9">
+      <c r="A43" s="5">
         <v>44334</v>
       </c>
       <c r="B43">
@@ -970,7 +962,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9">
+      <c r="A44" s="5">
         <v>44335</v>
       </c>
       <c r="B44">
@@ -990,7 +982,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9">
+      <c r="A45" s="5">
         <v>44336</v>
       </c>
       <c r="B45">
@@ -1010,7 +1002,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9">
+      <c r="A46" s="5">
         <v>44337</v>
       </c>
       <c r="B46">
@@ -1027,7 +1019,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9">
+      <c r="A47" s="5">
         <v>44338</v>
       </c>
       <c r="B47">
@@ -1047,7 +1039,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9">
+      <c r="A48" s="5">
         <v>44339</v>
       </c>
       <c r="B48">
@@ -1067,7 +1059,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9">
+      <c r="A49" s="5">
         <v>44340</v>
       </c>
       <c r="B49">
@@ -1084,7 +1076,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9">
+      <c r="A50" s="5">
         <v>44341</v>
       </c>
       <c r="B50">
@@ -1104,7 +1096,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9">
+      <c r="A51" s="5">
         <v>44342</v>
       </c>
       <c r="B51">
@@ -1121,7 +1113,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9">
+      <c r="A52" s="5">
         <v>44343</v>
       </c>
       <c r="B52">
@@ -1138,7 +1130,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9">
+      <c r="A53" s="5">
         <v>44344</v>
       </c>
       <c r="B53">
@@ -1155,7 +1147,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9">
+      <c r="A54" s="5">
         <v>44345</v>
       </c>
       <c r="B54">
@@ -1172,7 +1164,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9">
+      <c r="A55" s="5">
         <v>44346</v>
       </c>
       <c r="B55">
@@ -1189,7 +1181,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9">
+      <c r="A56" s="5">
         <v>44347</v>
       </c>
       <c r="B56">
@@ -1206,7 +1198,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9">
+      <c r="A57" s="5">
         <v>44348</v>
       </c>
       <c r="B57">
@@ -1223,7 +1215,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9">
+      <c r="A58" s="5">
         <v>44349</v>
       </c>
       <c r="B58">
@@ -1240,7 +1232,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9">
+      <c r="A59" s="5">
         <v>44350</v>
       </c>
       <c r="B59">
@@ -1257,7 +1249,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9">
+      <c r="A60" s="5">
         <v>44351</v>
       </c>
       <c r="B60">
@@ -1274,7 +1266,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9">
+      <c r="A61" s="5">
         <v>44352</v>
       </c>
       <c r="B61">
@@ -1291,7 +1283,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9">
+      <c r="A62" s="5">
         <v>44353</v>
       </c>
       <c r="B62">
@@ -1308,7 +1300,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9">
+      <c r="A63" s="5">
         <v>44354</v>
       </c>
       <c r="B63">
@@ -1325,7 +1317,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9">
+      <c r="A64" s="5">
         <v>44355</v>
       </c>
       <c r="B64">
@@ -1342,7 +1334,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9">
+      <c r="A65" s="5">
         <v>44356</v>
       </c>
       <c r="B65">
@@ -1359,7 +1351,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9">
+      <c r="A66" s="5">
         <v>44357</v>
       </c>
       <c r="B66">
@@ -1379,7 +1371,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9">
+      <c r="A67" s="5">
         <v>44358</v>
       </c>
       <c r="B67">
@@ -1396,7 +1388,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9">
+      <c r="A68" s="5">
         <v>44359</v>
       </c>
       <c r="B68">
@@ -1413,7 +1405,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9">
+      <c r="A69" s="5">
         <v>44360</v>
       </c>
       <c r="B69">
@@ -1430,7 +1422,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9">
+      <c r="A70" s="5">
         <v>44361</v>
       </c>
       <c r="B70">
@@ -1450,7 +1442,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9">
+      <c r="A71" s="5">
         <v>44362</v>
       </c>
       <c r="B71">
@@ -1467,11 +1459,11 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9">
+      <c r="A72" s="5">
         <v>44363</v>
       </c>
       <c r="B72">
-        <v>22855</v>
+        <v>22888</v>
       </c>
       <c r="C72">
         <v>13</v>
@@ -1484,53 +1476,70 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9">
+      <c r="A73" s="5">
         <v>44364</v>
       </c>
       <c r="B73">
-        <v>21279</v>
+        <v>21616</v>
       </c>
       <c r="C73">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9">
+      <c r="A74" s="5">
         <v>44365</v>
       </c>
       <c r="B74">
-        <v>27347</v>
+        <v>28405</v>
       </c>
       <c r="C74">
         <v>34</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E74">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9">
+      <c r="A75" s="5">
         <v>44366</v>
       </c>
       <c r="B75">
-        <v>15952</v>
+        <v>18209</v>
       </c>
       <c r="C75">
         <v>46</v>
       </c>
       <c r="D75">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5">
+        <v>44367</v>
+      </c>
+      <c r="B76">
+        <v>33972</v>
+      </c>
+      <c r="C76">
+        <v>48</v>
+      </c>
+      <c r="D76">
+        <v>41</v>
+      </c>
+      <c r="E76">
         <v>8</v>
       </c>
     </row>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -112,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,8 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,1410 +145,1438 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>54048</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>43024</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36064</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>38995</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>61406</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>76061</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>57994</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14282</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30617</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>37454</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>52888</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>55067</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>47510</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>35039</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35691</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>31159</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>39944</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>34208</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>36852</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>34642</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>36327</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9241</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>28853</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>37991</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>39558</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>40602</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>31747</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>34022</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
-        <v>11581</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="0" t="n">
+        <v>11584</v>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>26930</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>40716</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>35995</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>31409</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>21744</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>21685</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5708</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>15993</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>9564</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>27655</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>35438</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>24980</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>28446</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>7576</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>19560</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>37942</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>30189</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>28735</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>30693</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
-        <v>33924</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="0" t="n">
+        <v>33925</v>
+      </c>
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>10137</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>22361</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>29550</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>25811</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>18802</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>17144</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>18697</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7621</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>18010</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>25538</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>24748</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>18075</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>19055</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5">
+      <c r="A67" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>18646</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5">
+      <c r="A68" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>11058</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5">
+      <c r="A69" s="3" t="n">
         <v>44360</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>21017</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5">
+      <c r="A70" s="3" t="n">
         <v>44361</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>30824</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5">
+      <c r="A71" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>28123</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5">
+      <c r="A72" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="B72">
-        <v>22888</v>
-      </c>
-      <c r="C72">
+      <c r="B72" s="0" t="n">
+        <v>22889</v>
+      </c>
+      <c r="C72" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5">
+      <c r="A73" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>21616</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5">
+      <c r="A74" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="B74">
-        <v>28405</v>
-      </c>
-      <c r="C74">
-        <v>34</v>
-      </c>
-      <c r="D74">
-        <v>29</v>
-      </c>
-      <c r="E74">
+      <c r="B74" s="0" t="n">
+        <v>28406</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5">
+      <c r="A75" s="3" t="n">
         <v>44366</v>
       </c>
-      <c r="B75">
-        <v>18209</v>
-      </c>
-      <c r="C75">
+      <c r="B75" s="0" t="n">
+        <v>18212</v>
+      </c>
+      <c r="C75" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5">
+      <c r="A76" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B76">
-        <v>33972</v>
-      </c>
-      <c r="C76">
-        <v>48</v>
-      </c>
-      <c r="D76">
+      <c r="B76" s="0" t="n">
+        <v>34177</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D76" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>8</v>
       </c>
     </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>44368</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>34693</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>44369</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,8 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +129,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -159,1424 +158,1430 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>54048</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>276</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>43024</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>212</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36064</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>223</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>86</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>38995</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>61406</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>221</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>76061</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>199</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>57994</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>196</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14282</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>95</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30617</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>109</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>83</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>37454</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>141</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>52888</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>133</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>55067</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>159</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>47510</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>114</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>35039</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>129</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35691</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>108</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>39</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>31159</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>39944</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>93</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>34208</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>87</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>36852</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>96</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>34642</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>94</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>36327</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>79</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9241</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>28853</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>50</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>37991</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>39558</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>72</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>40602</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>68</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>31747</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>34022</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>11584</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>16</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>26930</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>40716</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>51</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>35995</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>31409</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>21744</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>21685</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>27</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5708</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>15993</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="5">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>9564</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="5">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>27655</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="5">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>35438</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>55</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="5">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>24980</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="5">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>28446</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="5">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>7576</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>12</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="5">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>19560</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="5">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>37942</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>28</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="5">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>30189</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>22</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="5">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>28735</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>14</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="5">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>30693</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>14</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="5">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>33925</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="5">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>10137</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="5">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>22361</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="5">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>29550</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="5">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>25811</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>35</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="5">
         <v>44349</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>18802</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>13</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="5">
         <v>44350</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>17144</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>10</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="5">
         <v>44351</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>18697</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="5">
         <v>44352</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>7621</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>4</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="5">
         <v>44353</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>18010</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>4</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="5">
         <v>44354</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>25538</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="5">
         <v>44355</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>24748</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>29</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="5">
         <v>44356</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>18075</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="5">
         <v>44357</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>19055</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>18</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="5">
         <v>44358</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>18646</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>18</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="5">
         <v>44359</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>11058</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="5">
         <v>44360</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>21017</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="5">
         <v>44361</v>
       </c>
-      <c r="B70" s="0" t="n">
-        <v>30824</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D70" s="0" t="n">
+      <c r="B70">
+        <v>30825</v>
+      </c>
+      <c r="C70">
+        <v>26</v>
+      </c>
+      <c r="D70">
         <v>12</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>13</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="5">
         <v>44362</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>28123</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>26</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>18</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="5">
         <v>44363</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>22889</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>7</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="5">
         <v>44364</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>21616</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>27</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>17</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="5">
         <v>44365</v>
       </c>
-      <c r="B74" s="0" t="n">
-        <v>28406</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="D74" s="0" t="n">
+      <c r="B74">
+        <v>28405</v>
+      </c>
+      <c r="C74">
+        <v>35</v>
+      </c>
+      <c r="D74">
         <v>31</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="5">
         <v>44366</v>
       </c>
-      <c r="B75" s="0" t="n">
-        <v>18212</v>
-      </c>
-      <c r="C75" s="0" t="n">
+      <c r="B75">
+        <v>18213</v>
+      </c>
+      <c r="C75">
         <v>46</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>38</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="5">
         <v>44367</v>
       </c>
-      <c r="B76" s="0" t="n">
-        <v>34177</v>
-      </c>
-      <c r="C76" s="0" t="n">
+      <c r="B76">
+        <v>34176</v>
+      </c>
+      <c r="C76">
         <v>49</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>41</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="5">
         <v>44368</v>
       </c>
-      <c r="B77" s="0" t="n">
-        <v>34693</v>
-      </c>
-      <c r="C77" s="0" t="n">
+      <c r="B77">
+        <v>50043</v>
+      </c>
+      <c r="C77">
         <v>125</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>115</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="5">
         <v>44369</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="B78">
+        <v>45175</v>
+      </c>
+      <c r="C78">
+        <v>110</v>
+      </c>
+      <c r="D78">
         <v>96</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -112,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,8 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,1444 +145,1488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="D78" activeCellId="0" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>54048</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>43024</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36064</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>38995</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>61406</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>76061</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>57994</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14282</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30617</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>37454</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>52888</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>55067</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>47510</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>35039</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35691</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>31159</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>39944</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>34208</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>36852</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>34642</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>36327</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9241</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>28853</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>37991</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>39558</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>40602</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>31747</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>34022</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>11584</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>26930</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>40716</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>35995</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>31409</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>21744</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>21685</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5708</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>15993</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>9564</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>27655</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>35438</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>24980</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>28446</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>7576</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>19560</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>37942</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>30189</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>28735</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>30693</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>33925</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>10137</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>22361</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>29550</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>25811</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>18802</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>17144</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>18697</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7621</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>18010</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>25538</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>24748</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>18075</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>19055</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5">
+      <c r="A67" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>18646</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5">
+      <c r="A68" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>11058</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5">
+      <c r="A69" s="3" t="n">
         <v>44360</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>21017</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5">
+      <c r="A70" s="3" t="n">
         <v>44361</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>30825</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5">
+      <c r="A71" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>28123</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5">
+      <c r="A72" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>22889</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5">
+      <c r="A73" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>21616</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5">
+      <c r="A74" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>28405</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5">
+      <c r="A75" s="3" t="n">
         <v>44366</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>18213</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5">
+      <c r="A76" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>34176</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5">
+      <c r="A77" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>50043</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="D77">
-        <v>115</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="E77" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5">
+      <c r="A78" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>45175</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D78">
-        <v>96</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E78" s="0" t="n">
         <v>14</v>
       </c>
     </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>44370</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>44371</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>44372</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>44373</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,10 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +131,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -159,1474 +162,1498 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="7">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>54048</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>276</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="7">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>43024</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>212</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="7">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36064</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>223</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="7">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>86</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="7">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>38995</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="7">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>61406</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>221</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="7">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>76061</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>199</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="7">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>57994</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>196</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="7">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14282</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>95</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="7">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30617</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>109</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="7">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>83</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="7">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>37454</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>141</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="7">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>52888</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>133</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="7">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>55067</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>159</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="7">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>47510</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>114</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="7">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>35039</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>129</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="7">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35691</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>108</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="7">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>39</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="7">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>31159</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="7">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>39944</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>93</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="7">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>34208</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>87</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="7">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>36852</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="C23">
+        <v>95</v>
+      </c>
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="7">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>34642</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>94</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="7">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>36327</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>79</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="7">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9241</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="7">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>28853</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>50</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="7">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>37991</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="7">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>39558</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="D29" s="0" t="n">
+      <c r="C29">
+        <v>64</v>
+      </c>
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="7">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>40602</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>68</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="7">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>31747</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="7">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>34022</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="7">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>11584</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>16</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="7">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>26930</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="7">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>40716</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>51</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="7">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>35995</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="7">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>31409</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="7">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>21744</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="7">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>21685</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>27</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="7">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5708</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="7">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>15993</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="7">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>9564</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="7">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>27655</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="7">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>35438</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>55</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="7">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>24980</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="7">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>28446</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="7">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>7576</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>12</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="7">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>19560</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="7">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>37942</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>28</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="7">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>30189</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>22</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="7">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>28735</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>14</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="7">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>30693</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>14</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="7">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>33925</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="7">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>10137</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="7">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>22361</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="7">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>29550</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="7">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>25811</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>35</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="7">
         <v>44349</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>18802</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>13</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="7">
         <v>44350</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>17144</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>10</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="7">
         <v>44351</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>18697</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="7">
         <v>44352</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>7621</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>4</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="7">
         <v>44353</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>18010</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>4</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="7">
         <v>44354</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>25538</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="7">
         <v>44355</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>24748</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>29</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="7">
         <v>44356</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>18075</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="7">
         <v>44357</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>19055</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>18</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="7">
         <v>44358</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>18646</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>18</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="7">
         <v>44359</v>
       </c>
-      <c r="B68" s="0" t="n">
-        <v>11058</v>
-      </c>
-      <c r="C68" s="0" t="n">
+      <c r="B68">
+        <v>11060</v>
+      </c>
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="7">
         <v>44360</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>21017</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="7">
         <v>44361</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>30825</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>26</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>12</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>13</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="7">
         <v>44362</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>28123</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>26</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>18</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="7">
         <v>44363</v>
       </c>
-      <c r="B72" s="0" t="n">
-        <v>22889</v>
-      </c>
-      <c r="C72" s="0" t="n">
+      <c r="B72">
+        <v>23157</v>
+      </c>
+      <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>7</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="7">
         <v>44364</v>
       </c>
-      <c r="B73" s="0" t="n">
-        <v>21616</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="D73" s="0" t="n">
+      <c r="B73">
+        <v>21652</v>
+      </c>
+      <c r="C73">
+        <v>26</v>
+      </c>
+      <c r="D73">
         <v>17</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="7">
         <v>44365</v>
       </c>
-      <c r="B74" s="0" t="n">
-        <v>28405</v>
-      </c>
-      <c r="C74" s="0" t="n">
+      <c r="B74">
+        <v>28680</v>
+      </c>
+      <c r="C74">
         <v>35</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>31</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="7">
         <v>44366</v>
       </c>
-      <c r="B75" s="0" t="n">
-        <v>18213</v>
-      </c>
-      <c r="C75" s="0" t="n">
+      <c r="B75">
+        <v>18669</v>
+      </c>
+      <c r="C75">
         <v>46</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>38</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="7">
         <v>44367</v>
       </c>
-      <c r="B76" s="0" t="n">
-        <v>34176</v>
-      </c>
-      <c r="C76" s="0" t="n">
+      <c r="B76">
+        <v>34725</v>
+      </c>
+      <c r="C76">
         <v>49</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>41</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="7">
         <v>44368</v>
       </c>
-      <c r="B77" s="0" t="n">
-        <v>50043</v>
-      </c>
-      <c r="C77" s="0" t="n">
+      <c r="B77">
+        <v>50506</v>
+      </c>
+      <c r="C77">
         <v>125</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>117</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="7">
         <v>44369</v>
       </c>
-      <c r="B78" s="0" t="n">
-        <v>45175</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="D78" s="0" t="n">
+      <c r="B78">
+        <v>45758</v>
+      </c>
+      <c r="C78">
+        <v>111</v>
+      </c>
+      <c r="D78">
         <v>97</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="7">
         <v>44370</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="B79">
+        <v>43373</v>
+      </c>
+      <c r="C79">
+        <v>138</v>
+      </c>
+      <c r="D79">
         <v>127</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="7">
         <v>44371</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="B80">
+        <v>41338</v>
+      </c>
+      <c r="C80">
+        <v>229</v>
+      </c>
+      <c r="D80">
         <v>219</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="7">
         <v>44372</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="B81">
+        <v>58319</v>
+      </c>
+      <c r="C81">
+        <v>230</v>
+      </c>
+      <c r="D81">
         <v>215</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="7">
         <v>44373</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="B82">
+        <v>32794</v>
+      </c>
+      <c r="C82">
+        <v>114</v>
+      </c>
+      <c r="D82">
         <v>97</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -152,15 +152,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D78" activeCellId="0" sqref="D78"/>
+      <selection pane="bottomLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -1189,7 +1189,7 @@
         <v>44347</v>
       </c>
       <c r="B56">
-        <v>29550</v>
+        <v>29553</v>
       </c>
       <c r="C56">
         <v>14</v>
@@ -1589,7 +1589,7 @@
         <v>43373</v>
       </c>
       <c r="C79">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D79">
         <v>127</v>
@@ -1643,10 +1643,27 @@
         <v>114</v>
       </c>
       <c r="D82">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E82">
         <v>18</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7">
+        <v>44374</v>
+      </c>
+      <c r="B83">
+        <v>40123</v>
+      </c>
+      <c r="C83">
+        <v>145</v>
+      </c>
+      <c r="D83">
+        <v>133</v>
+      </c>
+      <c r="E83">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +84,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
     <border/>
     <border/>
   </borders>
@@ -114,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -133,8 +131,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -172,27 +168,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
       <c r="B2">
@@ -209,7 +205,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
       <c r="B3">
@@ -226,7 +222,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
       <c r="B4">
@@ -243,7 +239,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
       <c r="B5">
@@ -260,7 +256,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
       <c r="B6">
@@ -277,7 +273,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
       <c r="B7">
@@ -294,7 +290,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
       <c r="B8">
@@ -311,7 +307,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
       <c r="B9">
@@ -328,7 +324,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
       <c r="B10">
@@ -345,7 +341,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
       <c r="B11">
@@ -362,7 +358,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
       <c r="B12">
@@ -379,7 +375,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
       <c r="B13">
@@ -399,7 +395,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
       <c r="B14">
@@ -419,7 +415,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
       <c r="B15">
@@ -439,7 +435,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
       <c r="B16">
@@ -459,7 +455,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
       <c r="B17">
@@ -479,7 +475,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
       <c r="B18">
@@ -496,7 +492,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
       <c r="B19">
@@ -516,7 +512,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
       <c r="B20">
@@ -536,7 +532,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
       <c r="B21">
@@ -553,7 +549,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
       <c r="B22">
@@ -573,7 +569,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
       <c r="B23">
@@ -590,7 +586,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
       <c r="B24">
@@ -607,7 +603,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
       <c r="B25">
@@ -624,7 +620,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
       <c r="B26">
@@ -644,7 +640,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
       <c r="B27">
@@ -664,7 +660,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
       <c r="B28">
@@ -684,7 +680,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
       <c r="B29">
@@ -704,7 +700,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
       <c r="B30">
@@ -724,7 +720,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
       <c r="B31">
@@ -744,7 +740,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
       <c r="B32">
@@ -761,7 +757,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
       <c r="B33">
@@ -781,7 +777,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
       <c r="B34">
@@ -801,7 +797,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
       <c r="B35">
@@ -818,7 +814,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
       <c r="B36">
@@ -838,7 +834,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
       <c r="B37">
@@ -858,7 +854,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
       <c r="B38">
@@ -878,7 +874,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
       <c r="B39">
@@ -895,7 +891,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
       <c r="B40">
@@ -915,7 +911,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
       <c r="B41">
@@ -932,7 +928,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>44333</v>
       </c>
       <c r="B42">
@@ -949,7 +945,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>44334</v>
       </c>
       <c r="B43">
@@ -966,7 +962,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>44335</v>
       </c>
       <c r="B44">
@@ -986,7 +982,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>44336</v>
       </c>
       <c r="B45">
@@ -1006,7 +1002,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>44337</v>
       </c>
       <c r="B46">
@@ -1023,7 +1019,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>44338</v>
       </c>
       <c r="B47">
@@ -1043,7 +1039,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>44339</v>
       </c>
       <c r="B48">
@@ -1063,7 +1059,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>44340</v>
       </c>
       <c r="B49">
@@ -1080,7 +1076,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>44341</v>
       </c>
       <c r="B50">
@@ -1100,7 +1096,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>44342</v>
       </c>
       <c r="B51">
@@ -1117,7 +1113,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>44343</v>
       </c>
       <c r="B52">
@@ -1134,7 +1130,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7">
+      <c r="A53" s="5">
         <v>44344</v>
       </c>
       <c r="B53">
@@ -1151,7 +1147,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7">
+      <c r="A54" s="5">
         <v>44345</v>
       </c>
       <c r="B54">
@@ -1168,7 +1164,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7">
+      <c r="A55" s="5">
         <v>44346</v>
       </c>
       <c r="B55">
@@ -1185,7 +1181,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7">
+      <c r="A56" s="5">
         <v>44347</v>
       </c>
       <c r="B56">
@@ -1202,7 +1198,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7">
+      <c r="A57" s="5">
         <v>44348</v>
       </c>
       <c r="B57">
@@ -1219,7 +1215,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7">
+      <c r="A58" s="5">
         <v>44349</v>
       </c>
       <c r="B58">
@@ -1236,7 +1232,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7">
+      <c r="A59" s="5">
         <v>44350</v>
       </c>
       <c r="B59">
@@ -1253,7 +1249,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7">
+      <c r="A60" s="5">
         <v>44351</v>
       </c>
       <c r="B60">
@@ -1270,7 +1266,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7">
+      <c r="A61" s="5">
         <v>44352</v>
       </c>
       <c r="B61">
@@ -1287,7 +1283,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7">
+      <c r="A62" s="5">
         <v>44353</v>
       </c>
       <c r="B62">
@@ -1304,7 +1300,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7">
+      <c r="A63" s="5">
         <v>44354</v>
       </c>
       <c r="B63">
@@ -1321,7 +1317,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7">
+      <c r="A64" s="5">
         <v>44355</v>
       </c>
       <c r="B64">
@@ -1338,7 +1334,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7">
+      <c r="A65" s="5">
         <v>44356</v>
       </c>
       <c r="B65">
@@ -1355,7 +1351,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7">
+      <c r="A66" s="5">
         <v>44357</v>
       </c>
       <c r="B66">
@@ -1375,7 +1371,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7">
+      <c r="A67" s="5">
         <v>44358</v>
       </c>
       <c r="B67">
@@ -1392,7 +1388,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7">
+      <c r="A68" s="5">
         <v>44359</v>
       </c>
       <c r="B68">
@@ -1409,7 +1405,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7">
+      <c r="A69" s="5">
         <v>44360</v>
       </c>
       <c r="B69">
@@ -1426,7 +1422,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7">
+      <c r="A70" s="5">
         <v>44361</v>
       </c>
       <c r="B70">
@@ -1446,7 +1442,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7">
+      <c r="A71" s="5">
         <v>44362</v>
       </c>
       <c r="B71">
@@ -1463,7 +1459,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7">
+      <c r="A72" s="5">
         <v>44363</v>
       </c>
       <c r="B72">
@@ -1480,7 +1476,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7">
+      <c r="A73" s="5">
         <v>44364</v>
       </c>
       <c r="B73">
@@ -1497,11 +1493,11 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7">
+      <c r="A74" s="5">
         <v>44365</v>
       </c>
       <c r="B74">
-        <v>28680</v>
+        <v>28800</v>
       </c>
       <c r="C74">
         <v>35</v>
@@ -1514,11 +1510,11 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7">
+      <c r="A75" s="5">
         <v>44366</v>
       </c>
       <c r="B75">
-        <v>18669</v>
+        <v>18709</v>
       </c>
       <c r="C75">
         <v>46</v>
@@ -1531,11 +1527,11 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7">
+      <c r="A76" s="5">
         <v>44367</v>
       </c>
       <c r="B76">
-        <v>34725</v>
+        <v>34727</v>
       </c>
       <c r="C76">
         <v>49</v>
@@ -1548,11 +1544,11 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7">
+      <c r="A77" s="5">
         <v>44368</v>
       </c>
       <c r="B77">
-        <v>50506</v>
+        <v>50580</v>
       </c>
       <c r="C77">
         <v>125</v>
@@ -1565,11 +1561,11 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7">
+      <c r="A78" s="5">
         <v>44369</v>
       </c>
       <c r="B78">
-        <v>45758</v>
+        <v>45838</v>
       </c>
       <c r="C78">
         <v>111</v>
@@ -1582,14 +1578,14 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7">
+      <c r="A79" s="5">
         <v>44370</v>
       </c>
       <c r="B79">
         <v>43373</v>
       </c>
       <c r="C79">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D79">
         <v>127</v>
@@ -1599,11 +1595,11 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7">
+      <c r="A80" s="5">
         <v>44371</v>
       </c>
       <c r="B80">
-        <v>41338</v>
+        <v>41388</v>
       </c>
       <c r="C80">
         <v>229</v>
@@ -1616,14 +1612,14 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7">
+      <c r="A81" s="5">
         <v>44372</v>
       </c>
       <c r="B81">
         <v>58319</v>
       </c>
       <c r="C81">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81">
         <v>215</v>
@@ -1633,7 +1629,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7">
+      <c r="A82" s="5">
         <v>44373</v>
       </c>
       <c r="B82">
@@ -1650,11 +1646,11 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7">
+      <c r="A83" s="5">
         <v>44374</v>
       </c>
       <c r="B83">
-        <v>40123</v>
+        <v>40359</v>
       </c>
       <c r="C83">
         <v>145</v>
@@ -1664,6 +1660,23 @@
       </c>
       <c r="E83">
         <v>13</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5">
+        <v>44375</v>
+      </c>
+      <c r="B84">
+        <v>67926</v>
+      </c>
+      <c r="C84">
+        <v>283</v>
+      </c>
+      <c r="D84">
+        <v>279</v>
+      </c>
+      <c r="E84">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
+      <selection pane="bottomLeft" activeCell="D83" activeCellId="0" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -1480,7 +1480,7 @@
         <v>44364</v>
       </c>
       <c r="B73">
-        <v>21652</v>
+        <v>21658</v>
       </c>
       <c r="C73">
         <v>26</v>
@@ -1514,7 +1514,7 @@
         <v>44366</v>
       </c>
       <c r="B75">
-        <v>18709</v>
+        <v>18710</v>
       </c>
       <c r="C75">
         <v>46</v>
@@ -1531,7 +1531,7 @@
         <v>44367</v>
       </c>
       <c r="B76">
-        <v>34727</v>
+        <v>34769</v>
       </c>
       <c r="C76">
         <v>49</v>
@@ -1548,7 +1548,7 @@
         <v>44368</v>
       </c>
       <c r="B77">
-        <v>50580</v>
+        <v>50796</v>
       </c>
       <c r="C77">
         <v>125</v>
@@ -1599,7 +1599,7 @@
         <v>44371</v>
       </c>
       <c r="B80">
-        <v>41388</v>
+        <v>41427</v>
       </c>
       <c r="C80">
         <v>229</v>
@@ -1619,7 +1619,7 @@
         <v>58319</v>
       </c>
       <c r="C81">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81">
         <v>215</v>
@@ -1633,7 +1633,7 @@
         <v>44373</v>
       </c>
       <c r="B82">
-        <v>32794</v>
+        <v>33054</v>
       </c>
       <c r="C82">
         <v>114</v>
@@ -1650,7 +1650,7 @@
         <v>44374</v>
       </c>
       <c r="B83">
-        <v>40359</v>
+        <v>40380</v>
       </c>
       <c r="C83">
         <v>145</v>
@@ -1667,16 +1667,33 @@
         <v>44375</v>
       </c>
       <c r="B84">
-        <v>67926</v>
+        <v>68174</v>
       </c>
       <c r="C84">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D84">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E84">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5">
+        <v>44376</v>
+      </c>
+      <c r="B85">
+        <v>67895</v>
+      </c>
+      <c r="C85">
+        <v>293</v>
+      </c>
+      <c r="D85">
+        <v>272</v>
+      </c>
+      <c r="E85">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D83" activeCellId="0" sqref="D83"/>
+      <selection pane="bottomLeft" activeCell="A85" activeCellId="0" sqref="A85:A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -1219,7 +1219,7 @@
         <v>44349</v>
       </c>
       <c r="B58">
-        <v>18802</v>
+        <v>18805</v>
       </c>
       <c r="C58">
         <v>13</v>
@@ -1236,7 +1236,7 @@
         <v>44350</v>
       </c>
       <c r="B59">
-        <v>17144</v>
+        <v>17145</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -1253,7 +1253,7 @@
         <v>44351</v>
       </c>
       <c r="B60">
-        <v>18697</v>
+        <v>18710</v>
       </c>
       <c r="C60">
         <v>31</v>
@@ -1270,10 +1270,10 @@
         <v>44352</v>
       </c>
       <c r="B61">
-        <v>7621</v>
+        <v>7653</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>44353</v>
       </c>
       <c r="B62">
-        <v>18010</v>
+        <v>18021</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1304,7 +1304,7 @@
         <v>44354</v>
       </c>
       <c r="B63">
-        <v>25538</v>
+        <v>25742</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1321,10 +1321,10 @@
         <v>44355</v>
       </c>
       <c r="B64">
-        <v>24748</v>
+        <v>24808</v>
       </c>
       <c r="C64">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64">
         <v>10</v>
@@ -1338,7 +1338,7 @@
         <v>44356</v>
       </c>
       <c r="B65">
-        <v>18075</v>
+        <v>18123</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1355,7 +1355,7 @@
         <v>44357</v>
       </c>
       <c r="B66">
-        <v>19055</v>
+        <v>19056</v>
       </c>
       <c r="C66">
         <v>18</v>
@@ -1392,7 +1392,7 @@
         <v>44359</v>
       </c>
       <c r="B68">
-        <v>11060</v>
+        <v>11069</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1409,7 +1409,7 @@
         <v>44360</v>
       </c>
       <c r="B69">
-        <v>21017</v>
+        <v>21020</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>30825</v>
       </c>
       <c r="C70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D70">
         <v>12</v>
@@ -1446,7 +1446,7 @@
         <v>44362</v>
       </c>
       <c r="B71">
-        <v>28123</v>
+        <v>28141</v>
       </c>
       <c r="C71">
         <v>26</v>
@@ -1497,7 +1497,7 @@
         <v>44365</v>
       </c>
       <c r="B74">
-        <v>28800</v>
+        <v>28803</v>
       </c>
       <c r="C74">
         <v>35</v>
@@ -1514,7 +1514,7 @@
         <v>44366</v>
       </c>
       <c r="B75">
-        <v>18710</v>
+        <v>18711</v>
       </c>
       <c r="C75">
         <v>46</v>
@@ -1531,7 +1531,7 @@
         <v>44367</v>
       </c>
       <c r="B76">
-        <v>34769</v>
+        <v>34771</v>
       </c>
       <c r="C76">
         <v>49</v>
@@ -1548,7 +1548,7 @@
         <v>44368</v>
       </c>
       <c r="B77">
-        <v>50796</v>
+        <v>50798</v>
       </c>
       <c r="C77">
         <v>125</v>
@@ -1565,7 +1565,7 @@
         <v>44369</v>
       </c>
       <c r="B78">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="C78">
         <v>111</v>
@@ -1616,7 +1616,7 @@
         <v>44372</v>
       </c>
       <c r="B81">
-        <v>58319</v>
+        <v>58321</v>
       </c>
       <c r="C81">
         <v>230</v>
@@ -1636,7 +1636,7 @@
         <v>33054</v>
       </c>
       <c r="C82">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D82">
         <v>98</v>
@@ -1650,7 +1650,7 @@
         <v>44374</v>
       </c>
       <c r="B83">
-        <v>40380</v>
+        <v>40381</v>
       </c>
       <c r="C83">
         <v>145</v>
@@ -1667,13 +1667,13 @@
         <v>44375</v>
       </c>
       <c r="B84">
-        <v>68174</v>
+        <v>68177</v>
       </c>
       <c r="C84">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D84">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E84">
         <v>11</v>
@@ -1684,16 +1684,50 @@
         <v>44376</v>
       </c>
       <c r="B85">
-        <v>67895</v>
+        <v>68003</v>
       </c>
       <c r="C85">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D85">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E85">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5">
+        <v>44377</v>
+      </c>
+      <c r="B86">
+        <v>59261</v>
+      </c>
+      <c r="C86">
+        <v>308</v>
+      </c>
+      <c r="D86">
+        <v>286</v>
+      </c>
+      <c r="E86">
         <v>22</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5">
+        <v>44378</v>
+      </c>
+      <c r="B87">
+        <v>63067</v>
+      </c>
+      <c r="C87">
+        <v>295</v>
+      </c>
+      <c r="D87">
+        <v>271</v>
+      </c>
+      <c r="E87">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A85" activeCellId="0" sqref="A85:A87"/>
+      <selection pane="bottomLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -1667,7 +1667,7 @@
         <v>44375</v>
       </c>
       <c r="B84">
-        <v>68177</v>
+        <v>68178</v>
       </c>
       <c r="C84">
         <v>288</v>
@@ -1707,7 +1707,7 @@
         <v>308</v>
       </c>
       <c r="D86">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E86">
         <v>22</v>
@@ -1718,16 +1718,50 @@
         <v>44378</v>
       </c>
       <c r="B87">
-        <v>63067</v>
+        <v>63158</v>
       </c>
       <c r="C87">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D87">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E87">
         <v>24</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5">
+        <v>44379</v>
+      </c>
+      <c r="B88">
+        <v>69253</v>
+      </c>
+      <c r="C88">
+        <v>326</v>
+      </c>
+      <c r="D88">
+        <v>302</v>
+      </c>
+      <c r="E88">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5">
+        <v>44380</v>
+      </c>
+      <c r="B89">
+        <v>38938</v>
+      </c>
+      <c r="C89">
+        <v>185</v>
+      </c>
+      <c r="D89">
+        <v>168</v>
+      </c>
+      <c r="E89">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
+      <selection pane="bottomLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -1599,7 +1599,7 @@
         <v>44371</v>
       </c>
       <c r="B80">
-        <v>41427</v>
+        <v>41435</v>
       </c>
       <c r="C80">
         <v>229</v>
@@ -1687,7 +1687,7 @@
         <v>68003</v>
       </c>
       <c r="C85">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D85">
         <v>269</v>
@@ -1701,7 +1701,7 @@
         <v>44377</v>
       </c>
       <c r="B86">
-        <v>59261</v>
+        <v>59262</v>
       </c>
       <c r="C86">
         <v>308</v>
@@ -1718,7 +1718,7 @@
         <v>44378</v>
       </c>
       <c r="B87">
-        <v>63158</v>
+        <v>63180</v>
       </c>
       <c r="C87">
         <v>296</v>
@@ -1735,16 +1735,16 @@
         <v>44379</v>
       </c>
       <c r="B88">
-        <v>69253</v>
+        <v>69342</v>
       </c>
       <c r="C88">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D88">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E88">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,15 +1752,32 @@
         <v>44380</v>
       </c>
       <c r="B89">
-        <v>38938</v>
+        <v>39173</v>
       </c>
       <c r="C89">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D89">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5">
+        <v>44381</v>
+      </c>
+      <c r="B90">
+        <v>49074</v>
+      </c>
+      <c r="C90">
+        <v>343</v>
+      </c>
+      <c r="D90">
+        <v>328</v>
+      </c>
+      <c r="E90">
         <v>15</v>
       </c>
     </row>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -112,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,8 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,1648 +145,1681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="E94" activeCellId="0" sqref="E94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>54048</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>43024</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36064</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>38995</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>61406</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>76061</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>57994</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14282</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30617</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>37454</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>52888</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>55067</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>47510</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>35039</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35691</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>31159</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>39944</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>34208</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>36852</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>34642</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>36327</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9241</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>28853</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>37991</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>39558</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>40602</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>31747</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>34022</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>11584</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>26930</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>40716</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>35995</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>31409</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>21744</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>21685</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5708</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>15993</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>9564</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>27655</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>35438</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>24980</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>28446</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>7576</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>19560</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>37942</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>30189</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>28735</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>30693</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>33925</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>10137</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>22361</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>29553</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>25811</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>18805</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>17145</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>18710</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7653</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>18021</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>25742</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>24808</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>18123</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>19056</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5">
+      <c r="A67" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>18646</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5">
+      <c r="A68" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>11069</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5">
+      <c r="A69" s="3" t="n">
         <v>44360</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>21020</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5">
+      <c r="A70" s="3" t="n">
         <v>44361</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>30825</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5">
+      <c r="A71" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>28141</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5">
+      <c r="A72" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>23157</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5">
+      <c r="A73" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>21658</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5">
+      <c r="A74" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>28803</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5">
+      <c r="A75" s="3" t="n">
         <v>44366</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>18711</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5">
+      <c r="A76" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>34771</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5">
+      <c r="A77" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>50798</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5">
+      <c r="A78" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>45840</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5">
+      <c r="A79" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>43373</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5">
+      <c r="A80" s="3" t="n">
         <v>44371</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>41435</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>229</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5">
+      <c r="A81" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>58321</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5">
+      <c r="A82" s="3" t="n">
         <v>44373</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>33054</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5">
+      <c r="A83" s="3" t="n">
         <v>44374</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>40381</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5">
+      <c r="A84" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>68178</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5">
+      <c r="A85" s="3" t="n">
         <v>44376</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>68003</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5">
+      <c r="A86" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>59262</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>308</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5">
+      <c r="A87" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>63180</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5">
+      <c r="A88" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>69342</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>327</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5">
+      <c r="A89" s="3" t="n">
         <v>44380</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>39173</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5">
+      <c r="A90" s="3" t="n">
         <v>44381</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>49074</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>343</v>
       </c>
-      <c r="D90">
-        <v>328</v>
-      </c>
-      <c r="E90">
+      <c r="D90" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="E90" s="0" t="n">
         <v>15</v>
       </c>
     </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="n">
+        <v>44382</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>479</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="n">
+        <v>44383</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="n">
+        <v>44384</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,8 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +129,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -159,1667 +158,1685 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>54048</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>276</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>43024</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>212</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36064</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>223</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>86</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>38995</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>61406</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>221</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>76061</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>199</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>57994</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>196</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14282</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>95</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30617</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>109</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>83</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>37454</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13">
+        <v>37457</v>
+      </c>
+      <c r="C13">
         <v>141</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>52888</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>133</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>55067</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>159</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>47510</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>114</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>35039</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>129</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35691</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>108</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>39</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>31159</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>39944</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>93</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>34208</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>87</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>36852</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>95</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>34642</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>94</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>36327</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>79</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9241</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>28853</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>50</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>37991</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28">
+        <v>37992</v>
+      </c>
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>39558</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>64</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>40602</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30">
+        <v>40603</v>
+      </c>
+      <c r="C30">
         <v>68</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>31747</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>34022</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>11584</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>16</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>26930</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>40716</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>51</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>35995</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>31409</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>21744</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>21685</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>27</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5708</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>15993</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="5">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>9564</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="5">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>27655</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="5">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>35438</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>55</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="5">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>24980</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="5">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>28446</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="5">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>7576</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>12</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="5">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>19560</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="5">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>37942</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>28</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="5">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>30189</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>22</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="5">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>28735</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>14</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="5">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>30693</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>14</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="5">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>33925</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="5">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>10137</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="5">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>22361</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="5">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>29553</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="5">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>25811</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>35</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="5">
         <v>44349</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>18805</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>13</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="5">
         <v>44350</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>17145</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>10</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="5">
         <v>44351</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>18710</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="5">
         <v>44352</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>7653</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="5">
         <v>44353</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>18021</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>4</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="5">
         <v>44354</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>25742</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="5">
         <v>44355</v>
       </c>
-      <c r="B64" s="0" t="n">
-        <v>24808</v>
-      </c>
-      <c r="C64" s="0" t="n">
+      <c r="B64">
+        <v>24809</v>
+      </c>
+      <c r="C64">
         <v>30</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="5">
         <v>44356</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>18123</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="5">
         <v>44357</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>19056</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>18</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="5">
         <v>44358</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>18646</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>18</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="5">
         <v>44359</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>11069</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="5">
         <v>44360</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>21020</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="5">
         <v>44361</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>30825</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>25</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>12</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>13</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="5">
         <v>44362</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>28141</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>26</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>18</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="5">
         <v>44363</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>23157</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>7</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="5">
         <v>44364</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>21658</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>26</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>17</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="5">
         <v>44365</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>28803</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>35</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>31</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="5">
         <v>44366</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>18711</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>46</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>38</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="5">
         <v>44367</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>34771</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>49</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>41</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="5">
         <v>44368</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>50798</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>125</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>117</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="5">
         <v>44369</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>45840</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>111</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>97</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="5">
         <v>44370</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>43373</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>140</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>127</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="5">
         <v>44371</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>41435</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>229</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>219</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="5">
         <v>44372</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>58321</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>230</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>215</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="5">
         <v>44373</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>33054</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>116</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>98</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="5">
         <v>44374</v>
       </c>
-      <c r="B83" s="0" t="n">
-        <v>40381</v>
-      </c>
-      <c r="C83" s="0" t="n">
+      <c r="B83">
+        <v>40383</v>
+      </c>
+      <c r="C83">
         <v>145</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>133</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="5">
         <v>44375</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>68178</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>288</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>282</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="5">
         <v>44376</v>
       </c>
-      <c r="B85" s="0" t="n">
-        <v>68003</v>
-      </c>
-      <c r="C85" s="0" t="n">
+      <c r="B85">
+        <v>68004</v>
+      </c>
+      <c r="C85">
         <v>293</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>269</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="5">
         <v>44377</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86">
         <v>59262</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>308</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86">
         <v>287</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="5">
         <v>44378</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87">
         <v>63180</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>296</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>272</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="5">
         <v>44379</v>
       </c>
-      <c r="B88" s="0" t="n">
-        <v>69342</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>327</v>
-      </c>
-      <c r="D88" s="0" t="n">
+      <c r="B88">
+        <v>69345</v>
+      </c>
+      <c r="C88">
+        <v>328</v>
+      </c>
+      <c r="D88">
         <v>301</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="5">
         <v>44380</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>39173</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89">
         <v>186</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>170</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89">
         <v>16</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="5">
         <v>44381</v>
       </c>
-      <c r="B90" s="0" t="n">
-        <v>49074</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>343</v>
-      </c>
-      <c r="D90" s="0" t="n">
+      <c r="B90">
+        <v>49186</v>
+      </c>
+      <c r="C90">
+        <v>345</v>
+      </c>
+      <c r="D90">
         <v>333</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90">
         <v>15</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="5">
         <v>44382</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="B91">
+        <v>72993</v>
+      </c>
+      <c r="C91">
+        <v>504</v>
+      </c>
+      <c r="D91">
         <v>479</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91">
         <v>31</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="5">
         <v>44383</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="B92">
+        <v>85525</v>
+      </c>
+      <c r="C92">
+        <v>525</v>
+      </c>
+      <c r="D92">
         <v>477</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92">
         <v>53</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="5">
         <v>44384</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="B93">
+        <v>49595</v>
+      </c>
+      <c r="C93">
+        <v>325</v>
+      </c>
+      <c r="D93">
         <v>477</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -112,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,8 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,1699 +145,1767 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E94" activeCellId="0" sqref="E94"/>
+      <selection pane="bottomLeft" activeCell="E97" activeCellId="0" sqref="E97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>54048</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>43024</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36064</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>38995</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>61406</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>76061</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>57994</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14282</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30617</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
-        <v>37457</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="0" t="n">
+        <v>37458</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>52888</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
-        <v>55067</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="0" t="n">
+        <v>55068</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>47510</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>35039</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35691</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>31159</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>39944</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>34208</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>36852</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>34642</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>36327</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9241</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>28853</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
-        <v>37992</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="0" t="n">
+        <v>37993</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>39558</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>40603</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>31747</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>34022</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>11584</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>26930</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>40716</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>35995</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>31409</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>21744</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>21685</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5708</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>15993</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>9564</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>27655</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>35438</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>24980</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>28446</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>7576</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>19560</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>37942</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>30189</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
-        <v>28735</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="0" t="n">
+        <v>28736</v>
+      </c>
+      <c r="C51" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>30693</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>33925</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>10137</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>22361</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>29553</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>25811</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>18805</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>17145</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>18710</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7653</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>18021</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>25742</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>24809</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>18123</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>19056</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5">
+      <c r="A67" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>18646</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5">
+      <c r="A68" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>11069</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5">
+      <c r="A69" s="3" t="n">
         <v>44360</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>21020</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5">
+      <c r="A70" s="3" t="n">
         <v>44361</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>30825</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5">
+      <c r="A71" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>28141</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5">
+      <c r="A72" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>23157</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5">
+      <c r="A73" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>21658</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5">
+      <c r="A74" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>28803</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5">
+      <c r="A75" s="3" t="n">
         <v>44366</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>18711</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5">
+      <c r="A76" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>34771</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5">
+      <c r="A77" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>50798</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5">
+      <c r="A78" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>45840</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5">
+      <c r="A79" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>43373</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5">
+      <c r="A80" s="3" t="n">
         <v>44371</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>41435</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>229</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5">
+      <c r="A81" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>58321</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5">
+      <c r="A82" s="3" t="n">
         <v>44373</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>33054</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5">
+      <c r="A83" s="3" t="n">
         <v>44374</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>40383</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5">
+      <c r="A84" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>68178</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5">
+      <c r="A85" s="3" t="n">
         <v>44376</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>68004</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5">
+      <c r="A86" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>59262</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>308</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5">
+      <c r="A87" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="B87">
-        <v>63180</v>
-      </c>
-      <c r="C87">
+      <c r="B87" s="0" t="n">
+        <v>63181</v>
+      </c>
+      <c r="C87" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5">
+      <c r="A88" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>69345</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5">
+      <c r="A89" s="3" t="n">
         <v>44380</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>39173</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5">
+      <c r="A90" s="3" t="n">
         <v>44381</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>49186</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>345</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5">
+      <c r="A91" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>72993</v>
       </c>
-      <c r="C91">
-        <v>504</v>
-      </c>
-      <c r="D91">
-        <v>479</v>
-      </c>
-      <c r="E91">
+      <c r="C91" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>478</v>
+      </c>
+      <c r="E91" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5">
+      <c r="A92" s="3" t="n">
         <v>44383</v>
       </c>
-      <c r="B92">
-        <v>85525</v>
-      </c>
-      <c r="C92">
-        <v>525</v>
-      </c>
-      <c r="D92">
-        <v>477</v>
-      </c>
-      <c r="E92">
+      <c r="B92" s="0" t="n">
+        <v>85530</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>527</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>74835</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>524</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="n">
+        <v>44385</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>71687</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="n">
+        <v>44386</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>84713</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>533</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="n">
+        <v>44387</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>50348</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>372</v>
+      </c>
+      <c r="E96" s="0" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5">
-        <v>44384</v>
-      </c>
-      <c r="B93">
-        <v>49595</v>
-      </c>
-      <c r="C93">
-        <v>325</v>
-      </c>
-      <c r="D93">
-        <v>477</v>
-      </c>
-      <c r="E93">
-        <v>46</v>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="n">
+        <v>44388</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>59108</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>423</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,6 +84,8 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
     <border/>
     <border/>
   </borders>
@@ -112,7 +114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,6 +133,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,7 +152,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
@@ -168,27 +172,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>44293</v>
       </c>
       <c r="B2">
@@ -205,7 +209,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>44294</v>
       </c>
       <c r="B3">
@@ -222,7 +226,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>44295</v>
       </c>
       <c r="B4">
@@ -239,7 +243,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>44296</v>
       </c>
       <c r="B5">
@@ -256,7 +260,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>44297</v>
       </c>
       <c r="B6">
@@ -273,7 +277,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>44298</v>
       </c>
       <c r="B7">
@@ -290,7 +294,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>44299</v>
       </c>
       <c r="B8">
@@ -307,7 +311,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>44300</v>
       </c>
       <c r="B9">
@@ -324,7 +328,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>44301</v>
       </c>
       <c r="B10">
@@ -341,7 +345,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>44302</v>
       </c>
       <c r="B11">
@@ -358,7 +362,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>44303</v>
       </c>
       <c r="B12">
@@ -375,7 +379,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>44304</v>
       </c>
       <c r="B13">
@@ -395,7 +399,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>44305</v>
       </c>
       <c r="B14">
@@ -415,7 +419,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>44306</v>
       </c>
       <c r="B15">
@@ -435,7 +439,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>44307</v>
       </c>
       <c r="B16">
@@ -455,7 +459,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>44308</v>
       </c>
       <c r="B17">
@@ -475,7 +479,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>44309</v>
       </c>
       <c r="B18">
@@ -492,7 +496,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>44310</v>
       </c>
       <c r="B19">
@@ -512,7 +516,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>44311</v>
       </c>
       <c r="B20">
@@ -532,7 +536,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>44312</v>
       </c>
       <c r="B21">
@@ -549,7 +553,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>44313</v>
       </c>
       <c r="B22">
@@ -569,7 +573,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="7">
         <v>44314</v>
       </c>
       <c r="B23">
@@ -586,7 +590,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="7">
         <v>44315</v>
       </c>
       <c r="B24">
@@ -603,7 +607,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <v>44316</v>
       </c>
       <c r="B25">
@@ -620,7 +624,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="7">
         <v>44317</v>
       </c>
       <c r="B26">
@@ -640,7 +644,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="7">
         <v>44318</v>
       </c>
       <c r="B27">
@@ -660,7 +664,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="7">
         <v>44319</v>
       </c>
       <c r="B28">
@@ -680,7 +684,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="7">
         <v>44320</v>
       </c>
       <c r="B29">
@@ -700,7 +704,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="7">
         <v>44321</v>
       </c>
       <c r="B30">
@@ -720,7 +724,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="7">
         <v>44322</v>
       </c>
       <c r="B31">
@@ -740,7 +744,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="7">
         <v>44323</v>
       </c>
       <c r="B32">
@@ -757,7 +761,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="7">
         <v>44324</v>
       </c>
       <c r="B33">
@@ -777,7 +781,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="7">
         <v>44325</v>
       </c>
       <c r="B34">
@@ -797,7 +801,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="7">
         <v>44326</v>
       </c>
       <c r="B35">
@@ -814,7 +818,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="7">
         <v>44327</v>
       </c>
       <c r="B36">
@@ -834,7 +838,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="7">
         <v>44328</v>
       </c>
       <c r="B37">
@@ -854,7 +858,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="7">
         <v>44329</v>
       </c>
       <c r="B38">
@@ -874,7 +878,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="7">
         <v>44330</v>
       </c>
       <c r="B39">
@@ -891,7 +895,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="7">
         <v>44331</v>
       </c>
       <c r="B40">
@@ -911,7 +915,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="7">
         <v>44332</v>
       </c>
       <c r="B41">
@@ -928,7 +932,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="7">
         <v>44333</v>
       </c>
       <c r="B42">
@@ -945,7 +949,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="7">
         <v>44334</v>
       </c>
       <c r="B43">
@@ -962,7 +966,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="7">
         <v>44335</v>
       </c>
       <c r="B44">
@@ -982,7 +986,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="7">
         <v>44336</v>
       </c>
       <c r="B45">
@@ -1002,7 +1006,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="7">
         <v>44337</v>
       </c>
       <c r="B46">
@@ -1019,7 +1023,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="7">
         <v>44338</v>
       </c>
       <c r="B47">
@@ -1039,7 +1043,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="7">
         <v>44339</v>
       </c>
       <c r="B48">
@@ -1059,7 +1063,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="7">
         <v>44340</v>
       </c>
       <c r="B49">
@@ -1076,7 +1080,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
+      <c r="A50" s="7">
         <v>44341</v>
       </c>
       <c r="B50">
@@ -1096,7 +1100,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
+      <c r="A51" s="7">
         <v>44342</v>
       </c>
       <c r="B51">
@@ -1113,7 +1117,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
+      <c r="A52" s="7">
         <v>44343</v>
       </c>
       <c r="B52">
@@ -1130,7 +1134,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
+      <c r="A53" s="7">
         <v>44344</v>
       </c>
       <c r="B53">
@@ -1147,7 +1151,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
+      <c r="A54" s="7">
         <v>44345</v>
       </c>
       <c r="B54">
@@ -1164,7 +1168,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
+      <c r="A55" s="7">
         <v>44346</v>
       </c>
       <c r="B55">
@@ -1181,7 +1185,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5">
+      <c r="A56" s="7">
         <v>44347</v>
       </c>
       <c r="B56">
@@ -1198,7 +1202,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5">
+      <c r="A57" s="7">
         <v>44348</v>
       </c>
       <c r="B57">
@@ -1215,7 +1219,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5">
+      <c r="A58" s="7">
         <v>44349</v>
       </c>
       <c r="B58">
@@ -1232,7 +1236,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5">
+      <c r="A59" s="7">
         <v>44350</v>
       </c>
       <c r="B59">
@@ -1249,7 +1253,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5">
+      <c r="A60" s="7">
         <v>44351</v>
       </c>
       <c r="B60">
@@ -1266,7 +1270,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5">
+      <c r="A61" s="7">
         <v>44352</v>
       </c>
       <c r="B61">
@@ -1283,7 +1287,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5">
+      <c r="A62" s="7">
         <v>44353</v>
       </c>
       <c r="B62">
@@ -1300,7 +1304,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5">
+      <c r="A63" s="7">
         <v>44354</v>
       </c>
       <c r="B63">
@@ -1317,7 +1321,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5">
+      <c r="A64" s="7">
         <v>44355</v>
       </c>
       <c r="B64">
@@ -1334,11 +1338,11 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5">
+      <c r="A65" s="7">
         <v>44356</v>
       </c>
       <c r="B65">
-        <v>16932</v>
+        <v>16936</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1351,7 +1355,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5">
+      <c r="A66" s="7">
         <v>44357</v>
       </c>
       <c r="B66">
@@ -1371,7 +1375,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5">
+      <c r="A67" s="7">
         <v>44358</v>
       </c>
       <c r="B67">
@@ -1388,7 +1392,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5">
+      <c r="A68" s="7">
         <v>44359</v>
       </c>
       <c r="B68">
@@ -1405,7 +1409,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5">
+      <c r="A69" s="7">
         <v>44360</v>
       </c>
       <c r="B69">
@@ -1422,7 +1426,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5">
+      <c r="A70" s="7">
         <v>44361</v>
       </c>
       <c r="B70">
@@ -1442,7 +1446,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5">
+      <c r="A71" s="7">
         <v>44362</v>
       </c>
       <c r="B71">
@@ -1459,7 +1463,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5">
+      <c r="A72" s="7">
         <v>44363</v>
       </c>
       <c r="B72">
@@ -1476,7 +1480,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5">
+      <c r="A73" s="7">
         <v>44364</v>
       </c>
       <c r="B73">
@@ -1493,7 +1497,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5">
+      <c r="A74" s="7">
         <v>44365</v>
       </c>
       <c r="B74">
@@ -1510,7 +1514,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5">
+      <c r="A75" s="7">
         <v>44366</v>
       </c>
       <c r="B75">
@@ -1527,7 +1531,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5">
+      <c r="A76" s="7">
         <v>44367</v>
       </c>
       <c r="B76">
@@ -1544,7 +1548,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5">
+      <c r="A77" s="7">
         <v>44368</v>
       </c>
       <c r="B77">
@@ -1561,7 +1565,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5">
+      <c r="A78" s="7">
         <v>44369</v>
       </c>
       <c r="B78">
@@ -1578,7 +1582,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5">
+      <c r="A79" s="7">
         <v>44370</v>
       </c>
       <c r="B79">
@@ -1595,7 +1599,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5">
+      <c r="A80" s="7">
         <v>44371</v>
       </c>
       <c r="B80">
@@ -1612,11 +1616,11 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5">
+      <c r="A81" s="7">
         <v>44372</v>
       </c>
       <c r="B81">
-        <v>39756</v>
+        <v>39766</v>
       </c>
       <c r="C81">
         <v>231</v>
@@ -1629,11 +1633,11 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5">
+      <c r="A82" s="7">
         <v>44373</v>
       </c>
       <c r="B82">
-        <v>21852</v>
+        <v>21859</v>
       </c>
       <c r="C82">
         <v>115</v>
@@ -1646,11 +1650,11 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5">
+      <c r="A83" s="7">
         <v>44374</v>
       </c>
       <c r="B83">
-        <v>30363</v>
+        <v>30381</v>
       </c>
       <c r="C83">
         <v>145</v>
@@ -1663,11 +1667,11 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5">
+      <c r="A84" s="7">
         <v>44375</v>
       </c>
       <c r="B84">
-        <v>47517</v>
+        <v>47670</v>
       </c>
       <c r="C84">
         <v>285</v>
@@ -1680,11 +1684,11 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5">
+      <c r="A85" s="7">
         <v>44376</v>
       </c>
       <c r="B85">
-        <v>46709</v>
+        <v>46862</v>
       </c>
       <c r="C85">
         <v>294</v>
@@ -1697,14 +1701,14 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5">
+      <c r="A86" s="7">
         <v>44377</v>
       </c>
       <c r="B86">
-        <v>43546</v>
+        <v>43640</v>
       </c>
       <c r="C86">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D86">
         <v>287</v>
@@ -1714,14 +1718,14 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5">
+      <c r="A87" s="7">
         <v>44378</v>
       </c>
       <c r="B87">
-        <v>44536</v>
+        <v>44597</v>
       </c>
       <c r="C87">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D87">
         <v>272</v>
@@ -1731,11 +1735,11 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5">
+      <c r="A88" s="7">
         <v>44379</v>
       </c>
       <c r="B88">
-        <v>49698</v>
+        <v>49699</v>
       </c>
       <c r="C88">
         <v>326</v>
@@ -1748,7 +1752,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5">
+      <c r="A89" s="7">
         <v>44380</v>
       </c>
       <c r="B89">
@@ -1765,14 +1769,14 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5">
+      <c r="A90" s="7">
         <v>44381</v>
       </c>
       <c r="B90">
-        <v>36498</v>
+        <v>36501</v>
       </c>
       <c r="C90">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D90">
         <v>333</v>
@@ -1782,14 +1786,14 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5">
+      <c r="A91" s="7">
         <v>44382</v>
       </c>
       <c r="B91">
         <v>53789</v>
       </c>
       <c r="C91">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D91">
         <v>478</v>
@@ -1799,7 +1803,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5">
+      <c r="A92" s="7">
         <v>44383</v>
       </c>
       <c r="B92">
@@ -1816,7 +1820,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5">
+      <c r="A93" s="7">
         <v>44384</v>
       </c>
       <c r="B93">
@@ -1833,14 +1837,14 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5">
+      <c r="A94" s="7">
         <v>44385</v>
       </c>
       <c r="B94">
-        <v>52101</v>
+        <v>52114</v>
       </c>
       <c r="C94">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D94">
         <v>439</v>
@@ -1850,14 +1854,14 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5">
+      <c r="A95" s="7">
         <v>44386</v>
       </c>
       <c r="B95">
         <v>61505</v>
       </c>
       <c r="C95">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D95">
         <v>491</v>
@@ -1867,14 +1871,14 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5">
+      <c r="A96" s="7">
         <v>44387</v>
       </c>
       <c r="B96">
-        <v>34550</v>
+        <v>34551</v>
       </c>
       <c r="C96">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96">
         <v>234</v>
@@ -1884,14 +1888,14 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5">
+      <c r="A97" s="7">
         <v>44388</v>
       </c>
       <c r="B97">
-        <v>42367</v>
+        <v>42469</v>
       </c>
       <c r="C97">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D97">
         <v>390</v>
@@ -1901,20 +1905,80 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5">
+      <c r="A98" s="7">
         <v>44389</v>
       </c>
       <c r="B98">
-        <v>61655</v>
+        <v>62102</v>
       </c>
       <c r="C98">
-        <v>734</v>
+        <v>763</v>
       </c>
       <c r="D98">
         <v>669</v>
       </c>
       <c r="E98">
         <v>65</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7">
+        <v>44390</v>
+      </c>
+      <c r="B99">
+        <v>62218</v>
+      </c>
+      <c r="C99">
+        <v>766</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7">
+        <v>44391</v>
+      </c>
+      <c r="B100">
+        <v>63085</v>
+      </c>
+      <c r="C100">
+        <v>777</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7">
+        <v>44392</v>
+      </c>
+      <c r="B101">
+        <v>65125</v>
+      </c>
+      <c r="C101">
+        <v>862</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +84,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
     <border/>
     <border/>
   </borders>
@@ -114,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -133,8 +131,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="E90" activeCellId="0" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -172,27 +168,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
       <c r="B2">
@@ -209,7 +205,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
       <c r="B3">
@@ -226,7 +222,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
       <c r="B4">
@@ -243,7 +239,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
       <c r="B5">
@@ -260,7 +256,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
       <c r="B6">
@@ -277,7 +273,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
       <c r="B7">
@@ -294,7 +290,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
       <c r="B8">
@@ -311,7 +307,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
       <c r="B9">
@@ -328,7 +324,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
       <c r="B10">
@@ -345,7 +341,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
       <c r="B11">
@@ -362,7 +358,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
       <c r="B12">
@@ -379,7 +375,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
       <c r="B13">
@@ -399,7 +395,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
       <c r="B14">
@@ -419,7 +415,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
       <c r="B15">
@@ -439,7 +435,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
       <c r="B16">
@@ -459,7 +455,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
       <c r="B17">
@@ -479,7 +475,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
       <c r="B18">
@@ -496,7 +492,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
       <c r="B19">
@@ -516,7 +512,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
       <c r="B20">
@@ -536,7 +532,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
       <c r="B21">
@@ -553,7 +549,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
       <c r="B22">
@@ -573,7 +569,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
       <c r="B23">
@@ -590,7 +586,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
       <c r="B24">
@@ -607,7 +603,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
       <c r="B25">
@@ -624,7 +620,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
       <c r="B26">
@@ -644,7 +640,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
       <c r="B27">
@@ -664,7 +660,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
       <c r="B28">
@@ -684,7 +680,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
       <c r="B29">
@@ -704,7 +700,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
       <c r="B30">
@@ -724,7 +720,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
       <c r="B31">
@@ -744,7 +740,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
       <c r="B32">
@@ -761,7 +757,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
       <c r="B33">
@@ -781,7 +777,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
       <c r="B34">
@@ -801,7 +797,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
       <c r="B35">
@@ -818,7 +814,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
       <c r="B36">
@@ -838,7 +834,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
       <c r="B37">
@@ -858,7 +854,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
       <c r="B38">
@@ -878,7 +874,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
       <c r="B39">
@@ -895,7 +891,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
       <c r="B40">
@@ -915,7 +911,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
       <c r="B41">
@@ -932,7 +928,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>44333</v>
       </c>
       <c r="B42">
@@ -949,7 +945,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>44334</v>
       </c>
       <c r="B43">
@@ -966,7 +962,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>44335</v>
       </c>
       <c r="B44">
@@ -986,7 +982,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>44336</v>
       </c>
       <c r="B45">
@@ -1006,7 +1002,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>44337</v>
       </c>
       <c r="B46">
@@ -1023,7 +1019,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>44338</v>
       </c>
       <c r="B47">
@@ -1043,7 +1039,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>44339</v>
       </c>
       <c r="B48">
@@ -1063,11 +1059,11 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>44340</v>
       </c>
       <c r="B49">
-        <v>32247</v>
+        <v>32248</v>
       </c>
       <c r="C49">
         <v>27</v>
@@ -1080,7 +1076,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>44341</v>
       </c>
       <c r="B50">
@@ -1100,7 +1096,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>44342</v>
       </c>
       <c r="B51">
@@ -1117,7 +1113,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>44343</v>
       </c>
       <c r="B52">
@@ -1134,7 +1130,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7">
+      <c r="A53" s="5">
         <v>44344</v>
       </c>
       <c r="B53">
@@ -1151,7 +1147,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7">
+      <c r="A54" s="5">
         <v>44345</v>
       </c>
       <c r="B54">
@@ -1168,7 +1164,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7">
+      <c r="A55" s="5">
         <v>44346</v>
       </c>
       <c r="B55">
@@ -1185,7 +1181,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7">
+      <c r="A56" s="5">
         <v>44347</v>
       </c>
       <c r="B56">
@@ -1202,7 +1198,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7">
+      <c r="A57" s="5">
         <v>44348</v>
       </c>
       <c r="B57">
@@ -1219,7 +1215,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7">
+      <c r="A58" s="5">
         <v>44349</v>
       </c>
       <c r="B58">
@@ -1236,7 +1232,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7">
+      <c r="A59" s="5">
         <v>44350</v>
       </c>
       <c r="B59">
@@ -1253,7 +1249,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7">
+      <c r="A60" s="5">
         <v>44351</v>
       </c>
       <c r="B60">
@@ -1270,7 +1266,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7">
+      <c r="A61" s="5">
         <v>44352</v>
       </c>
       <c r="B61">
@@ -1287,7 +1283,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7">
+      <c r="A62" s="5">
         <v>44353</v>
       </c>
       <c r="B62">
@@ -1304,7 +1300,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7">
+      <c r="A63" s="5">
         <v>44354</v>
       </c>
       <c r="B63">
@@ -1321,7 +1317,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7">
+      <c r="A64" s="5">
         <v>44355</v>
       </c>
       <c r="B64">
@@ -1338,7 +1334,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7">
+      <c r="A65" s="5">
         <v>44356</v>
       </c>
       <c r="B65">
@@ -1355,7 +1351,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7">
+      <c r="A66" s="5">
         <v>44357</v>
       </c>
       <c r="B66">
@@ -1375,7 +1371,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7">
+      <c r="A67" s="5">
         <v>44358</v>
       </c>
       <c r="B67">
@@ -1392,7 +1388,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7">
+      <c r="A68" s="5">
         <v>44359</v>
       </c>
       <c r="B68">
@@ -1409,7 +1405,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7">
+      <c r="A69" s="5">
         <v>44360</v>
       </c>
       <c r="B69">
@@ -1426,7 +1422,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7">
+      <c r="A70" s="5">
         <v>44361</v>
       </c>
       <c r="B70">
@@ -1446,7 +1442,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7">
+      <c r="A71" s="5">
         <v>44362</v>
       </c>
       <c r="B71">
@@ -1463,7 +1459,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7">
+      <c r="A72" s="5">
         <v>44363</v>
       </c>
       <c r="B72">
@@ -1480,7 +1476,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7">
+      <c r="A73" s="5">
         <v>44364</v>
       </c>
       <c r="B73">
@@ -1497,7 +1493,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7">
+      <c r="A74" s="5">
         <v>44365</v>
       </c>
       <c r="B74">
@@ -1514,7 +1510,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7">
+      <c r="A75" s="5">
         <v>44366</v>
       </c>
       <c r="B75">
@@ -1531,7 +1527,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7">
+      <c r="A76" s="5">
         <v>44367</v>
       </c>
       <c r="B76">
@@ -1548,7 +1544,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7">
+      <c r="A77" s="5">
         <v>44368</v>
       </c>
       <c r="B77">
@@ -1565,7 +1561,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7">
+      <c r="A78" s="5">
         <v>44369</v>
       </c>
       <c r="B78">
@@ -1582,7 +1578,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7">
+      <c r="A79" s="5">
         <v>44370</v>
       </c>
       <c r="B79">
@@ -1599,7 +1595,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7">
+      <c r="A80" s="5">
         <v>44371</v>
       </c>
       <c r="B80">
@@ -1616,7 +1612,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7">
+      <c r="A81" s="5">
         <v>44372</v>
       </c>
       <c r="B81">
@@ -1633,7 +1629,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7">
+      <c r="A82" s="5">
         <v>44373</v>
       </c>
       <c r="B82">
@@ -1650,7 +1646,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7">
+      <c r="A83" s="5">
         <v>44374</v>
       </c>
       <c r="B83">
@@ -1667,7 +1663,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7">
+      <c r="A84" s="5">
         <v>44375</v>
       </c>
       <c r="B84">
@@ -1684,7 +1680,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7">
+      <c r="A85" s="5">
         <v>44376</v>
       </c>
       <c r="B85">
@@ -1701,7 +1697,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7">
+      <c r="A86" s="5">
         <v>44377</v>
       </c>
       <c r="B86">
@@ -1718,7 +1714,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7">
+      <c r="A87" s="5">
         <v>44378</v>
       </c>
       <c r="B87">
@@ -1735,7 +1731,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7">
+      <c r="A88" s="5">
         <v>44379</v>
       </c>
       <c r="B88">
@@ -1752,7 +1748,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7">
+      <c r="A89" s="5">
         <v>44380</v>
       </c>
       <c r="B89">
@@ -1762,14 +1758,14 @@
         <v>187</v>
       </c>
       <c r="D89">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E89">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7">
+      <c r="A90" s="5">
         <v>44381</v>
       </c>
       <c r="B90">
@@ -1782,11 +1778,11 @@
         <v>333</v>
       </c>
       <c r="E90">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7">
+      <c r="A91" s="5">
         <v>44382</v>
       </c>
       <c r="B91">
@@ -1799,11 +1795,11 @@
         <v>478</v>
       </c>
       <c r="E91">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7">
+      <c r="A92" s="5">
         <v>44383</v>
       </c>
       <c r="B92">
@@ -1813,14 +1809,14 @@
         <v>528</v>
       </c>
       <c r="D92">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E92">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7">
+      <c r="A93" s="5">
         <v>44384</v>
       </c>
       <c r="B93">
@@ -1830,14 +1826,14 @@
         <v>525</v>
       </c>
       <c r="D93">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E93">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7">
+      <c r="A94" s="5">
         <v>44385</v>
       </c>
       <c r="B94">
@@ -1847,14 +1843,14 @@
         <v>470</v>
       </c>
       <c r="D94">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E94">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7">
+      <c r="A95" s="5">
         <v>44386</v>
       </c>
       <c r="B95">
@@ -1864,14 +1860,14 @@
         <v>539</v>
       </c>
       <c r="D95">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E95">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7">
+      <c r="A96" s="5">
         <v>44387</v>
       </c>
       <c r="B96">
@@ -1881,14 +1877,14 @@
         <v>264</v>
       </c>
       <c r="D96">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E96">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7">
+      <c r="A97" s="5">
         <v>44388</v>
       </c>
       <c r="B97">
@@ -1898,14 +1894,14 @@
         <v>440</v>
       </c>
       <c r="D97">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E97">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7">
+      <c r="A98" s="5">
         <v>44389</v>
       </c>
       <c r="B98">
@@ -1915,70 +1911,95 @@
         <v>763</v>
       </c>
       <c r="D98">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="E98">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5">
         <v>44390</v>
       </c>
       <c r="B99">
-        <v>62218</v>
+        <v>62219</v>
       </c>
       <c r="C99">
         <v>766</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5">
         <v>44391</v>
       </c>
       <c r="B100">
         <v>63085</v>
       </c>
       <c r="C100">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5">
         <v>44392</v>
       </c>
       <c r="B101">
-        <v>65125</v>
+        <v>65371</v>
       </c>
       <c r="C101">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5">
+        <v>44393</v>
+      </c>
+      <c r="B102">
+        <v>80997</v>
+      </c>
+      <c r="C102">
+        <v>1132</v>
+      </c>
+      <c r="D102">
+        <v>1014</v>
+      </c>
+      <c r="E102">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5">
+        <v>44394</v>
+      </c>
+      <c r="B103">
+        <v>32657</v>
+      </c>
+      <c r="C103">
+        <v>432</v>
+      </c>
+      <c r="D103">
+        <v>367</v>
+      </c>
+      <c r="E103">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E90" activeCellId="0" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="E103" activeCellId="0" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -1100,7 +1100,7 @@
         <v>44342</v>
       </c>
       <c r="B51">
-        <v>25933</v>
+        <v>25934</v>
       </c>
       <c r="C51">
         <v>15</v>
@@ -1338,7 +1338,7 @@
         <v>44356</v>
       </c>
       <c r="B65">
-        <v>16936</v>
+        <v>16937</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1599,7 +1599,7 @@
         <v>44371</v>
       </c>
       <c r="B80">
-        <v>29886</v>
+        <v>29887</v>
       </c>
       <c r="C80">
         <v>230</v>
@@ -1769,7 +1769,7 @@
         <v>44381</v>
       </c>
       <c r="B90">
-        <v>36501</v>
+        <v>36502</v>
       </c>
       <c r="C90">
         <v>350</v>
@@ -1837,7 +1837,7 @@
         <v>44385</v>
       </c>
       <c r="B94">
-        <v>52114</v>
+        <v>52115</v>
       </c>
       <c r="C94">
         <v>470</v>
@@ -1854,7 +1854,7 @@
         <v>44386</v>
       </c>
       <c r="B95">
-        <v>61505</v>
+        <v>61506</v>
       </c>
       <c r="C95">
         <v>539</v>
@@ -1871,10 +1871,10 @@
         <v>44387</v>
       </c>
       <c r="B96">
-        <v>34551</v>
+        <v>34552</v>
       </c>
       <c r="C96">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96">
         <v>230</v>
@@ -1888,16 +1888,16 @@
         <v>44388</v>
       </c>
       <c r="B97">
-        <v>42469</v>
+        <v>42468</v>
       </c>
       <c r="C97">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D97">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E97">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,16 +1905,16 @@
         <v>44389</v>
       </c>
       <c r="B98">
-        <v>62102</v>
+        <v>62105</v>
       </c>
       <c r="C98">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D98">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E98">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,16 +1922,16 @@
         <v>44390</v>
       </c>
       <c r="B99">
-        <v>62219</v>
+        <v>62194</v>
       </c>
       <c r="C99">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="D99">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="E99">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,13 +1939,13 @@
         <v>44391</v>
       </c>
       <c r="B100">
-        <v>63085</v>
+        <v>63086</v>
       </c>
       <c r="C100">
         <v>778</v>
       </c>
       <c r="D100">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E100">
         <v>74</v>
@@ -1956,16 +1956,16 @@
         <v>44392</v>
       </c>
       <c r="B101">
-        <v>65371</v>
+        <v>65579</v>
       </c>
       <c r="C101">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D101">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E101">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,16 +1973,16 @@
         <v>44393</v>
       </c>
       <c r="B102">
-        <v>80997</v>
+        <v>81534</v>
       </c>
       <c r="C102">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="D102">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="E102">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,16 +1990,50 @@
         <v>44394</v>
       </c>
       <c r="B103">
-        <v>32657</v>
+        <v>32948</v>
       </c>
       <c r="C103">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D103">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E103">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5">
+        <v>44395</v>
+      </c>
+      <c r="B104">
+        <v>56351</v>
+      </c>
+      <c r="C104">
+        <v>843</v>
+      </c>
+      <c r="D104">
+        <v>729</v>
+      </c>
+      <c r="E104">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5">
+        <v>44396</v>
+      </c>
+      <c r="B105">
+        <v>83715</v>
+      </c>
+      <c r="C105">
+        <v>1380</v>
+      </c>
+      <c r="D105">
+        <v>1226</v>
+      </c>
+      <c r="E105">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -112,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,8 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,1903 +145,1925 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E103" activeCellId="0" sqref="E103"/>
+      <selection pane="bottomLeft" activeCell="D108" activeCellId="0" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>47157</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>38113</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36047</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>33688</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>50871</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>62974</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>51475</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14218</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30592</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>33945</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>46073</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>46359</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>41281</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>31618</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35245</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>28338</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>36111</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>31255</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>34946</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>31718</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>35430</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9135</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>25566</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>33707</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>33889</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>34913</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>28526</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>32904</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>10397</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>23529</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>35517</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>31563</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>28694</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>20927</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>20244</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5525</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>14776</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>8745</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>23844</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>28411</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>22040</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>26955</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>6919</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>18390</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>32248</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>26674</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>25934</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>27738</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>31828</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>9340</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>19780</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>25471</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>21750</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>17243</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>15803</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>17990</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7332</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>16034</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>23015</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>21243</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>16937</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>17679</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5">
+      <c r="A67" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>17477</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5">
+      <c r="A68" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>10430</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5">
+      <c r="A69" s="3" t="n">
         <v>44360</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>18547</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5">
+      <c r="A70" s="3" t="n">
         <v>44361</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>26331</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5">
+      <c r="A71" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>22495</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5">
+      <c r="A72" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>18399</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5">
+      <c r="A73" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>16588</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5">
+      <c r="A74" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>20294</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5">
+      <c r="A75" s="3" t="n">
         <v>44366</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>12658</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5">
+      <c r="A76" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>24652</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5">
+      <c r="A77" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>32418</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5">
+      <c r="A78" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>30912</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5">
+      <c r="A79" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>29660</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5">
+      <c r="A80" s="3" t="n">
         <v>44371</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>29887</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5">
+      <c r="A81" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>39766</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5">
+      <c r="A82" s="3" t="n">
         <v>44373</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>21859</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5">
+      <c r="A83" s="3" t="n">
         <v>44374</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>30381</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5">
+      <c r="A84" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>47670</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5">
+      <c r="A85" s="3" t="n">
         <v>44376</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>46862</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5">
+      <c r="A86" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>43640</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>311</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5">
+      <c r="A87" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>44597</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5">
+      <c r="A88" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>49699</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5">
+      <c r="A89" s="3" t="n">
         <v>44380</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>27151</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5">
+      <c r="A90" s="3" t="n">
         <v>44381</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>36502</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5">
+      <c r="A91" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>53789</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0" t="n">
         <v>507</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0" t="n">
         <v>478</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5">
+      <c r="A92" s="3" t="n">
         <v>44383</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>60685</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0" t="n">
         <v>528</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0" t="n">
         <v>475</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5">
+      <c r="A93" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>54844</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0" t="n">
         <v>525</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0" t="n">
         <v>482</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5">
+      <c r="A94" s="3" t="n">
         <v>44385</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>52115</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0" t="n">
         <v>470</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0" t="n">
         <v>442</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5">
+      <c r="A95" s="3" t="n">
         <v>44386</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>61506</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0" t="n">
         <v>539</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0" t="n">
         <v>490</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5">
+      <c r="A96" s="3" t="n">
         <v>44387</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>34552</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5">
+      <c r="A97" s="3" t="n">
         <v>44388</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>42468</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5">
+      <c r="A98" s="3" t="n">
         <v>44389</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>62105</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0" t="n">
         <v>764</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0" t="n">
         <v>694</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5">
+      <c r="A99" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>62194</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0" t="n">
         <v>753</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0" t="n">
         <v>674</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5">
+      <c r="A100" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>63086</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0" t="n">
         <v>778</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0" t="n">
         <v>705</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5">
+      <c r="A101" s="3" t="n">
         <v>44392</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>65579</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0" t="n">
         <v>868</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0" t="n">
         <v>773</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5">
+      <c r="A102" s="3" t="n">
         <v>44393</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>81534</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0" t="n">
         <v>1137</v>
       </c>
-      <c r="D102">
-        <v>1025</v>
-      </c>
-      <c r="E102">
+      <c r="D102" s="0" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E102" s="0" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5">
+      <c r="A103" s="3" t="n">
         <v>44394</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>32948</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0" t="n">
         <v>433</v>
       </c>
-      <c r="D103">
-        <v>369</v>
-      </c>
-      <c r="E103">
+      <c r="D103" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="E103" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5">
+      <c r="A104" s="3" t="n">
         <v>44395</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>56351</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0" t="n">
         <v>843</v>
       </c>
-      <c r="D104">
-        <v>729</v>
-      </c>
-      <c r="E104">
-        <v>108</v>
+      <c r="D104" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5">
+      <c r="A105" s="3" t="n">
         <v>44396</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>83715</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0" t="n">
         <v>1380</v>
       </c>
-      <c r="D105">
-        <v>1226</v>
-      </c>
-      <c r="E105">
+      <c r="D105" s="0" t="n">
+        <v>1235</v>
+      </c>
+      <c r="E105" s="0" t="n">
         <v>154</v>
       </c>
     </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="n">
+        <v>44397</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>1274</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="n">
+        <v>44398</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>1261</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,8 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +129,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -159,1911 +158,1923 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>47157</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>275</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>38113</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>210</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36047</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>221</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>88</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>33688</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>50871</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>218</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>62974</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>200</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>51475</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>202</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14218</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>96</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30592</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>105</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>88</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>33945</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>140</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>46073</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>137</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>46359</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>157</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>41281</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>118</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>31618</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>128</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35245</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>109</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>41</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>28338</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>36111</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>94</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>31255</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>88</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>34946</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>95</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>31718</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>97</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>35430</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>80</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9135</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>14</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>25566</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>51</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>33707</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>33889</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>63</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>34913</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>67</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>28526</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>32904</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>10397</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>18</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>23529</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>35517</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>53</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>31563</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>28694</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>20927</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>20244</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>28</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5525</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>14776</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="5">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>8745</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="5">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>23844</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="5">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>28411</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>57</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="5">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>22040</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="5">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>26955</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="5">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>6919</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>14</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="5">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>18390</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="5">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>32248</v>
-      </c>
-      <c r="C49" s="0" t="n">
+      <c r="B49">
+        <v>32275</v>
+      </c>
+      <c r="C49">
         <v>27</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="5">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>26674</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>23</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="5">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>25934</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>15</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="5">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>27738</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>12</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="5">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>31828</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="5">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>9340</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="5">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>19780</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="5">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>25471</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="5">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>21750</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>48</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="5">
         <v>44349</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>17243</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>14</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="5">
         <v>44350</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>15803</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>11</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="5">
         <v>44351</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>17990</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="5">
         <v>44352</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>7332</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="5">
         <v>44353</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>16034</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>5</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="5">
         <v>44354</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>23015</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="5">
         <v>44355</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>21243</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>30</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="5">
         <v>44356</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>16937</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="5">
         <v>44357</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>17679</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>19</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="5">
         <v>44358</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>17477</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>18</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="5">
         <v>44359</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>10430</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="5">
         <v>44360</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>18547</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="5">
         <v>44361</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>26331</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>25</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>12</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>13</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="5">
         <v>44362</v>
       </c>
-      <c r="B71" s="0" t="n">
-        <v>22495</v>
-      </c>
-      <c r="C71" s="0" t="n">
+      <c r="B71">
+        <v>22502</v>
+      </c>
+      <c r="C71">
         <v>26</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>18</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="5">
         <v>44363</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>18399</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>7</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="5">
         <v>44364</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>16588</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>26</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>17</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="5">
         <v>44365</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>20294</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>35</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>31</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="5">
         <v>44366</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>12658</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>46</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>38</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="5">
         <v>44367</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>24652</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>49</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>41</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="5">
         <v>44368</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>32418</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>125</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>117</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="5">
         <v>44369</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>30912</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>110</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>97</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="5">
         <v>44370</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>29660</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>141</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>127</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="5">
         <v>44371</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>29887</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>230</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>219</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="5">
         <v>44372</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>39766</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>231</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>215</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="5">
         <v>44373</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>21859</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>115</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>98</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="5">
         <v>44374</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83">
         <v>30381</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>145</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>133</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="5">
         <v>44375</v>
       </c>
-      <c r="B84" s="0" t="n">
-        <v>47670</v>
-      </c>
-      <c r="C84" s="0" t="n">
+      <c r="B84">
+        <v>47671</v>
+      </c>
+      <c r="C84">
         <v>285</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>282</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="5">
         <v>44376</v>
       </c>
-      <c r="B85" s="0" t="n">
-        <v>46862</v>
-      </c>
-      <c r="C85" s="0" t="n">
+      <c r="B85">
+        <v>46863</v>
+      </c>
+      <c r="C85">
         <v>294</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>269</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="5">
         <v>44377</v>
       </c>
-      <c r="B86" s="0" t="n">
-        <v>43640</v>
-      </c>
-      <c r="C86" s="0" t="n">
+      <c r="B86">
+        <v>43641</v>
+      </c>
+      <c r="C86">
         <v>311</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86">
         <v>287</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="5">
         <v>44378</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87">
         <v>44597</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>296</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>272</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="5">
         <v>44379</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88">
         <v>49699</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88">
         <v>326</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88">
         <v>301</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="5">
         <v>44380</v>
       </c>
-      <c r="B89" s="0" t="n">
-        <v>27151</v>
-      </c>
-      <c r="C89" s="0" t="n">
+      <c r="B89">
+        <v>27152</v>
+      </c>
+      <c r="C89">
         <v>187</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>168</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="5">
         <v>44381</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90">
         <v>36502</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90">
         <v>350</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>333</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="5">
         <v>44382</v>
       </c>
-      <c r="B91" s="0" t="n">
-        <v>53789</v>
-      </c>
-      <c r="C91" s="0" t="n">
+      <c r="B91">
+        <v>53792</v>
+      </c>
+      <c r="C91">
         <v>507</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>478</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="5">
         <v>44383</v>
       </c>
-      <c r="B92" s="0" t="n">
-        <v>60685</v>
-      </c>
-      <c r="C92" s="0" t="n">
+      <c r="B92">
+        <v>60686</v>
+      </c>
+      <c r="C92">
         <v>528</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>475</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="5">
         <v>44384</v>
       </c>
-      <c r="B93" s="0" t="n">
-        <v>54844</v>
-      </c>
-      <c r="C93" s="0" t="n">
+      <c r="B93">
+        <v>54845</v>
+      </c>
+      <c r="C93">
         <v>525</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>482</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="5">
         <v>44385</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>52115</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>470</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>442</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="5">
         <v>44386</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>61506</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>539</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>490</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="5">
         <v>44387</v>
       </c>
-      <c r="B96" s="0" t="n">
-        <v>34552</v>
-      </c>
-      <c r="C96" s="0" t="n">
+      <c r="B96">
+        <v>34553</v>
+      </c>
+      <c r="C96">
         <v>263</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96">
         <v>230</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="5">
         <v>44388</v>
       </c>
-      <c r="B97" s="0" t="n">
-        <v>42468</v>
-      </c>
-      <c r="C97" s="0" t="n">
+      <c r="B97">
+        <v>42471</v>
+      </c>
+      <c r="C97">
         <v>441</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>388</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="5">
         <v>44389</v>
       </c>
-      <c r="B98" s="0" t="n">
-        <v>62105</v>
-      </c>
-      <c r="C98" s="0" t="n">
+      <c r="B98">
+        <v>62107</v>
+      </c>
+      <c r="C98">
         <v>764</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>694</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="5">
         <v>44390</v>
       </c>
-      <c r="B99" s="0" t="n">
-        <v>62194</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>753</v>
-      </c>
-      <c r="D99" s="0" t="n">
+      <c r="B99">
+        <v>62201</v>
+      </c>
+      <c r="C99">
+        <v>754</v>
+      </c>
+      <c r="D99">
         <v>674</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="5">
         <v>44391</v>
       </c>
-      <c r="B100" s="0" t="n">
-        <v>63086</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>778</v>
-      </c>
-      <c r="D100" s="0" t="n">
+      <c r="B100">
+        <v>63087</v>
+      </c>
+      <c r="C100">
+        <v>779</v>
+      </c>
+      <c r="D100">
         <v>705</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="5">
         <v>44392</v>
       </c>
-      <c r="B101" s="0" t="n">
-        <v>65579</v>
-      </c>
-      <c r="C101" s="0" t="n">
+      <c r="B101">
+        <v>65580</v>
+      </c>
+      <c r="C101">
         <v>868</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>773</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="5">
         <v>44393</v>
       </c>
-      <c r="B102" s="0" t="n">
-        <v>81534</v>
-      </c>
-      <c r="C102" s="0" t="n">
+      <c r="B102">
+        <v>81533</v>
+      </c>
+      <c r="C102">
         <v>1137</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>1024</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="5">
         <v>44394</v>
       </c>
-      <c r="B103" s="0" t="n">
-        <v>32948</v>
-      </c>
-      <c r="C103" s="0" t="n">
+      <c r="B103">
+        <v>32949</v>
+      </c>
+      <c r="C103">
         <v>433</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103">
         <v>371</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="5">
         <v>44395</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>56351</v>
-      </c>
-      <c r="C104" s="0" t="n">
+      <c r="B104">
+        <v>56352</v>
+      </c>
+      <c r="C104">
         <v>843</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>732</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104">
         <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="5">
         <v>44396</v>
       </c>
-      <c r="B105" s="0" t="n">
-        <v>83715</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>1380</v>
-      </c>
-      <c r="D105" s="0" t="n">
+      <c r="B105">
+        <v>83794</v>
+      </c>
+      <c r="C105">
+        <v>1381</v>
+      </c>
+      <c r="D105">
         <v>1235</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="5">
         <v>44397</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="B106">
+        <v>89970</v>
+      </c>
+      <c r="C106">
+        <v>1415</v>
+      </c>
+      <c r="D106">
         <v>1274</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106">
         <v>149</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="5">
         <v>44398</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="B107">
+        <v>85389</v>
+      </c>
+      <c r="C107">
+        <v>1347</v>
+      </c>
+      <c r="D107">
         <v>1261</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,6 +84,8 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
     <border/>
     <border/>
   </borders>
@@ -112,7 +114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,6 +133,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,27 +172,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>44293</v>
       </c>
       <c r="B2">
@@ -205,7 +209,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>44294</v>
       </c>
       <c r="B3">
@@ -222,7 +226,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>44295</v>
       </c>
       <c r="B4">
@@ -239,7 +243,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>44296</v>
       </c>
       <c r="B5">
@@ -256,7 +260,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>44297</v>
       </c>
       <c r="B6">
@@ -273,7 +277,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>44298</v>
       </c>
       <c r="B7">
@@ -290,7 +294,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>44299</v>
       </c>
       <c r="B8">
@@ -307,7 +311,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>44300</v>
       </c>
       <c r="B9">
@@ -324,7 +328,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>44301</v>
       </c>
       <c r="B10">
@@ -341,7 +345,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>44302</v>
       </c>
       <c r="B11">
@@ -358,7 +362,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>44303</v>
       </c>
       <c r="B12">
@@ -375,7 +379,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>44304</v>
       </c>
       <c r="B13">
@@ -395,7 +399,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>44305</v>
       </c>
       <c r="B14">
@@ -415,7 +419,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>44306</v>
       </c>
       <c r="B15">
@@ -435,7 +439,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>44307</v>
       </c>
       <c r="B16">
@@ -455,7 +459,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>44308</v>
       </c>
       <c r="B17">
@@ -475,7 +479,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>44309</v>
       </c>
       <c r="B18">
@@ -492,7 +496,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>44310</v>
       </c>
       <c r="B19">
@@ -512,7 +516,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>44311</v>
       </c>
       <c r="B20">
@@ -532,7 +536,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>44312</v>
       </c>
       <c r="B21">
@@ -549,7 +553,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>44313</v>
       </c>
       <c r="B22">
@@ -569,7 +573,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="7">
         <v>44314</v>
       </c>
       <c r="B23">
@@ -586,7 +590,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="7">
         <v>44315</v>
       </c>
       <c r="B24">
@@ -603,7 +607,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <v>44316</v>
       </c>
       <c r="B25">
@@ -620,7 +624,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="7">
         <v>44317</v>
       </c>
       <c r="B26">
@@ -640,7 +644,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="7">
         <v>44318</v>
       </c>
       <c r="B27">
@@ -660,7 +664,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="7">
         <v>44319</v>
       </c>
       <c r="B28">
@@ -680,7 +684,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="7">
         <v>44320</v>
       </c>
       <c r="B29">
@@ -700,7 +704,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="7">
         <v>44321</v>
       </c>
       <c r="B30">
@@ -720,7 +724,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="7">
         <v>44322</v>
       </c>
       <c r="B31">
@@ -740,7 +744,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="7">
         <v>44323</v>
       </c>
       <c r="B32">
@@ -757,7 +761,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="7">
         <v>44324</v>
       </c>
       <c r="B33">
@@ -777,7 +781,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="7">
         <v>44325</v>
       </c>
       <c r="B34">
@@ -797,7 +801,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="7">
         <v>44326</v>
       </c>
       <c r="B35">
@@ -814,7 +818,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="7">
         <v>44327</v>
       </c>
       <c r="B36">
@@ -834,7 +838,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="7">
         <v>44328</v>
       </c>
       <c r="B37">
@@ -854,7 +858,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="7">
         <v>44329</v>
       </c>
       <c r="B38">
@@ -874,7 +878,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="7">
         <v>44330</v>
       </c>
       <c r="B39">
@@ -891,7 +895,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="7">
         <v>44331</v>
       </c>
       <c r="B40">
@@ -911,7 +915,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="7">
         <v>44332</v>
       </c>
       <c r="B41">
@@ -928,7 +932,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="7">
         <v>44333</v>
       </c>
       <c r="B42">
@@ -945,7 +949,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="7">
         <v>44334</v>
       </c>
       <c r="B43">
@@ -962,7 +966,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="7">
         <v>44335</v>
       </c>
       <c r="B44">
@@ -982,7 +986,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="7">
         <v>44336</v>
       </c>
       <c r="B45">
@@ -1002,7 +1006,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="7">
         <v>44337</v>
       </c>
       <c r="B46">
@@ -1019,7 +1023,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="7">
         <v>44338</v>
       </c>
       <c r="B47">
@@ -1039,7 +1043,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="7">
         <v>44339</v>
       </c>
       <c r="B48">
@@ -1059,7 +1063,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="7">
         <v>44340</v>
       </c>
       <c r="B49">
@@ -1076,7 +1080,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
+      <c r="A50" s="7">
         <v>44341</v>
       </c>
       <c r="B50">
@@ -1096,7 +1100,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
+      <c r="A51" s="7">
         <v>44342</v>
       </c>
       <c r="B51">
@@ -1113,7 +1117,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
+      <c r="A52" s="7">
         <v>44343</v>
       </c>
       <c r="B52">
@@ -1130,7 +1134,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
+      <c r="A53" s="7">
         <v>44344</v>
       </c>
       <c r="B53">
@@ -1147,7 +1151,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
+      <c r="A54" s="7">
         <v>44345</v>
       </c>
       <c r="B54">
@@ -1164,7 +1168,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
+      <c r="A55" s="7">
         <v>44346</v>
       </c>
       <c r="B55">
@@ -1181,7 +1185,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5">
+      <c r="A56" s="7">
         <v>44347</v>
       </c>
       <c r="B56">
@@ -1198,7 +1202,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5">
+      <c r="A57" s="7">
         <v>44348</v>
       </c>
       <c r="B57">
@@ -1215,7 +1219,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5">
+      <c r="A58" s="7">
         <v>44349</v>
       </c>
       <c r="B58">
@@ -1232,7 +1236,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5">
+      <c r="A59" s="7">
         <v>44350</v>
       </c>
       <c r="B59">
@@ -1249,7 +1253,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5">
+      <c r="A60" s="7">
         <v>44351</v>
       </c>
       <c r="B60">
@@ -1266,7 +1270,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5">
+      <c r="A61" s="7">
         <v>44352</v>
       </c>
       <c r="B61">
@@ -1283,7 +1287,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5">
+      <c r="A62" s="7">
         <v>44353</v>
       </c>
       <c r="B62">
@@ -1300,7 +1304,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5">
+      <c r="A63" s="7">
         <v>44354</v>
       </c>
       <c r="B63">
@@ -1317,7 +1321,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5">
+      <c r="A64" s="7">
         <v>44355</v>
       </c>
       <c r="B64">
@@ -1334,7 +1338,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5">
+      <c r="A65" s="7">
         <v>44356</v>
       </c>
       <c r="B65">
@@ -1351,7 +1355,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5">
+      <c r="A66" s="7">
         <v>44357</v>
       </c>
       <c r="B66">
@@ -1371,7 +1375,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5">
+      <c r="A67" s="7">
         <v>44358</v>
       </c>
       <c r="B67">
@@ -1388,7 +1392,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5">
+      <c r="A68" s="7">
         <v>44359</v>
       </c>
       <c r="B68">
@@ -1405,7 +1409,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5">
+      <c r="A69" s="7">
         <v>44360</v>
       </c>
       <c r="B69">
@@ -1422,7 +1426,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5">
+      <c r="A70" s="7">
         <v>44361</v>
       </c>
       <c r="B70">
@@ -1442,7 +1446,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5">
+      <c r="A71" s="7">
         <v>44362</v>
       </c>
       <c r="B71">
@@ -1459,7 +1463,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5">
+      <c r="A72" s="7">
         <v>44363</v>
       </c>
       <c r="B72">
@@ -1476,7 +1480,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5">
+      <c r="A73" s="7">
         <v>44364</v>
       </c>
       <c r="B73">
@@ -1493,7 +1497,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5">
+      <c r="A74" s="7">
         <v>44365</v>
       </c>
       <c r="B74">
@@ -1510,7 +1514,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5">
+      <c r="A75" s="7">
         <v>44366</v>
       </c>
       <c r="B75">
@@ -1527,7 +1531,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5">
+      <c r="A76" s="7">
         <v>44367</v>
       </c>
       <c r="B76">
@@ -1544,7 +1548,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5">
+      <c r="A77" s="7">
         <v>44368</v>
       </c>
       <c r="B77">
@@ -1561,7 +1565,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5">
+      <c r="A78" s="7">
         <v>44369</v>
       </c>
       <c r="B78">
@@ -1578,7 +1582,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5">
+      <c r="A79" s="7">
         <v>44370</v>
       </c>
       <c r="B79">
@@ -1595,7 +1599,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5">
+      <c r="A80" s="7">
         <v>44371</v>
       </c>
       <c r="B80">
@@ -1612,7 +1616,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5">
+      <c r="A81" s="7">
         <v>44372</v>
       </c>
       <c r="B81">
@@ -1629,7 +1633,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5">
+      <c r="A82" s="7">
         <v>44373</v>
       </c>
       <c r="B82">
@@ -1646,7 +1650,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5">
+      <c r="A83" s="7">
         <v>44374</v>
       </c>
       <c r="B83">
@@ -1663,7 +1667,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5">
+      <c r="A84" s="7">
         <v>44375</v>
       </c>
       <c r="B84">
@@ -1680,7 +1684,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5">
+      <c r="A85" s="7">
         <v>44376</v>
       </c>
       <c r="B85">
@@ -1697,7 +1701,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5">
+      <c r="A86" s="7">
         <v>44377</v>
       </c>
       <c r="B86">
@@ -1714,7 +1718,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5">
+      <c r="A87" s="7">
         <v>44378</v>
       </c>
       <c r="B87">
@@ -1731,7 +1735,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5">
+      <c r="A88" s="7">
         <v>44379</v>
       </c>
       <c r="B88">
@@ -1748,7 +1752,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5">
+      <c r="A89" s="7">
         <v>44380</v>
       </c>
       <c r="B89">
@@ -1765,7 +1769,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5">
+      <c r="A90" s="7">
         <v>44381</v>
       </c>
       <c r="B90">
@@ -1782,7 +1786,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5">
+      <c r="A91" s="7">
         <v>44382</v>
       </c>
       <c r="B91">
@@ -1799,7 +1803,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5">
+      <c r="A92" s="7">
         <v>44383</v>
       </c>
       <c r="B92">
@@ -1816,7 +1820,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5">
+      <c r="A93" s="7">
         <v>44384</v>
       </c>
       <c r="B93">
@@ -1833,7 +1837,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5">
+      <c r="A94" s="7">
         <v>44385</v>
       </c>
       <c r="B94">
@@ -1850,7 +1854,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5">
+      <c r="A95" s="7">
         <v>44386</v>
       </c>
       <c r="B95">
@@ -1867,7 +1871,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5">
+      <c r="A96" s="7">
         <v>44387</v>
       </c>
       <c r="B96">
@@ -1884,7 +1888,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5">
+      <c r="A97" s="7">
         <v>44388</v>
       </c>
       <c r="B97">
@@ -1901,7 +1905,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5">
+      <c r="A98" s="7">
         <v>44389</v>
       </c>
       <c r="B98">
@@ -1918,7 +1922,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5">
+      <c r="A99" s="7">
         <v>44390</v>
       </c>
       <c r="B99">
@@ -1935,7 +1939,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5">
+      <c r="A100" s="7">
         <v>44391</v>
       </c>
       <c r="B100">
@@ -1952,7 +1956,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5">
+      <c r="A101" s="7">
         <v>44392</v>
       </c>
       <c r="B101">
@@ -1969,7 +1973,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5">
+      <c r="A102" s="7">
         <v>44393</v>
       </c>
       <c r="B102">
@@ -1986,7 +1990,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5">
+      <c r="A103" s="7">
         <v>44394</v>
       </c>
       <c r="B103">
@@ -2003,7 +2007,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5">
+      <c r="A104" s="7">
         <v>44395</v>
       </c>
       <c r="B104">
@@ -2020,7 +2024,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5">
+      <c r="A105" s="7">
         <v>44396</v>
       </c>
       <c r="B105">
@@ -2037,7 +2041,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5">
+      <c r="A106" s="7">
         <v>44397</v>
       </c>
       <c r="B106">
@@ -2054,7 +2058,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5">
+      <c r="A107" s="7">
         <v>44398</v>
       </c>
       <c r="B107">

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,10 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -114,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,10 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,1937 +145,1976 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D108" activeCellId="0" sqref="D108"/>
+      <selection pane="bottomLeft" activeCell="D110" activeCellId="0" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>47157</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>38113</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36047</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>33688</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>50871</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>62974</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>51475</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14218</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30592</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>33945</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>46073</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>46359</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>41281</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>31618</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35245</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>28338</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>36111</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>31255</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>34946</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>31718</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>35430</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9135</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>25566</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>33707</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>33889</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>34913</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>28526</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>32904</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>10397</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>23529</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>35517</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>31563</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>28694</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>20927</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>20244</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5525</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>14776</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>8745</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>23844</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>28411</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>22040</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>26955</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>6919</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>18390</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>32275</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>26674</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>25934</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>27738</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>31828</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>9340</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>19780</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>25471</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>21750</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>17243</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>15803</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>17990</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7332</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>16034</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>23015</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>21243</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>16937</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>17679</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7">
+      <c r="A67" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>17477</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7">
+      <c r="A68" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>10430</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7">
+      <c r="A69" s="3" t="n">
         <v>44360</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>18547</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7">
+      <c r="A70" s="3" t="n">
         <v>44361</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>26331</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7">
+      <c r="A71" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>22502</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7">
+      <c r="A72" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>18399</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7">
+      <c r="A73" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>16588</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7">
+      <c r="A74" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>20294</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7">
+      <c r="A75" s="3" t="n">
         <v>44366</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>12658</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7">
+      <c r="A76" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>24652</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7">
+      <c r="A77" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>32418</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7">
+      <c r="A78" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>30912</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7">
+      <c r="A79" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>29660</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7">
+      <c r="A80" s="3" t="n">
         <v>44371</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>29887</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7">
+      <c r="A81" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>39766</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7">
+      <c r="A82" s="3" t="n">
         <v>44373</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>21859</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7">
+      <c r="A83" s="3" t="n">
         <v>44374</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>30381</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7">
+      <c r="A84" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>47671</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7">
+      <c r="A85" s="3" t="n">
         <v>44376</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>46863</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7">
+      <c r="A86" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>43641</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>311</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7">
+      <c r="A87" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>44597</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7">
+      <c r="A88" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>49699</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7">
+      <c r="A89" s="3" t="n">
         <v>44380</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>27152</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7">
+      <c r="A90" s="3" t="n">
         <v>44381</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>36502</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7">
+      <c r="A91" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>53792</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0" t="n">
         <v>507</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0" t="n">
         <v>478</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7">
+      <c r="A92" s="3" t="n">
         <v>44383</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>60686</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0" t="n">
         <v>528</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0" t="n">
         <v>475</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7">
+      <c r="A93" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>54845</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0" t="n">
         <v>525</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0" t="n">
         <v>482</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7">
+      <c r="A94" s="3" t="n">
         <v>44385</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>52115</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0" t="n">
         <v>470</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0" t="n">
         <v>442</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7">
+      <c r="A95" s="3" t="n">
         <v>44386</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>61506</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0" t="n">
         <v>539</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0" t="n">
         <v>490</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7">
+      <c r="A96" s="3" t="n">
         <v>44387</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>34553</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7">
+      <c r="A97" s="3" t="n">
         <v>44388</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>42471</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7">
+      <c r="A98" s="3" t="n">
         <v>44389</v>
       </c>
-      <c r="B98">
-        <v>62107</v>
-      </c>
-      <c r="C98">
+      <c r="B98" s="0" t="n">
+        <v>62112</v>
+      </c>
+      <c r="C98" s="0" t="n">
         <v>764</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0" t="n">
         <v>694</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7">
+      <c r="A99" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>62201</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0" t="n">
         <v>754</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0" t="n">
         <v>674</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7">
+      <c r="A100" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>63087</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0" t="n">
         <v>779</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0" t="n">
         <v>705</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7">
+      <c r="A101" s="3" t="n">
         <v>44392</v>
       </c>
-      <c r="B101">
-        <v>65580</v>
-      </c>
-      <c r="C101">
-        <v>868</v>
-      </c>
-      <c r="D101">
+      <c r="B101" s="0" t="n">
+        <v>65609</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>869</v>
+      </c>
+      <c r="D101" s="0" t="n">
         <v>773</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7">
+      <c r="A102" s="3" t="n">
         <v>44393</v>
       </c>
-      <c r="B102">
-        <v>81533</v>
-      </c>
-      <c r="C102">
-        <v>1137</v>
-      </c>
-      <c r="D102">
+      <c r="B102" s="0" t="n">
+        <v>81834</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D102" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="0" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7">
+      <c r="A103" s="3" t="n">
         <v>44394</v>
       </c>
-      <c r="B103">
-        <v>32949</v>
-      </c>
-      <c r="C103">
+      <c r="B103" s="0" t="n">
+        <v>33009</v>
+      </c>
+      <c r="C103" s="0" t="n">
         <v>433</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0" t="n">
         <v>371</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7">
+      <c r="A104" s="3" t="n">
         <v>44395</v>
       </c>
-      <c r="B104">
-        <v>56352</v>
-      </c>
-      <c r="C104">
-        <v>843</v>
-      </c>
-      <c r="D104">
+      <c r="B104" s="0" t="n">
+        <v>56628</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>844</v>
+      </c>
+      <c r="D104" s="0" t="n">
         <v>732</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7">
+      <c r="A105" s="3" t="n">
         <v>44396</v>
       </c>
-      <c r="B105">
-        <v>83794</v>
-      </c>
-      <c r="C105">
-        <v>1381</v>
-      </c>
-      <c r="D105">
-        <v>1235</v>
-      </c>
-      <c r="E105">
+      <c r="B105" s="0" t="n">
+        <v>84239</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1385</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>1239</v>
+      </c>
+      <c r="E105" s="0" t="n">
         <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7">
+      <c r="A106" s="3" t="n">
         <v>44397</v>
       </c>
-      <c r="B106">
-        <v>89970</v>
-      </c>
-      <c r="C106">
-        <v>1415</v>
-      </c>
-      <c r="D106">
-        <v>1274</v>
-      </c>
-      <c r="E106">
-        <v>149</v>
+      <c r="B106" s="0" t="n">
+        <v>90428</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1419</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>1278</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7">
+      <c r="A107" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="B107">
-        <v>85389</v>
-      </c>
-      <c r="C107">
-        <v>1347</v>
-      </c>
-      <c r="D107">
-        <v>1261</v>
-      </c>
-      <c r="E107">
-        <v>120</v>
+      <c r="B107" s="0" t="n">
+        <v>85830</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>1241</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>78691</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1291</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>1167</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="n">
+        <v>44400</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>1292</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="n">
+        <v>44401</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>830</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,10 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +131,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -159,1962 +162,1974 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="7">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>47157</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>275</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="7">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>38113</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>210</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="7">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36047</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>221</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="7">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>88</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="7">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>33688</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="7">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>50871</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>218</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="7">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>62974</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>200</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="7">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>51475</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>202</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="7">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14218</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>96</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="7">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30592</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>105</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="7">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>88</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="7">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>33945</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>140</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="7">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>46073</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>137</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="7">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>46359</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>157</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="7">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>41281</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>118</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="7">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>31618</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>128</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="7">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35245</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>109</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="7">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>41</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="7">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>28338</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="7">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>36111</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>94</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="7">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>31255</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>88</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="7">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>34946</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>95</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="7">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>31718</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>97</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="7">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>35430</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>80</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="7">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9135</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>14</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="7">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>25566</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>51</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="7">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>33707</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="7">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>33889</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>63</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="7">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>34913</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>67</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="7">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>28526</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="7">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>32904</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="7">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>10397</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>18</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="7">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>23529</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="7">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>35517</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>53</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="7">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>31563</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="7">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>28694</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="7">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>20927</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="7">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>20244</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>28</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="7">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5525</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="7">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>14776</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="7">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>8745</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="7">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>23844</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="7">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>28411</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>57</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="7">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>22040</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="7">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>26955</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="7">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>6919</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>14</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="7">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>18390</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="7">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>32275</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>27</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="7">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>26674</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>23</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="7">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>25934</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>15</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="7">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>27738</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>12</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="7">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>31828</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="7">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>9340</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="7">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>19780</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="7">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>25471</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="7">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>21750</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>48</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="7">
         <v>44349</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>17243</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>14</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="7">
         <v>44350</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>15803</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>11</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="7">
         <v>44351</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>17990</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="7">
         <v>44352</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>7332</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="7">
         <v>44353</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>16034</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>5</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="7">
         <v>44354</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>23015</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="7">
         <v>44355</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>21243</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>30</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="7">
         <v>44356</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>16937</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="7">
         <v>44357</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>17679</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>19</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="7">
         <v>44358</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>17477</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>18</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="7">
         <v>44359</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>10430</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="7">
         <v>44360</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>18547</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="7">
         <v>44361</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>26331</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>25</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>12</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>13</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="7">
         <v>44362</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>22502</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>26</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>18</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="7">
         <v>44363</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>18399</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>7</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="7">
         <v>44364</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>16588</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>26</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>17</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="7">
         <v>44365</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>20294</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>35</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>31</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="7">
         <v>44366</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>12658</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>46</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>38</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="7">
         <v>44367</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>24652</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>49</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>41</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="7">
         <v>44368</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>32418</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>125</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>117</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="7">
         <v>44369</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>30912</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>110</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>97</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="7">
         <v>44370</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>29660</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>141</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>127</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="7">
         <v>44371</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>29887</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>230</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>219</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="7">
         <v>44372</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>39766</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>231</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>215</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="7">
         <v>44373</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>21859</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>115</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>98</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="7">
         <v>44374</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83">
         <v>30381</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>145</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>133</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="7">
         <v>44375</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>47671</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>285</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>282</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="7">
         <v>44376</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>46863</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>294</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>269</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="7">
         <v>44377</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86">
         <v>43641</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>311</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86">
         <v>287</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="7">
         <v>44378</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87">
         <v>44597</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>296</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>272</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="7">
         <v>44379</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88">
         <v>49699</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88">
         <v>326</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88">
         <v>301</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="7">
         <v>44380</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>27152</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89">
         <v>187</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>168</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="7">
         <v>44381</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90">
         <v>36502</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90">
         <v>350</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>333</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="7">
         <v>44382</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91">
         <v>53792</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91">
         <v>507</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>478</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="7">
         <v>44383</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92">
         <v>60686</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92">
         <v>528</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>475</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="7">
         <v>44384</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93">
         <v>54845</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93">
         <v>525</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>482</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="7">
         <v>44385</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>52115</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>470</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>442</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="7">
         <v>44386</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>61506</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>539</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>490</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="7">
         <v>44387</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>34553</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>263</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96">
         <v>230</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="7">
         <v>44388</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>42471</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97">
         <v>441</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>388</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="7">
         <v>44389</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>62112</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>764</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>694</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="7">
         <v>44390</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>62201</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>754</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>674</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="7">
         <v>44391</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100">
         <v>63087</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100">
         <v>779</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>705</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="7">
         <v>44392</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101">
         <v>65609</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>869</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>773</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="7">
         <v>44393</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102">
         <v>81834</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102">
         <v>1140</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>1024</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="7">
         <v>44394</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103">
         <v>33009</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103">
         <v>433</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103">
         <v>371</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="7">
         <v>44395</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104">
         <v>56628</v>
       </c>
-      <c r="C104" s="0" t="n">
-        <v>844</v>
-      </c>
-      <c r="D104" s="0" t="n">
+      <c r="C104">
+        <v>840</v>
+      </c>
+      <c r="D104">
         <v>732</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104">
         <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="7">
         <v>44396</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105">
         <v>84239</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105">
         <v>1385</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>1239</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="7">
         <v>44397</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106">
         <v>90428</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106">
         <v>1419</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>1278</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106">
         <v>150</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="7">
         <v>44398</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107">
         <v>85830</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107">
         <v>1350</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>1241</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107">
         <v>116</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="n">
+      <c r="A108" s="7">
         <v>44399</v>
       </c>
-      <c r="B108" s="0" t="n">
-        <v>78691</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>1291</v>
-      </c>
-      <c r="D108" s="0" t="n">
+      <c r="B108">
+        <v>78692</v>
+      </c>
+      <c r="C108">
+        <v>1288</v>
+      </c>
+      <c r="D108">
         <v>1167</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108">
         <v>114</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="n">
+      <c r="A109" s="7">
         <v>44400</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="B109">
+        <v>98131</v>
+      </c>
+      <c r="C109">
+        <v>1437</v>
+      </c>
+      <c r="D109">
         <v>1292</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109">
         <v>152</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="7">
         <v>44401</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="B110">
+        <v>52120</v>
+      </c>
+      <c r="C110">
+        <v>776</v>
+      </c>
+      <c r="D110">
         <v>830</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110">
         <v>137</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,10 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -114,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,10 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,1988 +145,2010 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D110" activeCellId="0" sqref="D110"/>
+      <selection pane="bottomLeft" activeCell="D106" activeCellId="0" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>47157</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>38113</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36047</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>33688</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>50871</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>62974</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>51475</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14218</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30592</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>33945</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>46073</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>46359</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>41281</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>31618</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35245</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>28338</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>36111</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>31255</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>34946</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>31718</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>35430</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9135</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>25566</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>33707</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>33889</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>34913</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>28526</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>32904</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>10397</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>23529</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>35517</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>31563</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>28694</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>20927</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>20244</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5525</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>14776</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>8745</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>23844</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>28411</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>22040</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>26955</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>6919</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>18390</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>32275</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>26674</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>25934</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>27738</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>31828</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>9340</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>19780</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>25471</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>21750</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>17243</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>15803</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>17990</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7332</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>16034</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>23015</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>21243</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>16937</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>17679</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7">
+      <c r="A67" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>17477</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7">
+      <c r="A68" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>10430</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7">
+      <c r="A69" s="3" t="n">
         <v>44360</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>18547</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7">
+      <c r="A70" s="3" t="n">
         <v>44361</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>26331</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7">
+      <c r="A71" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>22502</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7">
+      <c r="A72" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>18399</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7">
+      <c r="A73" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>16588</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7">
+      <c r="A74" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>20294</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7">
+      <c r="A75" s="3" t="n">
         <v>44366</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>12658</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7">
+      <c r="A76" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>24652</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7">
+      <c r="A77" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>32418</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7">
+      <c r="A78" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>30912</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7">
+      <c r="A79" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>29660</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7">
+      <c r="A80" s="3" t="n">
         <v>44371</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>29887</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7">
+      <c r="A81" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>39766</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7">
+      <c r="A82" s="3" t="n">
         <v>44373</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>21859</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7">
+      <c r="A83" s="3" t="n">
         <v>44374</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>30381</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7">
+      <c r="A84" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>47671</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7">
+      <c r="A85" s="3" t="n">
         <v>44376</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>46863</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7">
+      <c r="A86" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>43641</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>311</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7">
+      <c r="A87" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>44597</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7">
+      <c r="A88" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>49699</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7">
+      <c r="A89" s="3" t="n">
         <v>44380</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>27152</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7">
+      <c r="A90" s="3" t="n">
         <v>44381</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>36502</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7">
+      <c r="A91" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>53792</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0" t="n">
         <v>507</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0" t="n">
         <v>478</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7">
+      <c r="A92" s="3" t="n">
         <v>44383</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>60686</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0" t="n">
         <v>528</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0" t="n">
         <v>475</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7">
+      <c r="A93" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>54845</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0" t="n">
         <v>525</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0" t="n">
         <v>482</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7">
+      <c r="A94" s="3" t="n">
         <v>44385</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>52115</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0" t="n">
         <v>470</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0" t="n">
         <v>442</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7">
+      <c r="A95" s="3" t="n">
         <v>44386</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>61506</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0" t="n">
         <v>539</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0" t="n">
         <v>490</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7">
+      <c r="A96" s="3" t="n">
         <v>44387</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>34553</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7">
+      <c r="A97" s="3" t="n">
         <v>44388</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>42471</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7">
+      <c r="A98" s="3" t="n">
         <v>44389</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>62112</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0" t="n">
         <v>764</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0" t="n">
         <v>694</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7">
+      <c r="A99" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>62201</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0" t="n">
         <v>754</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0" t="n">
         <v>674</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7">
+      <c r="A100" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>63087</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0" t="n">
         <v>779</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0" t="n">
         <v>705</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7">
+      <c r="A101" s="3" t="n">
         <v>44392</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>65609</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0" t="n">
         <v>869</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0" t="n">
         <v>773</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7">
+      <c r="A102" s="3" t="n">
         <v>44393</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>81834</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0" t="n">
         <v>1140</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="0" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7">
+      <c r="A103" s="3" t="n">
         <v>44394</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>33009</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0" t="n">
         <v>433</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0" t="n">
         <v>371</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7">
+      <c r="A104" s="3" t="n">
         <v>44395</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>56628</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0" t="n">
         <v>840</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0" t="n">
         <v>732</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7">
+      <c r="A105" s="3" t="n">
         <v>44396</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>84239</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0" t="n">
         <v>1385</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="0" t="n">
         <v>1239</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="0" t="n">
         <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7">
+      <c r="A106" s="3" t="n">
         <v>44397</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>90428</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0" t="n">
         <v>1419</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="0" t="n">
         <v>1278</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="0" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7">
+      <c r="A107" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>85830</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="0" t="n">
         <v>1241</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7">
+      <c r="A108" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>78692</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0" t="n">
         <v>1288</v>
       </c>
-      <c r="D108">
-        <v>1167</v>
-      </c>
-      <c r="E108">
+      <c r="D108" s="0" t="n">
+        <v>1171</v>
+      </c>
+      <c r="E108" s="0" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7">
+      <c r="A109" s="3" t="n">
         <v>44400</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>98131</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0" t="n">
         <v>1437</v>
       </c>
-      <c r="D109">
-        <v>1292</v>
-      </c>
-      <c r="E109">
+      <c r="D109" s="0" t="n">
+        <v>1301</v>
+      </c>
+      <c r="E109" s="0" t="n">
         <v>152</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7">
+      <c r="A110" s="3" t="n">
         <v>44401</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>52120</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0" t="n">
         <v>776</v>
       </c>
-      <c r="D110">
-        <v>830</v>
-      </c>
-      <c r="E110">
+      <c r="D110" s="0" t="n">
+        <v>842</v>
+      </c>
+      <c r="E110" s="0" t="n">
         <v>137</v>
       </c>
     </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="n">
+        <v>44402</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="n">
+        <v>44403</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,8 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +129,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -159,1996 +158,2008 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>47157</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>275</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>38113</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>210</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36047</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>221</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>88</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>33688</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>50871</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>218</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>62974</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>200</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>51475</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>202</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14218</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>96</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30592</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>105</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>88</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>33945</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>140</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>46073</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>137</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>46359</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>157</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>41281</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>118</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>31618</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>128</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35245</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>109</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>41</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>28338</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>36111</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>94</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>31255</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>88</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>34946</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>95</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>31718</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>97</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>35430</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>80</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9135</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>14</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>25566</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>51</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>33707</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>33889</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>63</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>34913</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>67</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>28526</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>32904</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>10397</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>18</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>23529</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>35517</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>53</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>31563</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>28694</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>20927</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>20244</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>28</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5525</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>14776</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="5">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>8745</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="5">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>23844</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="5">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>28411</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>57</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="5">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>22040</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="5">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>26955</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="5">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>6919</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>14</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="5">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>18390</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="5">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>32275</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>27</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="5">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>26674</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>23</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="5">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>25934</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>15</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="5">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>27738</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>12</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="5">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>31828</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="5">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>9340</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="5">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>19780</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="5">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>25471</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="5">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>21750</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>48</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="5">
         <v>44349</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>17243</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>14</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="5">
         <v>44350</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>15803</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>11</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="5">
         <v>44351</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>17990</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="5">
         <v>44352</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>7332</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="5">
         <v>44353</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>16034</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>5</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="5">
         <v>44354</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>23015</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="5">
         <v>44355</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>21243</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>30</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="5">
         <v>44356</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>16937</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="5">
         <v>44357</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>17679</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>19</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="5">
         <v>44358</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>17477</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>18</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="5">
         <v>44359</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>10430</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="5">
         <v>44360</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>18547</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="5">
         <v>44361</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>26331</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>25</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>12</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>13</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="5">
         <v>44362</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>22502</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>26</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>18</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="5">
         <v>44363</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>18399</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>7</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="5">
         <v>44364</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>16588</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>26</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>17</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="5">
         <v>44365</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>20294</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>35</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>31</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="5">
         <v>44366</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>12658</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>46</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>38</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="5">
         <v>44367</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>24652</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>49</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>41</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="5">
         <v>44368</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>32418</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>125</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>117</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="5">
         <v>44369</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>30912</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>110</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>97</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="5">
         <v>44370</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>29660</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>141</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>127</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="5">
         <v>44371</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>29887</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>230</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>219</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="5">
         <v>44372</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>39766</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>231</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>215</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="5">
         <v>44373</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>21859</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>115</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>98</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="5">
         <v>44374</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83">
         <v>30381</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>145</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>133</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="5">
         <v>44375</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>47671</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>285</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>282</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="5">
         <v>44376</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>46863</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>294</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>269</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="5">
         <v>44377</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86">
         <v>43641</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>311</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86">
         <v>287</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="5">
         <v>44378</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87">
         <v>44597</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>296</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>272</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="5">
         <v>44379</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88">
         <v>49699</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88">
         <v>326</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88">
         <v>301</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="5">
         <v>44380</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>27152</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89">
         <v>187</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>168</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="5">
         <v>44381</v>
       </c>
-      <c r="B90" s="0" t="n">
-        <v>36502</v>
-      </c>
-      <c r="C90" s="0" t="n">
+      <c r="B90">
+        <v>36503</v>
+      </c>
+      <c r="C90">
         <v>350</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>333</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="5">
         <v>44382</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91">
         <v>53792</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91">
         <v>507</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>478</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="5">
         <v>44383</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92">
         <v>60686</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92">
         <v>528</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>475</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="5">
         <v>44384</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93">
         <v>54845</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93">
         <v>525</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>482</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="5">
         <v>44385</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>52115</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>470</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>442</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="5">
         <v>44386</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>61506</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>539</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>490</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="5">
         <v>44387</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>34553</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>263</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96">
         <v>230</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="5">
         <v>44388</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>42471</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97">
         <v>441</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>388</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="5">
         <v>44389</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>62112</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>764</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>694</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="5">
         <v>44390</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>62201</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>754</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>674</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="5">
         <v>44391</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100">
         <v>63087</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100">
         <v>779</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>705</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="5">
         <v>44392</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101">
         <v>65609</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>869</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>773</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="5">
         <v>44393</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102">
         <v>81834</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102">
         <v>1140</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>1024</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="5">
         <v>44394</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103">
         <v>33009</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103">
         <v>433</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103">
         <v>371</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="5">
         <v>44395</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>56628</v>
-      </c>
-      <c r="C104" s="0" t="n">
+      <c r="B104">
+        <v>56629</v>
+      </c>
+      <c r="C104">
         <v>840</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>732</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104">
         <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="5">
         <v>44396</v>
       </c>
-      <c r="B105" s="0" t="n">
-        <v>84239</v>
-      </c>
-      <c r="C105" s="0" t="n">
+      <c r="B105">
+        <v>84240</v>
+      </c>
+      <c r="C105">
         <v>1385</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>1239</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="5">
         <v>44397</v>
       </c>
-      <c r="B106" s="0" t="n">
-        <v>90428</v>
-      </c>
-      <c r="C106" s="0" t="n">
+      <c r="B106">
+        <v>90598</v>
+      </c>
+      <c r="C106">
         <v>1419</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>1278</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106">
         <v>150</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="5">
         <v>44398</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107">
         <v>85830</v>
       </c>
-      <c r="C107" s="0" t="n">
-        <v>1350</v>
-      </c>
-      <c r="D107" s="0" t="n">
+      <c r="C107">
+        <v>1349</v>
+      </c>
+      <c r="D107">
         <v>1241</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107">
         <v>116</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="n">
+      <c r="A108" s="5">
         <v>44399</v>
       </c>
-      <c r="B108" s="0" t="n">
-        <v>78692</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>1288</v>
-      </c>
-      <c r="D108" s="0" t="n">
+      <c r="B108">
+        <v>78711</v>
+      </c>
+      <c r="C108">
+        <v>1289</v>
+      </c>
+      <c r="D108">
         <v>1171</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108">
         <v>114</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="n">
+      <c r="A109" s="5">
         <v>44400</v>
       </c>
-      <c r="B109" s="0" t="n">
-        <v>98131</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>1437</v>
-      </c>
-      <c r="D109" s="0" t="n">
+      <c r="B109">
+        <v>98197</v>
+      </c>
+      <c r="C109">
+        <v>1444</v>
+      </c>
+      <c r="D109">
         <v>1301</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109">
         <v>152</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="5">
         <v>44401</v>
       </c>
-      <c r="B110" s="0" t="n">
-        <v>52120</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>776</v>
-      </c>
-      <c r="D110" s="0" t="n">
+      <c r="B110">
+        <v>60674</v>
+      </c>
+      <c r="C110">
+        <v>973</v>
+      </c>
+      <c r="D110">
         <v>842</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110">
         <v>137</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="n">
+      <c r="A111" s="5">
         <v>44402</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="B111">
+        <v>77010</v>
+      </c>
+      <c r="C111">
+        <v>1411</v>
+      </c>
+      <c r="D111">
         <v>1299</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111">
         <v>118</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="n">
+      <c r="A112" s="5">
         <v>44403</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="B112">
+        <v>102742</v>
+      </c>
+      <c r="C112">
+        <v>2128</v>
+      </c>
+      <c r="D112">
         <v>1920</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,6 +84,8 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
     <border/>
     <border/>
   </borders>
@@ -112,7 +114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,6 +133,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,15 +152,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D106" activeCellId="0" sqref="D106"/>
+      <selection pane="bottomLeft" activeCell="E109" activeCellId="0" sqref="E109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -168,27 +172,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>44293</v>
       </c>
       <c r="B2">
@@ -205,7 +209,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>44294</v>
       </c>
       <c r="B3">
@@ -222,7 +226,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>44295</v>
       </c>
       <c r="B4">
@@ -239,7 +243,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>44296</v>
       </c>
       <c r="B5">
@@ -256,7 +260,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>44297</v>
       </c>
       <c r="B6">
@@ -273,7 +277,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>44298</v>
       </c>
       <c r="B7">
@@ -290,7 +294,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>44299</v>
       </c>
       <c r="B8">
@@ -307,7 +311,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>44300</v>
       </c>
       <c r="B9">
@@ -324,7 +328,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>44301</v>
       </c>
       <c r="B10">
@@ -341,7 +345,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>44302</v>
       </c>
       <c r="B11">
@@ -358,7 +362,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>44303</v>
       </c>
       <c r="B12">
@@ -375,7 +379,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>44304</v>
       </c>
       <c r="B13">
@@ -395,7 +399,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>44305</v>
       </c>
       <c r="B14">
@@ -415,7 +419,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>44306</v>
       </c>
       <c r="B15">
@@ -435,7 +439,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>44307</v>
       </c>
       <c r="B16">
@@ -455,7 +459,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>44308</v>
       </c>
       <c r="B17">
@@ -475,7 +479,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>44309</v>
       </c>
       <c r="B18">
@@ -492,7 +496,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>44310</v>
       </c>
       <c r="B19">
@@ -512,7 +516,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>44311</v>
       </c>
       <c r="B20">
@@ -532,7 +536,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>44312</v>
       </c>
       <c r="B21">
@@ -549,7 +553,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>44313</v>
       </c>
       <c r="B22">
@@ -569,7 +573,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="7">
         <v>44314</v>
       </c>
       <c r="B23">
@@ -586,7 +590,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="7">
         <v>44315</v>
       </c>
       <c r="B24">
@@ -603,7 +607,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <v>44316</v>
       </c>
       <c r="B25">
@@ -620,7 +624,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="7">
         <v>44317</v>
       </c>
       <c r="B26">
@@ -640,7 +644,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="7">
         <v>44318</v>
       </c>
       <c r="B27">
@@ -660,7 +664,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="7">
         <v>44319</v>
       </c>
       <c r="B28">
@@ -680,7 +684,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="7">
         <v>44320</v>
       </c>
       <c r="B29">
@@ -700,7 +704,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="7">
         <v>44321</v>
       </c>
       <c r="B30">
@@ -720,7 +724,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="7">
         <v>44322</v>
       </c>
       <c r="B31">
@@ -740,7 +744,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="7">
         <v>44323</v>
       </c>
       <c r="B32">
@@ -757,7 +761,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="7">
         <v>44324</v>
       </c>
       <c r="B33">
@@ -777,7 +781,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="7">
         <v>44325</v>
       </c>
       <c r="B34">
@@ -797,7 +801,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="7">
         <v>44326</v>
       </c>
       <c r="B35">
@@ -814,7 +818,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="7">
         <v>44327</v>
       </c>
       <c r="B36">
@@ -834,7 +838,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="7">
         <v>44328</v>
       </c>
       <c r="B37">
@@ -854,7 +858,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="7">
         <v>44329</v>
       </c>
       <c r="B38">
@@ -874,7 +878,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="7">
         <v>44330</v>
       </c>
       <c r="B39">
@@ -891,7 +895,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="7">
         <v>44331</v>
       </c>
       <c r="B40">
@@ -911,7 +915,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="7">
         <v>44332</v>
       </c>
       <c r="B41">
@@ -928,7 +932,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="7">
         <v>44333</v>
       </c>
       <c r="B42">
@@ -945,7 +949,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="7">
         <v>44334</v>
       </c>
       <c r="B43">
@@ -962,7 +966,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="7">
         <v>44335</v>
       </c>
       <c r="B44">
@@ -982,7 +986,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="7">
         <v>44336</v>
       </c>
       <c r="B45">
@@ -1002,7 +1006,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="7">
         <v>44337</v>
       </c>
       <c r="B46">
@@ -1019,7 +1023,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="7">
         <v>44338</v>
       </c>
       <c r="B47">
@@ -1039,7 +1043,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="7">
         <v>44339</v>
       </c>
       <c r="B48">
@@ -1059,7 +1063,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="7">
         <v>44340</v>
       </c>
       <c r="B49">
@@ -1076,7 +1080,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
+      <c r="A50" s="7">
         <v>44341</v>
       </c>
       <c r="B50">
@@ -1096,7 +1100,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
+      <c r="A51" s="7">
         <v>44342</v>
       </c>
       <c r="B51">
@@ -1113,7 +1117,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
+      <c r="A52" s="7">
         <v>44343</v>
       </c>
       <c r="B52">
@@ -1130,7 +1134,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
+      <c r="A53" s="7">
         <v>44344</v>
       </c>
       <c r="B53">
@@ -1147,7 +1151,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
+      <c r="A54" s="7">
         <v>44345</v>
       </c>
       <c r="B54">
@@ -1164,7 +1168,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
+      <c r="A55" s="7">
         <v>44346</v>
       </c>
       <c r="B55">
@@ -1181,7 +1185,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5">
+      <c r="A56" s="7">
         <v>44347</v>
       </c>
       <c r="B56">
@@ -1198,7 +1202,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5">
+      <c r="A57" s="7">
         <v>44348</v>
       </c>
       <c r="B57">
@@ -1215,7 +1219,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5">
+      <c r="A58" s="7">
         <v>44349</v>
       </c>
       <c r="B58">
@@ -1232,7 +1236,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5">
+      <c r="A59" s="7">
         <v>44350</v>
       </c>
       <c r="B59">
@@ -1249,7 +1253,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5">
+      <c r="A60" s="7">
         <v>44351</v>
       </c>
       <c r="B60">
@@ -1266,7 +1270,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5">
+      <c r="A61" s="7">
         <v>44352</v>
       </c>
       <c r="B61">
@@ -1283,7 +1287,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5">
+      <c r="A62" s="7">
         <v>44353</v>
       </c>
       <c r="B62">
@@ -1300,7 +1304,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5">
+      <c r="A63" s="7">
         <v>44354</v>
       </c>
       <c r="B63">
@@ -1317,7 +1321,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5">
+      <c r="A64" s="7">
         <v>44355</v>
       </c>
       <c r="B64">
@@ -1334,7 +1338,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5">
+      <c r="A65" s="7">
         <v>44356</v>
       </c>
       <c r="B65">
@@ -1351,7 +1355,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5">
+      <c r="A66" s="7">
         <v>44357</v>
       </c>
       <c r="B66">
@@ -1371,7 +1375,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5">
+      <c r="A67" s="7">
         <v>44358</v>
       </c>
       <c r="B67">
@@ -1388,7 +1392,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5">
+      <c r="A68" s="7">
         <v>44359</v>
       </c>
       <c r="B68">
@@ -1405,7 +1409,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5">
+      <c r="A69" s="7">
         <v>44360</v>
       </c>
       <c r="B69">
@@ -1422,7 +1426,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5">
+      <c r="A70" s="7">
         <v>44361</v>
       </c>
       <c r="B70">
@@ -1442,7 +1446,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5">
+      <c r="A71" s="7">
         <v>44362</v>
       </c>
       <c r="B71">
@@ -1459,7 +1463,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5">
+      <c r="A72" s="7">
         <v>44363</v>
       </c>
       <c r="B72">
@@ -1476,7 +1480,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5">
+      <c r="A73" s="7">
         <v>44364</v>
       </c>
       <c r="B73">
@@ -1493,7 +1497,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5">
+      <c r="A74" s="7">
         <v>44365</v>
       </c>
       <c r="B74">
@@ -1510,7 +1514,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5">
+      <c r="A75" s="7">
         <v>44366</v>
       </c>
       <c r="B75">
@@ -1527,7 +1531,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5">
+      <c r="A76" s="7">
         <v>44367</v>
       </c>
       <c r="B76">
@@ -1544,7 +1548,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5">
+      <c r="A77" s="7">
         <v>44368</v>
       </c>
       <c r="B77">
@@ -1561,7 +1565,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5">
+      <c r="A78" s="7">
         <v>44369</v>
       </c>
       <c r="B78">
@@ -1578,7 +1582,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5">
+      <c r="A79" s="7">
         <v>44370</v>
       </c>
       <c r="B79">
@@ -1595,7 +1599,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5">
+      <c r="A80" s="7">
         <v>44371</v>
       </c>
       <c r="B80">
@@ -1612,7 +1616,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5">
+      <c r="A81" s="7">
         <v>44372</v>
       </c>
       <c r="B81">
@@ -1629,7 +1633,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5">
+      <c r="A82" s="7">
         <v>44373</v>
       </c>
       <c r="B82">
@@ -1646,7 +1650,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5">
+      <c r="A83" s="7">
         <v>44374</v>
       </c>
       <c r="B83">
@@ -1663,7 +1667,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5">
+      <c r="A84" s="7">
         <v>44375</v>
       </c>
       <c r="B84">
@@ -1680,7 +1684,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5">
+      <c r="A85" s="7">
         <v>44376</v>
       </c>
       <c r="B85">
@@ -1697,14 +1701,14 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5">
+      <c r="A86" s="7">
         <v>44377</v>
       </c>
       <c r="B86">
-        <v>43641</v>
+        <v>43642</v>
       </c>
       <c r="C86">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D86">
         <v>287</v>
@@ -1714,7 +1718,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5">
+      <c r="A87" s="7">
         <v>44378</v>
       </c>
       <c r="B87">
@@ -1731,7 +1735,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5">
+      <c r="A88" s="7">
         <v>44379</v>
       </c>
       <c r="B88">
@@ -1748,7 +1752,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5">
+      <c r="A89" s="7">
         <v>44380</v>
       </c>
       <c r="B89">
@@ -1765,7 +1769,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5">
+      <c r="A90" s="7">
         <v>44381</v>
       </c>
       <c r="B90">
@@ -1782,7 +1786,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5">
+      <c r="A91" s="7">
         <v>44382</v>
       </c>
       <c r="B91">
@@ -1799,7 +1803,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5">
+      <c r="A92" s="7">
         <v>44383</v>
       </c>
       <c r="B92">
@@ -1816,7 +1820,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5">
+      <c r="A93" s="7">
         <v>44384</v>
       </c>
       <c r="B93">
@@ -1833,7 +1837,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5">
+      <c r="A94" s="7">
         <v>44385</v>
       </c>
       <c r="B94">
@@ -1850,7 +1854,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5">
+      <c r="A95" s="7">
         <v>44386</v>
       </c>
       <c r="B95">
@@ -1867,7 +1871,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5">
+      <c r="A96" s="7">
         <v>44387</v>
       </c>
       <c r="B96">
@@ -1884,7 +1888,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5">
+      <c r="A97" s="7">
         <v>44388</v>
       </c>
       <c r="B97">
@@ -1901,7 +1905,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5">
+      <c r="A98" s="7">
         <v>44389</v>
       </c>
       <c r="B98">
@@ -1918,7 +1922,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5">
+      <c r="A99" s="7">
         <v>44390</v>
       </c>
       <c r="B99">
@@ -1935,7 +1939,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5">
+      <c r="A100" s="7">
         <v>44391</v>
       </c>
       <c r="B100">
@@ -1952,7 +1956,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5">
+      <c r="A101" s="7">
         <v>44392</v>
       </c>
       <c r="B101">
@@ -1969,7 +1973,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5">
+      <c r="A102" s="7">
         <v>44393</v>
       </c>
       <c r="B102">
@@ -1986,7 +1990,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5">
+      <c r="A103" s="7">
         <v>44394</v>
       </c>
       <c r="B103">
@@ -2003,14 +2007,14 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5">
+      <c r="A104" s="7">
         <v>44395</v>
       </c>
       <c r="B104">
-        <v>56629</v>
+        <v>56630</v>
       </c>
       <c r="C104">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D104">
         <v>732</v>
@@ -2020,7 +2024,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5">
+      <c r="A105" s="7">
         <v>44396</v>
       </c>
       <c r="B105">
@@ -2037,11 +2041,11 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5">
+      <c r="A106" s="7">
         <v>44397</v>
       </c>
       <c r="B106">
-        <v>90598</v>
+        <v>90599</v>
       </c>
       <c r="C106">
         <v>1419</v>
@@ -2054,7 +2058,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5">
+      <c r="A107" s="7">
         <v>44398</v>
       </c>
       <c r="B107">
@@ -2071,7 +2075,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5">
+      <c r="A108" s="7">
         <v>44399</v>
       </c>
       <c r="B108">
@@ -2088,14 +2092,14 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5">
+      <c r="A109" s="7">
         <v>44400</v>
       </c>
       <c r="B109">
         <v>98197</v>
       </c>
       <c r="C109">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D109">
         <v>1301</v>
@@ -2105,7 +2109,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5">
+      <c r="A110" s="7">
         <v>44401</v>
       </c>
       <c r="B110">
@@ -2115,44 +2119,61 @@
         <v>973</v>
       </c>
       <c r="D110">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E110">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5">
+      <c r="A111" s="7">
         <v>44402</v>
       </c>
       <c r="B111">
         <v>77010</v>
       </c>
       <c r="C111">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="D111">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="E111">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5">
+      <c r="A112" s="7">
         <v>44403</v>
       </c>
       <c r="B112">
-        <v>102742</v>
+        <v>102814</v>
       </c>
       <c r="C112">
-        <v>2128</v>
+        <v>2140</v>
       </c>
       <c r="D112">
-        <v>1920</v>
+        <v>1939</v>
       </c>
       <c r="E112">
-        <v>203</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7">
+        <v>44404</v>
+      </c>
+      <c r="B113">
+        <v>105918</v>
+      </c>
+      <c r="C113">
+        <v>2278</v>
+      </c>
+      <c r="D113">
+        <v>2081</v>
+      </c>
+      <c r="E113">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,10 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -114,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,10 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,2039 +145,2061 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E109" activeCellId="0" sqref="E109"/>
+      <selection pane="bottomLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>47157</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>38113</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36047</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>33688</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>50871</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>62974</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>51475</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14218</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30592</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>33945</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>46073</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>46359</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>41281</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>31618</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35245</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>28338</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>36111</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>31255</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>34946</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>31718</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>35430</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9135</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>25566</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>33707</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>33889</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>34913</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>28526</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>32904</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>10397</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>23529</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>35517</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>31563</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>28694</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>20927</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>20244</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5525</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>14776</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>8745</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>23844</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>28411</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>22040</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>26955</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>6919</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>18390</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>32275</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>26674</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>25934</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>27738</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>31828</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>9340</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>19780</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>25471</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>21750</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>17243</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>15803</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>17990</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7332</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>16034</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>23015</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>21243</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>16937</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>17679</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7">
+      <c r="A67" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>17477</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7">
+      <c r="A68" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>10430</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7">
+      <c r="A69" s="3" t="n">
         <v>44360</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>18547</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7">
+      <c r="A70" s="3" t="n">
         <v>44361</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>26331</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7">
+      <c r="A71" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>22502</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7">
+      <c r="A72" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>18399</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7">
+      <c r="A73" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>16588</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7">
+      <c r="A74" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>20294</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7">
+      <c r="A75" s="3" t="n">
         <v>44366</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>12658</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7">
+      <c r="A76" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>24652</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7">
+      <c r="A77" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>32418</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7">
+      <c r="A78" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>30912</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7">
+      <c r="A79" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>29660</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7">
+      <c r="A80" s="3" t="n">
         <v>44371</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>29887</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7">
+      <c r="A81" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>39766</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7">
+      <c r="A82" s="3" t="n">
         <v>44373</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>21859</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7">
+      <c r="A83" s="3" t="n">
         <v>44374</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>30381</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7">
+      <c r="A84" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>47671</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7">
+      <c r="A85" s="3" t="n">
         <v>44376</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>46863</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7">
+      <c r="A86" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>43642</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>312</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7">
+      <c r="A87" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>44597</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7">
+      <c r="A88" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>49699</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7">
+      <c r="A89" s="3" t="n">
         <v>44380</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>27152</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7">
+      <c r="A90" s="3" t="n">
         <v>44381</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>36503</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7">
+      <c r="A91" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>53792</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0" t="n">
         <v>507</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0" t="n">
         <v>478</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7">
+      <c r="A92" s="3" t="n">
         <v>44383</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>60686</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0" t="n">
         <v>528</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0" t="n">
         <v>475</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7">
+      <c r="A93" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>54845</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0" t="n">
         <v>525</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0" t="n">
         <v>482</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7">
+      <c r="A94" s="3" t="n">
         <v>44385</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>52115</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0" t="n">
         <v>470</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0" t="n">
         <v>442</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7">
+      <c r="A95" s="3" t="n">
         <v>44386</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>61506</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0" t="n">
         <v>539</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0" t="n">
         <v>490</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7">
+      <c r="A96" s="3" t="n">
         <v>44387</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>34553</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7">
+      <c r="A97" s="3" t="n">
         <v>44388</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>42471</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7">
+      <c r="A98" s="3" t="n">
         <v>44389</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>62112</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0" t="n">
         <v>764</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0" t="n">
         <v>694</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7">
+      <c r="A99" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>62201</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0" t="n">
         <v>754</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0" t="n">
         <v>674</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7">
+      <c r="A100" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>63087</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0" t="n">
         <v>779</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0" t="n">
         <v>705</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7">
+      <c r="A101" s="3" t="n">
         <v>44392</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>65609</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0" t="n">
         <v>869</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0" t="n">
         <v>773</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7">
+      <c r="A102" s="3" t="n">
         <v>44393</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>81834</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0" t="n">
         <v>1140</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="0" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7">
+      <c r="A103" s="3" t="n">
         <v>44394</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>33009</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0" t="n">
         <v>433</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0" t="n">
         <v>371</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7">
+      <c r="A104" s="3" t="n">
         <v>44395</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>56630</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0" t="n">
         <v>841</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0" t="n">
         <v>732</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7">
+      <c r="A105" s="3" t="n">
         <v>44396</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>84240</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0" t="n">
         <v>1385</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="0" t="n">
         <v>1239</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="0" t="n">
         <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7">
+      <c r="A106" s="3" t="n">
         <v>44397</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>90599</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0" t="n">
         <v>1419</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="0" t="n">
         <v>1278</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="0" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7">
+      <c r="A107" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>85830</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0" t="n">
         <v>1349</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="0" t="n">
         <v>1241</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7">
+      <c r="A108" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>78711</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0" t="n">
         <v>1289</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="0" t="n">
         <v>1171</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="0" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7">
+      <c r="A109" s="3" t="n">
         <v>44400</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>98197</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0" t="n">
         <v>1445</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="0" t="n">
         <v>1301</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="0" t="n">
         <v>152</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7">
+      <c r="A110" s="3" t="n">
         <v>44401</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>60674</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0" t="n">
         <v>973</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="0" t="n">
         <v>838</v>
       </c>
-      <c r="E110">
-        <v>142</v>
+      <c r="E110" s="0" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7">
+      <c r="A111" s="3" t="n">
         <v>44402</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>77010</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0" t="n">
         <v>1414</v>
       </c>
-      <c r="D111">
-        <v>1304</v>
-      </c>
-      <c r="E111">
+      <c r="D111" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E111" s="0" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7">
+      <c r="A112" s="3" t="n">
         <v>44403</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>102814</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0" t="n">
         <v>2140</v>
       </c>
-      <c r="D112">
-        <v>1939</v>
-      </c>
-      <c r="E112">
-        <v>208</v>
+      <c r="D112" s="0" t="n">
+        <v>1944</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7">
+      <c r="A113" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>105918</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0" t="n">
         <v>2278</v>
       </c>
-      <c r="D113">
-        <v>2081</v>
-      </c>
-      <c r="E113">
-        <v>212</v>
+      <c r="D113" s="0" t="n">
+        <v>2102</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="n">
+        <v>44405</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>2061</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="n">
+        <v>44406</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>1978</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,10 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +131,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -159,2047 +162,2059 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="7">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>47157</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>275</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="7">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>38113</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>210</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="7">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36047</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>221</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="7">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>88</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="7">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>33688</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="7">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>50871</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>218</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="7">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>62974</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>200</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="7">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>51475</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>202</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="7">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14218</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>96</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="7">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30592</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>105</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="7">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>88</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="7">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>33945</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>140</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="7">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>46073</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>137</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="7">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>46359</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>157</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="7">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>41281</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>118</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="7">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>31618</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>128</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="7">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35245</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>109</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="7">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>41</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="7">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>28338</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="7">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>36111</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>94</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="7">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>31255</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>88</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="7">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>34946</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>95</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="7">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>31718</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>97</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="7">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>35430</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>80</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="7">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9135</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>14</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="7">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>25566</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>51</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="7">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>33707</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="7">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>33889</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>63</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="7">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>34913</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>67</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="7">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>28526</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="7">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>32904</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="7">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>10397</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>18</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="7">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>23529</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="7">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>35517</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>53</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="7">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>31563</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36">
+        <v>31566</v>
+      </c>
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="7">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>28694</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="7">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>20927</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="7">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>20244</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>28</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="7">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5525</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="7">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>14776</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="7">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>8745</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="7">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>23844</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="7">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>28411</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>57</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="7">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>22040</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="7">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>26955</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="7">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>6919</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>14</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="7">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>18390</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="7">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>32275</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>27</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="7">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>26674</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>23</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="7">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>25934</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>15</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="7">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>27738</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>12</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="7">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>31828</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="7">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>9340</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="7">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>19780</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="7">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>25471</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="7">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>21750</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>48</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="7">
         <v>44349</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>17243</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>14</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="7">
         <v>44350</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>15803</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>11</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="7">
         <v>44351</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>17990</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="7">
         <v>44352</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>7332</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="7">
         <v>44353</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>16034</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>5</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="7">
         <v>44354</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>23015</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="7">
         <v>44355</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>21243</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>30</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="7">
         <v>44356</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>16937</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="7">
         <v>44357</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>17679</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>19</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="7">
         <v>44358</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>17477</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>18</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="7">
         <v>44359</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>10430</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="7">
         <v>44360</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>18547</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="7">
         <v>44361</v>
       </c>
-      <c r="B70" s="0" t="n">
-        <v>26331</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D70" s="0" t="n">
+      <c r="B70">
+        <v>26332</v>
+      </c>
+      <c r="C70">
+        <v>26</v>
+      </c>
+      <c r="D70">
         <v>12</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>13</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="7">
         <v>44362</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>22502</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>26</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>18</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="7">
         <v>44363</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>18399</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>7</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="7">
         <v>44364</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>16588</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>26</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>17</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="7">
         <v>44365</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>20294</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>35</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>31</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="7">
         <v>44366</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>12658</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>46</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>38</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="7">
         <v>44367</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>24652</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>49</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>41</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="7">
         <v>44368</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>32418</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>125</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>117</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="7">
         <v>44369</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>30912</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>110</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>97</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="7">
         <v>44370</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>29660</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>141</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>127</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="7">
         <v>44371</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>29887</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>230</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>219</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="7">
         <v>44372</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>39766</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>231</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>215</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="7">
         <v>44373</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>21859</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>115</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>98</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="7">
         <v>44374</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83">
         <v>30381</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>145</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>133</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="7">
         <v>44375</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>47671</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>285</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>282</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="7">
         <v>44376</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>46863</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>294</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>269</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="7">
         <v>44377</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86">
         <v>43642</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>312</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86">
         <v>287</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="7">
         <v>44378</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87">
         <v>44597</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>296</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>272</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="7">
         <v>44379</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88">
         <v>49699</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88">
         <v>326</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88">
         <v>301</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="7">
         <v>44380</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>27152</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89">
         <v>187</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>168</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="7">
         <v>44381</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90">
         <v>36503</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90">
         <v>350</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>333</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="7">
         <v>44382</v>
       </c>
-      <c r="B91" s="0" t="n">
-        <v>53792</v>
-      </c>
-      <c r="C91" s="0" t="n">
+      <c r="B91">
+        <v>53793</v>
+      </c>
+      <c r="C91">
         <v>507</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>478</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="7">
         <v>44383</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92">
         <v>60686</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92">
         <v>528</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>475</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="7">
         <v>44384</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93">
         <v>54845</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93">
         <v>525</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>482</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="7">
         <v>44385</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>52115</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>470</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>442</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="7">
         <v>44386</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>61506</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>539</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>490</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="7">
         <v>44387</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>34553</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>263</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96">
         <v>230</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="7">
         <v>44388</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>42471</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97">
         <v>441</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>388</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="7">
         <v>44389</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>62112</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>764</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>694</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="7">
         <v>44390</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>62201</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>754</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>674</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="7">
         <v>44391</v>
       </c>
-      <c r="B100" s="0" t="n">
-        <v>63087</v>
-      </c>
-      <c r="C100" s="0" t="n">
+      <c r="B100">
+        <v>63088</v>
+      </c>
+      <c r="C100">
         <v>779</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>705</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="7">
         <v>44392</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101">
         <v>65609</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>869</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>773</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="7">
         <v>44393</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102">
         <v>81834</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102">
         <v>1140</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>1024</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="7">
         <v>44394</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103">
         <v>33009</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103">
         <v>433</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103">
         <v>371</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="7">
         <v>44395</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>56630</v>
-      </c>
-      <c r="C104" s="0" t="n">
+      <c r="B104">
+        <v>56632</v>
+      </c>
+      <c r="C104">
         <v>841</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>732</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104">
         <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="7">
         <v>44396</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105">
         <v>84240</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105">
         <v>1385</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>1239</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="7">
         <v>44397</v>
       </c>
-      <c r="B106" s="0" t="n">
-        <v>90599</v>
-      </c>
-      <c r="C106" s="0" t="n">
+      <c r="B106">
+        <v>90619</v>
+      </c>
+      <c r="C106">
         <v>1419</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>1278</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106">
         <v>150</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="7">
         <v>44398</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107">
         <v>85830</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107">
         <v>1349</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>1241</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107">
         <v>116</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="n">
+      <c r="A108" s="7">
         <v>44399</v>
       </c>
-      <c r="B108" s="0" t="n">
-        <v>78711</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>1289</v>
-      </c>
-      <c r="D108" s="0" t="n">
+      <c r="B108">
+        <v>78732</v>
+      </c>
+      <c r="C108">
+        <v>1288</v>
+      </c>
+      <c r="D108">
         <v>1171</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108">
         <v>114</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="n">
+      <c r="A109" s="7">
         <v>44400</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109">
         <v>98197</v>
       </c>
-      <c r="C109" s="0" t="n">
-        <v>1445</v>
-      </c>
-      <c r="D109" s="0" t="n">
+      <c r="C109">
+        <v>1444</v>
+      </c>
+      <c r="D109">
         <v>1301</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109">
         <v>152</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="7">
         <v>44401</v>
       </c>
-      <c r="B110" s="0" t="n">
-        <v>60674</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>973</v>
-      </c>
-      <c r="D110" s="0" t="n">
+      <c r="B110">
+        <v>60738</v>
+      </c>
+      <c r="C110">
+        <v>972</v>
+      </c>
+      <c r="D110">
         <v>838</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110">
         <v>141</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="n">
+      <c r="A111" s="7">
         <v>44402</v>
       </c>
-      <c r="B111" s="0" t="n">
-        <v>77010</v>
-      </c>
-      <c r="C111" s="0" t="n">
+      <c r="B111">
+        <v>77011</v>
+      </c>
+      <c r="C111">
         <v>1414</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111">
         <v>1305</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111">
         <v>119</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="n">
+      <c r="A112" s="7">
         <v>44403</v>
       </c>
-      <c r="B112" s="0" t="n">
-        <v>102814</v>
-      </c>
-      <c r="C112" s="0" t="n">
-        <v>2140</v>
-      </c>
-      <c r="D112" s="0" t="n">
+      <c r="B112">
+        <v>102846</v>
+      </c>
+      <c r="C112">
+        <v>2141</v>
+      </c>
+      <c r="D112">
         <v>1944</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112">
         <v>209</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="n">
+      <c r="A113" s="7">
         <v>44404</v>
       </c>
-      <c r="B113" s="0" t="n">
-        <v>105918</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>2278</v>
-      </c>
-      <c r="D113" s="0" t="n">
+      <c r="B113">
+        <v>106070</v>
+      </c>
+      <c r="C113">
+        <v>2293</v>
+      </c>
+      <c r="D113">
         <v>2102</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113">
         <v>214</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="n">
+      <c r="A114" s="7">
         <v>44405</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="B114">
+        <v>102769</v>
+      </c>
+      <c r="C114">
+        <v>2195</v>
+      </c>
+      <c r="D114">
         <v>2061</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114">
         <v>149</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="n">
+      <c r="A115" s="7">
         <v>44406</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="B115">
+        <v>101738</v>
+      </c>
+      <c r="C115">
+        <v>2170</v>
+      </c>
+      <c r="D115">
         <v>1978</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115">
         <v>198</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,6 +84,8 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
     <border/>
     <border/>
     <border/>
@@ -114,7 +116,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -135,6 +137,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,7 +156,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
@@ -172,27 +176,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7">
+      <c r="A2" s="9">
         <v>44293</v>
       </c>
       <c r="B2">
@@ -209,7 +213,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>44294</v>
       </c>
       <c r="B3">
@@ -226,7 +230,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7">
+      <c r="A4" s="9">
         <v>44295</v>
       </c>
       <c r="B4">
@@ -243,7 +247,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <v>44296</v>
       </c>
       <c r="B5">
@@ -260,7 +264,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>44297</v>
       </c>
       <c r="B6">
@@ -277,7 +281,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
         <v>44298</v>
       </c>
       <c r="B7">
@@ -294,7 +298,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <v>44299</v>
       </c>
       <c r="B8">
@@ -311,7 +315,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7">
+      <c r="A9" s="9">
         <v>44300</v>
       </c>
       <c r="B9">
@@ -328,7 +332,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
         <v>44301</v>
       </c>
       <c r="B10">
@@ -345,7 +349,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <v>44302</v>
       </c>
       <c r="B11">
@@ -362,7 +366,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7">
+      <c r="A12" s="9">
         <v>44303</v>
       </c>
       <c r="B12">
@@ -379,7 +383,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7">
+      <c r="A13" s="9">
         <v>44304</v>
       </c>
       <c r="B13">
@@ -399,7 +403,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7">
+      <c r="A14" s="9">
         <v>44305</v>
       </c>
       <c r="B14">
@@ -419,7 +423,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7">
+      <c r="A15" s="9">
         <v>44306</v>
       </c>
       <c r="B15">
@@ -439,7 +443,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7">
+      <c r="A16" s="9">
         <v>44307</v>
       </c>
       <c r="B16">
@@ -459,7 +463,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7">
+      <c r="A17" s="9">
         <v>44308</v>
       </c>
       <c r="B17">
@@ -479,7 +483,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7">
+      <c r="A18" s="9">
         <v>44309</v>
       </c>
       <c r="B18">
@@ -496,7 +500,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7">
+      <c r="A19" s="9">
         <v>44310</v>
       </c>
       <c r="B19">
@@ -516,7 +520,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7">
+      <c r="A20" s="9">
         <v>44311</v>
       </c>
       <c r="B20">
@@ -536,7 +540,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7">
+      <c r="A21" s="9">
         <v>44312</v>
       </c>
       <c r="B21">
@@ -553,7 +557,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7">
+      <c r="A22" s="9">
         <v>44313</v>
       </c>
       <c r="B22">
@@ -573,7 +577,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7">
+      <c r="A23" s="9">
         <v>44314</v>
       </c>
       <c r="B23">
@@ -590,7 +594,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7">
+      <c r="A24" s="9">
         <v>44315</v>
       </c>
       <c r="B24">
@@ -607,7 +611,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7">
+      <c r="A25" s="9">
         <v>44316</v>
       </c>
       <c r="B25">
@@ -624,7 +628,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7">
+      <c r="A26" s="9">
         <v>44317</v>
       </c>
       <c r="B26">
@@ -644,7 +648,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7">
+      <c r="A27" s="9">
         <v>44318</v>
       </c>
       <c r="B27">
@@ -664,7 +668,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7">
+      <c r="A28" s="9">
         <v>44319</v>
       </c>
       <c r="B28">
@@ -684,7 +688,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7">
+      <c r="A29" s="9">
         <v>44320</v>
       </c>
       <c r="B29">
@@ -704,7 +708,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7">
+      <c r="A30" s="9">
         <v>44321</v>
       </c>
       <c r="B30">
@@ -724,7 +728,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7">
+      <c r="A31" s="9">
         <v>44322</v>
       </c>
       <c r="B31">
@@ -744,7 +748,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7">
+      <c r="A32" s="9">
         <v>44323</v>
       </c>
       <c r="B32">
@@ -761,7 +765,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7">
+      <c r="A33" s="9">
         <v>44324</v>
       </c>
       <c r="B33">
@@ -781,7 +785,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7">
+      <c r="A34" s="9">
         <v>44325</v>
       </c>
       <c r="B34">
@@ -801,7 +805,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7">
+      <c r="A35" s="9">
         <v>44326</v>
       </c>
       <c r="B35">
@@ -818,7 +822,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7">
+      <c r="A36" s="9">
         <v>44327</v>
       </c>
       <c r="B36">
@@ -838,7 +842,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7">
+      <c r="A37" s="9">
         <v>44328</v>
       </c>
       <c r="B37">
@@ -858,7 +862,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7">
+      <c r="A38" s="9">
         <v>44329</v>
       </c>
       <c r="B38">
@@ -878,7 +882,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7">
+      <c r="A39" s="9">
         <v>44330</v>
       </c>
       <c r="B39">
@@ -895,7 +899,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7">
+      <c r="A40" s="9">
         <v>44331</v>
       </c>
       <c r="B40">
@@ -915,7 +919,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7">
+      <c r="A41" s="9">
         <v>44332</v>
       </c>
       <c r="B41">
@@ -932,7 +936,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7">
+      <c r="A42" s="9">
         <v>44333</v>
       </c>
       <c r="B42">
@@ -949,7 +953,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7">
+      <c r="A43" s="9">
         <v>44334</v>
       </c>
       <c r="B43">
@@ -966,7 +970,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7">
+      <c r="A44" s="9">
         <v>44335</v>
       </c>
       <c r="B44">
@@ -986,7 +990,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7">
+      <c r="A45" s="9">
         <v>44336</v>
       </c>
       <c r="B45">
@@ -1006,7 +1010,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7">
+      <c r="A46" s="9">
         <v>44337</v>
       </c>
       <c r="B46">
@@ -1023,7 +1027,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7">
+      <c r="A47" s="9">
         <v>44338</v>
       </c>
       <c r="B47">
@@ -1043,7 +1047,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7">
+      <c r="A48" s="9">
         <v>44339</v>
       </c>
       <c r="B48">
@@ -1063,7 +1067,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7">
+      <c r="A49" s="9">
         <v>44340</v>
       </c>
       <c r="B49">
@@ -1080,7 +1084,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7">
+      <c r="A50" s="9">
         <v>44341</v>
       </c>
       <c r="B50">
@@ -1100,7 +1104,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7">
+      <c r="A51" s="9">
         <v>44342</v>
       </c>
       <c r="B51">
@@ -1117,7 +1121,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7">
+      <c r="A52" s="9">
         <v>44343</v>
       </c>
       <c r="B52">
@@ -1134,7 +1138,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7">
+      <c r="A53" s="9">
         <v>44344</v>
       </c>
       <c r="B53">
@@ -1151,7 +1155,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7">
+      <c r="A54" s="9">
         <v>44345</v>
       </c>
       <c r="B54">
@@ -1168,7 +1172,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7">
+      <c r="A55" s="9">
         <v>44346</v>
       </c>
       <c r="B55">
@@ -1185,7 +1189,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7">
+      <c r="A56" s="9">
         <v>44347</v>
       </c>
       <c r="B56">
@@ -1202,7 +1206,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7">
+      <c r="A57" s="9">
         <v>44348</v>
       </c>
       <c r="B57">
@@ -1219,7 +1223,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7">
+      <c r="A58" s="9">
         <v>44349</v>
       </c>
       <c r="B58">
@@ -1236,7 +1240,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7">
+      <c r="A59" s="9">
         <v>44350</v>
       </c>
       <c r="B59">
@@ -1253,7 +1257,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7">
+      <c r="A60" s="9">
         <v>44351</v>
       </c>
       <c r="B60">
@@ -1270,7 +1274,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7">
+      <c r="A61" s="9">
         <v>44352</v>
       </c>
       <c r="B61">
@@ -1287,7 +1291,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7">
+      <c r="A62" s="9">
         <v>44353</v>
       </c>
       <c r="B62">
@@ -1304,7 +1308,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7">
+      <c r="A63" s="9">
         <v>44354</v>
       </c>
       <c r="B63">
@@ -1321,7 +1325,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7">
+      <c r="A64" s="9">
         <v>44355</v>
       </c>
       <c r="B64">
@@ -1338,7 +1342,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7">
+      <c r="A65" s="9">
         <v>44356</v>
       </c>
       <c r="B65">
@@ -1355,7 +1359,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7">
+      <c r="A66" s="9">
         <v>44357</v>
       </c>
       <c r="B66">
@@ -1375,7 +1379,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7">
+      <c r="A67" s="9">
         <v>44358</v>
       </c>
       <c r="B67">
@@ -1392,7 +1396,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7">
+      <c r="A68" s="9">
         <v>44359</v>
       </c>
       <c r="B68">
@@ -1409,7 +1413,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7">
+      <c r="A69" s="9">
         <v>44360</v>
       </c>
       <c r="B69">
@@ -1426,7 +1430,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7">
+      <c r="A70" s="9">
         <v>44361</v>
       </c>
       <c r="B70">
@@ -1446,7 +1450,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7">
+      <c r="A71" s="9">
         <v>44362</v>
       </c>
       <c r="B71">
@@ -1463,7 +1467,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7">
+      <c r="A72" s="9">
         <v>44363</v>
       </c>
       <c r="B72">
@@ -1480,7 +1484,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7">
+      <c r="A73" s="9">
         <v>44364</v>
       </c>
       <c r="B73">
@@ -1497,7 +1501,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7">
+      <c r="A74" s="9">
         <v>44365</v>
       </c>
       <c r="B74">
@@ -1514,7 +1518,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7">
+      <c r="A75" s="9">
         <v>44366</v>
       </c>
       <c r="B75">
@@ -1531,7 +1535,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7">
+      <c r="A76" s="9">
         <v>44367</v>
       </c>
       <c r="B76">
@@ -1548,7 +1552,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7">
+      <c r="A77" s="9">
         <v>44368</v>
       </c>
       <c r="B77">
@@ -1565,7 +1569,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7">
+      <c r="A78" s="9">
         <v>44369</v>
       </c>
       <c r="B78">
@@ -1582,7 +1586,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7">
+      <c r="A79" s="9">
         <v>44370</v>
       </c>
       <c r="B79">
@@ -1599,7 +1603,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7">
+      <c r="A80" s="9">
         <v>44371</v>
       </c>
       <c r="B80">
@@ -1616,7 +1620,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7">
+      <c r="A81" s="9">
         <v>44372</v>
       </c>
       <c r="B81">
@@ -1633,7 +1637,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7">
+      <c r="A82" s="9">
         <v>44373</v>
       </c>
       <c r="B82">
@@ -1650,7 +1654,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7">
+      <c r="A83" s="9">
         <v>44374</v>
       </c>
       <c r="B83">
@@ -1667,7 +1671,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7">
+      <c r="A84" s="9">
         <v>44375</v>
       </c>
       <c r="B84">
@@ -1684,7 +1688,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7">
+      <c r="A85" s="9">
         <v>44376</v>
       </c>
       <c r="B85">
@@ -1701,7 +1705,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7">
+      <c r="A86" s="9">
         <v>44377</v>
       </c>
       <c r="B86">
@@ -1718,7 +1722,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7">
+      <c r="A87" s="9">
         <v>44378</v>
       </c>
       <c r="B87">
@@ -1735,7 +1739,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7">
+      <c r="A88" s="9">
         <v>44379</v>
       </c>
       <c r="B88">
@@ -1752,7 +1756,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7">
+      <c r="A89" s="9">
         <v>44380</v>
       </c>
       <c r="B89">
@@ -1769,7 +1773,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7">
+      <c r="A90" s="9">
         <v>44381</v>
       </c>
       <c r="B90">
@@ -1786,7 +1790,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7">
+      <c r="A91" s="9">
         <v>44382</v>
       </c>
       <c r="B91">
@@ -1803,7 +1807,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7">
+      <c r="A92" s="9">
         <v>44383</v>
       </c>
       <c r="B92">
@@ -1820,7 +1824,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7">
+      <c r="A93" s="9">
         <v>44384</v>
       </c>
       <c r="B93">
@@ -1837,7 +1841,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7">
+      <c r="A94" s="9">
         <v>44385</v>
       </c>
       <c r="B94">
@@ -1854,7 +1858,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7">
+      <c r="A95" s="9">
         <v>44386</v>
       </c>
       <c r="B95">
@@ -1871,7 +1875,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7">
+      <c r="A96" s="9">
         <v>44387</v>
       </c>
       <c r="B96">
@@ -1888,7 +1892,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7">
+      <c r="A97" s="9">
         <v>44388</v>
       </c>
       <c r="B97">
@@ -1905,7 +1909,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7">
+      <c r="A98" s="9">
         <v>44389</v>
       </c>
       <c r="B98">
@@ -1922,7 +1926,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7">
+      <c r="A99" s="9">
         <v>44390</v>
       </c>
       <c r="B99">
@@ -1939,7 +1943,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7">
+      <c r="A100" s="9">
         <v>44391</v>
       </c>
       <c r="B100">
@@ -1956,7 +1960,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7">
+      <c r="A101" s="9">
         <v>44392</v>
       </c>
       <c r="B101">
@@ -1973,7 +1977,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7">
+      <c r="A102" s="9">
         <v>44393</v>
       </c>
       <c r="B102">
@@ -1990,7 +1994,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7">
+      <c r="A103" s="9">
         <v>44394</v>
       </c>
       <c r="B103">
@@ -2007,7 +2011,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7">
+      <c r="A104" s="9">
         <v>44395</v>
       </c>
       <c r="B104">
@@ -2024,7 +2028,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7">
+      <c r="A105" s="9">
         <v>44396</v>
       </c>
       <c r="B105">
@@ -2041,7 +2045,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7">
+      <c r="A106" s="9">
         <v>44397</v>
       </c>
       <c r="B106">
@@ -2058,14 +2062,14 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7">
+      <c r="A107" s="9">
         <v>44398</v>
       </c>
       <c r="B107">
         <v>85830</v>
       </c>
       <c r="C107">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D107">
         <v>1241</v>
@@ -2075,14 +2079,14 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7">
+      <c r="A108" s="9">
         <v>44399</v>
       </c>
       <c r="B108">
         <v>78732</v>
       </c>
       <c r="C108">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D108">
         <v>1171</v>
@@ -2092,7 +2096,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7">
+      <c r="A109" s="9">
         <v>44400</v>
       </c>
       <c r="B109">
@@ -2109,7 +2113,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7">
+      <c r="A110" s="9">
         <v>44401</v>
       </c>
       <c r="B110">
@@ -2126,14 +2130,14 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7">
+      <c r="A111" s="9">
         <v>44402</v>
       </c>
       <c r="B111">
         <v>77011</v>
       </c>
       <c r="C111">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D111">
         <v>1305</v>
@@ -2143,14 +2147,14 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7">
+      <c r="A112" s="9">
         <v>44403</v>
       </c>
       <c r="B112">
         <v>102846</v>
       </c>
       <c r="C112">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="D112">
         <v>1944</v>
@@ -2160,14 +2164,14 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7">
+      <c r="A113" s="9">
         <v>44404</v>
       </c>
       <c r="B113">
         <v>106070</v>
       </c>
       <c r="C113">
-        <v>2293</v>
+        <v>2298</v>
       </c>
       <c r="D113">
         <v>2102</v>
@@ -2177,14 +2181,14 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7">
+      <c r="A114" s="9">
         <v>44405</v>
       </c>
       <c r="B114">
-        <v>102769</v>
+        <v>102771</v>
       </c>
       <c r="C114">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="D114">
         <v>2061</v>
@@ -2194,20 +2198,40 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7">
+      <c r="A115" s="9">
         <v>44406</v>
       </c>
       <c r="B115">
-        <v>101738</v>
+        <v>101791</v>
       </c>
       <c r="C115">
-        <v>2170</v>
+        <v>2176</v>
       </c>
       <c r="D115">
         <v>1978</v>
       </c>
       <c r="E115">
         <v>198</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9">
+        <v>44407</v>
+      </c>
+      <c r="B116">
+        <v>111052</v>
+      </c>
+      <c r="C116">
+        <v>2459</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,12 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -116,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -133,12 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,2093 +145,2101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
+      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="A116:A117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>47157</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>38113</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36047</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>33688</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>50871</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>62974</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>51475</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14218</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30592</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>33945</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>46073</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>46359</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>41281</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>31618</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35245</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>28338</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>36111</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>31255</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>34946</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>31718</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>35430</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9135</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>25566</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>33707</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>33889</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>34913</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>28526</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>32904</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>10397</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>23529</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>35517</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>31566</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>28694</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>20927</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>20244</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5525</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>14776</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>8745</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>23844</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>28411</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>22040</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>26955</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>6919</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>18390</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>32275</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>26674</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>25934</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>27738</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>31828</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>9340</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>19780</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>25471</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>21750</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>17243</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>15803</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>17990</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7332</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>16034</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>23015</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>21243</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>16937</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>17679</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9">
+      <c r="A67" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>17477</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9">
+      <c r="A68" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>10430</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9">
+      <c r="A69" s="3" t="n">
         <v>44360</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>18547</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9">
+      <c r="A70" s="3" t="n">
         <v>44361</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>26332</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9">
+      <c r="A71" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>22502</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9">
+      <c r="A72" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>18399</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9">
+      <c r="A73" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>16588</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9">
+      <c r="A74" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>20294</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9">
+      <c r="A75" s="3" t="n">
         <v>44366</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>12658</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9">
+      <c r="A76" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>24652</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9">
+      <c r="A77" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>32418</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9">
+      <c r="A78" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>30912</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9">
+      <c r="A79" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>29660</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9">
+      <c r="A80" s="3" t="n">
         <v>44371</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>29887</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9">
+      <c r="A81" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>39766</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9">
+      <c r="A82" s="3" t="n">
         <v>44373</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>21859</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9">
+      <c r="A83" s="3" t="n">
         <v>44374</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>30381</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9">
+      <c r="A84" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>47671</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9">
+      <c r="A85" s="3" t="n">
         <v>44376</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>46863</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9">
+      <c r="A86" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>43642</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>312</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9">
+      <c r="A87" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>44597</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9">
+      <c r="A88" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>49699</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9">
+      <c r="A89" s="3" t="n">
         <v>44380</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>27152</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9">
+      <c r="A90" s="3" t="n">
         <v>44381</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>36503</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9">
+      <c r="A91" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>53793</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0" t="n">
         <v>507</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0" t="n">
         <v>478</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9">
+      <c r="A92" s="3" t="n">
         <v>44383</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>60686</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0" t="n">
         <v>528</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0" t="n">
         <v>475</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9">
+      <c r="A93" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>54845</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0" t="n">
         <v>525</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0" t="n">
         <v>482</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9">
+      <c r="A94" s="3" t="n">
         <v>44385</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>52115</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0" t="n">
         <v>470</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0" t="n">
         <v>442</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9">
+      <c r="A95" s="3" t="n">
         <v>44386</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>61506</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0" t="n">
         <v>539</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0" t="n">
         <v>490</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9">
+      <c r="A96" s="3" t="n">
         <v>44387</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>34553</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9">
+      <c r="A97" s="3" t="n">
         <v>44388</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>42471</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9">
+      <c r="A98" s="3" t="n">
         <v>44389</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>62112</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0" t="n">
         <v>764</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0" t="n">
         <v>694</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9">
+      <c r="A99" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>62201</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0" t="n">
         <v>754</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0" t="n">
         <v>674</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9">
+      <c r="A100" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>63088</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0" t="n">
         <v>779</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0" t="n">
         <v>705</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9">
+      <c r="A101" s="3" t="n">
         <v>44392</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>65609</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0" t="n">
         <v>869</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0" t="n">
         <v>773</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9">
+      <c r="A102" s="3" t="n">
         <v>44393</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>81834</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0" t="n">
         <v>1140</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="0" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9">
+      <c r="A103" s="3" t="n">
         <v>44394</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>33009</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0" t="n">
         <v>433</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0" t="n">
         <v>371</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9">
+      <c r="A104" s="3" t="n">
         <v>44395</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>56632</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0" t="n">
         <v>841</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0" t="n">
         <v>732</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9">
+      <c r="A105" s="3" t="n">
         <v>44396</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>84240</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0" t="n">
         <v>1385</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="0" t="n">
         <v>1239</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="0" t="n">
         <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9">
+      <c r="A106" s="3" t="n">
         <v>44397</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>90619</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0" t="n">
         <v>1419</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="0" t="n">
         <v>1278</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="0" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9">
+      <c r="A107" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>85830</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="0" t="n">
         <v>1241</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9">
+      <c r="A108" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>78732</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0" t="n">
         <v>1289</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="0" t="n">
         <v>1171</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="0" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9">
+      <c r="A109" s="3" t="n">
         <v>44400</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>98197</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0" t="n">
         <v>1444</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="0" t="n">
         <v>1301</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="0" t="n">
         <v>152</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9">
+      <c r="A110" s="3" t="n">
         <v>44401</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>60738</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0" t="n">
         <v>972</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="0" t="n">
         <v>838</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="0" t="n">
         <v>141</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9">
+      <c r="A111" s="3" t="n">
         <v>44402</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>77011</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0" t="n">
         <v>1415</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="0" t="n">
         <v>1305</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="0" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9">
+      <c r="A112" s="3" t="n">
         <v>44403</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>102846</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0" t="n">
         <v>2143</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="0" t="n">
         <v>1944</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="0" t="n">
         <v>209</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9">
+      <c r="A113" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>106070</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0" t="n">
         <v>2298</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="0" t="n">
         <v>2102</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="0" t="n">
         <v>214</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9">
+      <c r="A114" s="3" t="n">
         <v>44405</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>102771</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0" t="n">
         <v>2197</v>
       </c>
-      <c r="D114">
-        <v>2061</v>
-      </c>
-      <c r="E114">
+      <c r="D114" s="0" t="n">
+        <v>2066</v>
+      </c>
+      <c r="E114" s="0" t="n">
         <v>149</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9">
+      <c r="A115" s="3" t="n">
         <v>44406</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>101791</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0" t="n">
         <v>2176</v>
       </c>
-      <c r="D115">
-        <v>1978</v>
-      </c>
-      <c r="E115">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="9">
+      <c r="D115" s="0" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="n">
         <v>44407</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>111052</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0" t="n">
         <v>2459</v>
       </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
+      <c r="D116" s="0" t="n">
+        <v>2237</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="n">
+        <v>44408</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>1914</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,8 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +129,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -159,2087 +158,2093 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>47157</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>275</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>38113</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>210</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36047</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>221</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>88</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>33688</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>50871</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>218</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>62974</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>200</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>51475</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>202</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14218</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>96</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30592</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>105</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>88</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>33945</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>140</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>46073</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>137</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>46359</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>157</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>41281</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>118</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>31618</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>128</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35245</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>109</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>41</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>28338</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>36111</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>94</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>31255</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>88</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>34946</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>95</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>31718</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>97</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>35430</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>80</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9135</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>14</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>25566</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>51</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>33707</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>33889</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>63</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>34913</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>67</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>28526</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>32904</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>10397</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>18</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>23529</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>35517</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>53</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>31566</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>28694</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>20927</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>20244</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>28</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5525</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>14776</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="5">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>8745</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="5">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>23844</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="5">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>28411</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>57</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="5">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>22040</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="5">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>26955</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="5">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>6919</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>14</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="5">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>18390</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="5">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>32275</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>27</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="5">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>26674</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>23</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="5">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>25934</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>15</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="5">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>27738</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>12</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="5">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>31828</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="5">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>9340</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="5">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>19780</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="5">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>25471</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="5">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>21750</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>48</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="5">
         <v>44349</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>17243</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>14</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="5">
         <v>44350</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>15803</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>11</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="5">
         <v>44351</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>17990</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="5">
         <v>44352</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>7332</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="5">
         <v>44353</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>16034</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>5</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="5">
         <v>44354</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>23015</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="5">
         <v>44355</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>21243</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>30</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="5">
         <v>44356</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>16937</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="5">
         <v>44357</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>17679</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>19</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="5">
         <v>44358</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>17477</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>18</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="5">
         <v>44359</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>10430</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="5">
         <v>44360</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>18547</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="5">
         <v>44361</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>26332</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>26</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>12</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>13</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="5">
         <v>44362</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>22502</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>26</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>18</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="5">
         <v>44363</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>18399</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>7</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="5">
         <v>44364</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>16588</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>26</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>17</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="5">
         <v>44365</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>20294</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>35</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>31</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="5">
         <v>44366</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>12658</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>46</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>38</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="5">
         <v>44367</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>24652</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>49</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>41</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="5">
         <v>44368</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>32418</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>125</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>117</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="5">
         <v>44369</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>30912</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>110</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>97</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="5">
         <v>44370</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>29660</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>141</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>127</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="5">
         <v>44371</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>29887</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>230</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>219</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="5">
         <v>44372</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>39766</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>231</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>215</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="5">
         <v>44373</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>21859</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>115</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>98</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="5">
         <v>44374</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83">
         <v>30381</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>145</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>133</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="5">
         <v>44375</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>47671</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>285</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>282</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="5">
         <v>44376</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>46863</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>294</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>269</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="5">
         <v>44377</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86">
         <v>43642</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>312</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86">
         <v>287</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="5">
         <v>44378</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87">
         <v>44597</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>296</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>272</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="5">
         <v>44379</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88">
         <v>49699</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88">
         <v>326</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88">
         <v>301</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="5">
         <v>44380</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>27152</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89">
         <v>187</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>168</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="5">
         <v>44381</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90">
         <v>36503</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90">
         <v>350</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>333</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="5">
         <v>44382</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91">
         <v>53793</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91">
         <v>507</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>478</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="5">
         <v>44383</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92">
         <v>60686</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92">
         <v>528</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>475</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="5">
         <v>44384</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93">
         <v>54845</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93">
         <v>525</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>482</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="5">
         <v>44385</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>52115</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>470</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>442</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="5">
         <v>44386</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>61506</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>539</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>490</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="5">
         <v>44387</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>34553</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>263</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96">
         <v>230</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="5">
         <v>44388</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>42471</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97">
         <v>441</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>388</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="5">
         <v>44389</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>62112</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>764</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>694</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="5">
         <v>44390</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>62201</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>754</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>674</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="5">
         <v>44391</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100">
         <v>63088</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100">
         <v>779</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>705</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="5">
         <v>44392</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101">
         <v>65609</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>869</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>773</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="5">
         <v>44393</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102">
         <v>81834</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102">
         <v>1140</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>1024</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="5">
         <v>44394</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103">
         <v>33009</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103">
         <v>433</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103">
         <v>371</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="5">
         <v>44395</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104">
         <v>56632</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104">
         <v>841</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>732</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104">
         <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="5">
         <v>44396</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105">
         <v>84240</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105">
         <v>1385</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>1239</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="5">
         <v>44397</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106">
         <v>90619</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106">
         <v>1419</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>1278</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106">
         <v>150</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="5">
         <v>44398</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107">
         <v>85830</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107">
         <v>1350</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>1241</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107">
         <v>116</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="n">
+      <c r="A108" s="5">
         <v>44399</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108">
         <v>78732</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108">
         <v>1289</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108">
         <v>1171</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108">
         <v>114</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="n">
+      <c r="A109" s="5">
         <v>44400</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109">
         <v>98197</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109">
         <v>1444</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109">
         <v>1301</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109">
         <v>152</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="5">
         <v>44401</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110">
         <v>60738</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110">
         <v>972</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110">
         <v>838</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110">
         <v>141</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="n">
+      <c r="A111" s="5">
         <v>44402</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111">
         <v>77011</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111">
         <v>1415</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111">
         <v>1305</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111">
         <v>119</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="n">
+      <c r="A112" s="5">
         <v>44403</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112">
         <v>102846</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112">
         <v>2143</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112">
         <v>1944</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112">
         <v>209</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="n">
+      <c r="A113" s="5">
         <v>44404</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113">
         <v>106070</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113">
         <v>2298</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113">
         <v>2102</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113">
         <v>214</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="n">
+      <c r="A114" s="5">
         <v>44405</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114">
         <v>102771</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114">
         <v>2197</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114">
         <v>2066</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114">
         <v>149</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="n">
+      <c r="A115" s="5">
         <v>44406</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115">
         <v>101791</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115">
         <v>2176</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115">
         <v>1998</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115">
         <v>200</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="n">
+      <c r="A116" s="5">
         <v>44407</v>
       </c>
-      <c r="B116" s="0" t="n">
-        <v>111052</v>
-      </c>
-      <c r="C116" s="0" t="n">
+      <c r="B116">
+        <v>111064</v>
+      </c>
+      <c r="C116">
         <v>2459</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116">
         <v>2237</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116">
         <v>221</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="n">
+      <c r="A117" s="5">
         <v>44408</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="B117">
+        <v>73710</v>
+      </c>
+      <c r="C117">
+        <v>2108</v>
+      </c>
+      <c r="D117">
         <v>1914</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117">
         <v>194</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="A116:A117"/>
+      <selection pane="bottomLeft" activeCell="E116" activeCellId="0" sqref="E116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -311,7 +311,7 @@
         <v>44300</v>
       </c>
       <c r="B9">
-        <v>51475</v>
+        <v>51476</v>
       </c>
       <c r="C9">
         <v>202</v>
@@ -624,10 +624,10 @@
         <v>44317</v>
       </c>
       <c r="B26">
-        <v>9135</v>
+        <v>9169</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -1684,7 +1684,7 @@
         <v>44376</v>
       </c>
       <c r="B85">
-        <v>46863</v>
+        <v>46864</v>
       </c>
       <c r="C85">
         <v>294</v>
@@ -2058,7 +2058,7 @@
         <v>44398</v>
       </c>
       <c r="B107">
-        <v>85830</v>
+        <v>85831</v>
       </c>
       <c r="C107">
         <v>1350</v>
@@ -2095,7 +2095,7 @@
         <v>98197</v>
       </c>
       <c r="C109">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D109">
         <v>1301</v>
@@ -2146,7 +2146,7 @@
         <v>102846</v>
       </c>
       <c r="C112">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="D112">
         <v>1944</v>
@@ -2160,10 +2160,10 @@
         <v>44404</v>
       </c>
       <c r="B113">
-        <v>106070</v>
+        <v>106072</v>
       </c>
       <c r="C113">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="D113">
         <v>2102</v>
@@ -2177,10 +2177,10 @@
         <v>44405</v>
       </c>
       <c r="B114">
-        <v>102771</v>
+        <v>102790</v>
       </c>
       <c r="C114">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="D114">
         <v>2066</v>
@@ -2194,16 +2194,16 @@
         <v>44406</v>
       </c>
       <c r="B115">
-        <v>101791</v>
+        <v>101793</v>
       </c>
       <c r="C115">
-        <v>2176</v>
+        <v>2183</v>
       </c>
       <c r="D115">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E115">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,13 +2211,13 @@
         <v>44407</v>
       </c>
       <c r="B116">
-        <v>111064</v>
+        <v>111114</v>
       </c>
       <c r="C116">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="D116">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="E116">
         <v>221</v>
@@ -2228,16 +2228,33 @@
         <v>44408</v>
       </c>
       <c r="B117">
-        <v>73710</v>
+        <v>73892</v>
       </c>
       <c r="C117">
-        <v>2108</v>
+        <v>2117</v>
       </c>
       <c r="D117">
-        <v>1914</v>
+        <v>1929</v>
       </c>
       <c r="E117">
         <v>194</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5">
+        <v>44409</v>
+      </c>
+      <c r="B118">
+        <v>80647</v>
+      </c>
+      <c r="C118">
+        <v>2132</v>
+      </c>
+      <c r="D118">
+        <v>1932</v>
+      </c>
+      <c r="E118">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -112,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,8 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,2124 +145,2135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E116" activeCellId="0" sqref="E116"/>
+      <selection pane="bottomLeft" activeCell="D119" activeCellId="0" sqref="D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>47157</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>38113</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36047</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>33688</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>50871</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>62974</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>51476</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14218</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30592</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>33945</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>46073</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>46359</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>41281</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>31618</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35245</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>28338</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>36111</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>31255</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>34946</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>31718</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>35430</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9169</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>25566</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>33707</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>33889</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>34913</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>28526</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>32904</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>10397</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>23529</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>35517</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>31566</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>28694</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>20927</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>20244</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5525</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>14776</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>8745</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>23844</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5">
+      <c r="A44" s="3" t="n">
         <v>44335</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>28411</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5">
+      <c r="A45" s="3" t="n">
         <v>44336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>22040</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5">
+      <c r="A46" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>26955</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5">
+      <c r="A47" s="3" t="n">
         <v>44338</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>6919</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5">
+      <c r="A48" s="3" t="n">
         <v>44339</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>18390</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5">
+      <c r="A49" s="3" t="n">
         <v>44340</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>32275</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5">
+      <c r="A50" s="3" t="n">
         <v>44341</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>26674</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5">
+      <c r="A51" s="3" t="n">
         <v>44342</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>25934</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5">
+      <c r="A52" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>27738</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5">
+      <c r="A53" s="3" t="n">
         <v>44344</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>31828</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5">
+      <c r="A54" s="3" t="n">
         <v>44345</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>9340</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5">
+      <c r="A55" s="3" t="n">
         <v>44346</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>19780</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5">
+      <c r="A56" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>25471</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5">
+      <c r="A57" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>21750</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5">
+      <c r="A58" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>17243</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5">
+      <c r="A59" s="3" t="n">
         <v>44350</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>15803</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5">
+      <c r="A60" s="3" t="n">
         <v>44351</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>17990</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5">
+      <c r="A61" s="3" t="n">
         <v>44352</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>7332</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5">
+      <c r="A62" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>16034</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5">
+      <c r="A63" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>23015</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5">
+      <c r="A64" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>21243</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5">
+      <c r="A65" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>16937</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5">
+      <c r="A66" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>17679</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5">
+      <c r="A67" s="3" t="n">
         <v>44358</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>17477</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5">
+      <c r="A68" s="3" t="n">
         <v>44359</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>10430</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5">
+      <c r="A69" s="3" t="n">
         <v>44360</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>18547</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5">
+      <c r="A70" s="3" t="n">
         <v>44361</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>26332</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5">
+      <c r="A71" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>22502</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5">
+      <c r="A72" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>18399</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5">
+      <c r="A73" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>16588</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5">
+      <c r="A74" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>20294</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5">
+      <c r="A75" s="3" t="n">
         <v>44366</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>12658</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5">
+      <c r="A76" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>24652</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5">
+      <c r="A77" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>32418</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5">
+      <c r="A78" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>30912</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5">
+      <c r="A79" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>29660</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5">
+      <c r="A80" s="3" t="n">
         <v>44371</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>29887</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5">
+      <c r="A81" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>39766</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5">
+      <c r="A82" s="3" t="n">
         <v>44373</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>21859</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5">
+      <c r="A83" s="3" t="n">
         <v>44374</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>30381</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5">
+      <c r="A84" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>47671</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5">
+      <c r="A85" s="3" t="n">
         <v>44376</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>46864</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5">
+      <c r="A86" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>43642</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>312</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5">
+      <c r="A87" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>44597</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5">
+      <c r="A88" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>49699</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5">
+      <c r="A89" s="3" t="n">
         <v>44380</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>27152</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5">
+      <c r="A90" s="3" t="n">
         <v>44381</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>36503</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5">
+      <c r="A91" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>53793</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0" t="n">
         <v>507</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0" t="n">
         <v>478</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5">
+      <c r="A92" s="3" t="n">
         <v>44383</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>60686</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0" t="n">
         <v>528</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0" t="n">
         <v>475</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5">
+      <c r="A93" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>54845</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0" t="n">
         <v>525</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0" t="n">
         <v>482</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5">
+      <c r="A94" s="3" t="n">
         <v>44385</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>52115</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0" t="n">
         <v>470</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0" t="n">
         <v>442</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5">
+      <c r="A95" s="3" t="n">
         <v>44386</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>61506</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0" t="n">
         <v>539</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0" t="n">
         <v>490</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5">
+      <c r="A96" s="3" t="n">
         <v>44387</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>34553</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5">
+      <c r="A97" s="3" t="n">
         <v>44388</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>42471</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5">
+      <c r="A98" s="3" t="n">
         <v>44389</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>62112</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0" t="n">
         <v>764</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0" t="n">
         <v>694</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5">
+      <c r="A99" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>62201</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0" t="n">
         <v>754</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0" t="n">
         <v>674</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5">
+      <c r="A100" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>63088</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0" t="n">
         <v>779</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0" t="n">
         <v>705</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5">
+      <c r="A101" s="3" t="n">
         <v>44392</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>65609</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0" t="n">
         <v>869</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0" t="n">
         <v>773</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5">
+      <c r="A102" s="3" t="n">
         <v>44393</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>81834</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0" t="n">
         <v>1140</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="0" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5">
+      <c r="A103" s="3" t="n">
         <v>44394</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>33009</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0" t="n">
         <v>433</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0" t="n">
         <v>371</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5">
+      <c r="A104" s="3" t="n">
         <v>44395</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>56632</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0" t="n">
         <v>841</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0" t="n">
         <v>732</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5">
+      <c r="A105" s="3" t="n">
         <v>44396</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>84240</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0" t="n">
         <v>1385</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="0" t="n">
         <v>1239</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="0" t="n">
         <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5">
+      <c r="A106" s="3" t="n">
         <v>44397</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>90619</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0" t="n">
         <v>1419</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="0" t="n">
         <v>1278</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="0" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5">
+      <c r="A107" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>85831</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="0" t="n">
         <v>1241</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5">
+      <c r="A108" s="3" t="n">
         <v>44399</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>78732</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0" t="n">
         <v>1289</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="0" t="n">
         <v>1171</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="0" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5">
+      <c r="A109" s="3" t="n">
         <v>44400</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>98197</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0" t="n">
         <v>1445</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="0" t="n">
         <v>1301</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="0" t="n">
         <v>152</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5">
+      <c r="A110" s="3" t="n">
         <v>44401</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>60738</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0" t="n">
         <v>972</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="0" t="n">
         <v>838</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="0" t="n">
         <v>141</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5">
+      <c r="A111" s="3" t="n">
         <v>44402</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>77011</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0" t="n">
         <v>1415</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="0" t="n">
         <v>1305</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="0" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5">
+      <c r="A112" s="3" t="n">
         <v>44403</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>102846</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0" t="n">
         <v>2144</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="0" t="n">
         <v>1944</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="0" t="n">
         <v>209</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="5">
+      <c r="A113" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>106072</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0" t="n">
         <v>2300</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="0" t="n">
         <v>2102</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="0" t="n">
         <v>214</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5">
+      <c r="A114" s="3" t="n">
         <v>44405</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>102790</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0" t="n">
         <v>2200</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="0" t="n">
         <v>2066</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="0" t="n">
         <v>149</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="5">
+      <c r="A115" s="3" t="n">
         <v>44406</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>101793</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0" t="n">
         <v>2183</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="0" t="n">
         <v>201</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5">
+      <c r="A116" s="3" t="n">
         <v>44407</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>111114</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0" t="n">
         <v>2460</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="0" t="n">
         <v>2238</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="0" t="n">
         <v>221</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="5">
+      <c r="A117" s="3" t="n">
         <v>44408</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0" t="n">
         <v>73892</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0" t="n">
         <v>2117</v>
       </c>
-      <c r="D117">
-        <v>1929</v>
-      </c>
-      <c r="E117">
+      <c r="D117" s="0" t="n">
+        <v>1932</v>
+      </c>
+      <c r="E117" s="0" t="n">
         <v>194</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="5">
+      <c r="A118" s="3" t="n">
         <v>44409</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0" t="n">
         <v>80647</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0" t="n">
         <v>2132</v>
       </c>
-      <c r="D118">
-        <v>1932</v>
-      </c>
-      <c r="E118">
-        <v>201</v>
+      <c r="D118" s="0" t="n">
+        <v>1942</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="n">
+        <v>44410</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>3654</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -149,15 +149,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D119" activeCellId="0" sqref="D119"/>
+      <selection pane="bottomLeft" activeCell="D118" activeCellId="0" sqref="D118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
@@ -2079,7 +2079,7 @@
         <v>78732</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>1171</v>
@@ -2113,7 +2113,7 @@
         <v>60738</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>838</v>
@@ -2147,7 +2147,7 @@
         <v>102846</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>1944</v>
@@ -2181,7 +2181,7 @@
         <v>102790</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>2066</v>
@@ -2195,10 +2195,10 @@
         <v>44406</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>101793</v>
+        <v>101795</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>2005</v>
@@ -2212,10 +2212,10 @@
         <v>44407</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>111114</v>
+        <v>111135</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>2238</v>
@@ -2232,7 +2232,7 @@
         <v>73892</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>1932</v>
@@ -2246,13 +2246,13 @@
         <v>44409</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>80647</v>
+        <v>80705</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>2132</v>
+        <v>2139</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>1942</v>
+        <v>1947</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>200</v>
@@ -2262,11 +2262,28 @@
       <c r="A119" s="3" t="n">
         <v>44410</v>
       </c>
+      <c r="B119" s="0" t="n">
+        <v>113760</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>3863</v>
+      </c>
       <c r="D119" s="0" t="n">
-        <v>3654</v>
+        <v>3674</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>219</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="n">
+        <v>44411</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>3113</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -149,15 +149,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D118" activeCellId="0" sqref="D118"/>
+      <selection pane="bottomLeft" activeCell="D121" activeCellId="0" sqref="D121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
@@ -2212,7 +2212,7 @@
         <v>44407</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>111135</v>
+        <v>111138</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>2462</v>
@@ -2232,7 +2232,7 @@
         <v>73892</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>1932</v>
@@ -2249,7 +2249,7 @@
         <v>80705</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>1947</v>
@@ -2263,13 +2263,13 @@
         <v>44410</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>113760</v>
+        <v>113851</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>3863</v>
+        <v>3868</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>3674</v>
+        <v>3682</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>224</v>
@@ -2279,11 +2279,28 @@
       <c r="A120" s="3" t="n">
         <v>44411</v>
       </c>
+      <c r="B120" s="0" t="n">
+        <v>110522</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>3303</v>
+      </c>
       <c r="D120" s="0" t="n">
-        <v>3113</v>
+        <v>3136</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>200</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="n">
+        <v>44412</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>3274</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,17 +10,12 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -89,6 +84,10 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -115,7 +114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +131,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,7 +148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -159,2155 +162,2161 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="7">
         <v>44293</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>47157</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>275</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>263</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="7">
         <v>44294</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>38113</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>210</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="7">
         <v>44295</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>36047</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>221</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>203</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="7">
         <v>44296</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>88</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="7">
         <v>44297</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>33688</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="7">
         <v>44298</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>50871</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>218</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>217</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="7">
         <v>44299</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>62974</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>200</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>156</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="7">
         <v>44300</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>51476</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>202</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="7">
         <v>44301</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14218</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>96</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="7">
         <v>44302</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>30592</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>105</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="7">
         <v>44303</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11152</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>88</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="7">
         <v>44304</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>33945</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>140</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="7">
         <v>44305</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>46073</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>137</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>118</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="7">
         <v>44306</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>46359</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>157</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>134</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="7">
         <v>44307</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>41281</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>118</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="7">
         <v>44308</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>31618</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>128</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>119</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="7">
         <v>44309</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>35245</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>109</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="7">
         <v>44310</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>8762</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>41</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="7">
         <v>44311</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>28338</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="7">
         <v>44312</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>36111</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>94</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="7">
         <v>44313</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>31255</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>88</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="7">
         <v>44314</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>34946</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>95</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>92</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="7">
         <v>44315</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>31718</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>97</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>86</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="7">
         <v>44316</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>35430</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>80</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="7">
         <v>44317</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>9169</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>15</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="7">
         <v>44318</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>25566</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>51</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="7">
         <v>44319</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>33707</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>53</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="7">
         <v>44320</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>33889</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>63</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="7">
         <v>44321</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>34913</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>67</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="7">
         <v>44322</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>28526</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="7">
         <v>44323</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>32904</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>33</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="7">
         <v>44324</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>10397</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>18</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="7">
         <v>44325</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>23529</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="7">
         <v>44326</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>35517</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>53</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="7">
         <v>44327</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>31566</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="7">
         <v>44328</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>28694</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="7">
         <v>44329</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>20927</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="7">
         <v>44330</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>20244</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>28</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="7">
         <v>44331</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>5525</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="7">
         <v>44332</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>14776</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>29</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>25</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="7">
         <v>44333</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>8745</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="7">
         <v>44334</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>23844</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="7">
         <v>44335</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>28411</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>57</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>5583</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="7">
         <v>44336</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>22040</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>8003</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="7">
         <v>44337</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>26955</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="7">
         <v>44338</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>6919</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>14</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="7">
         <v>44339</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>18390</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>26</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="7">
         <v>44340</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>32275</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>27</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="7">
         <v>44341</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>26674</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>23</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>5708</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="7">
         <v>44342</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>25934</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>15</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="7">
         <v>44343</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>27738</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>12</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="7">
         <v>44344</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>31828</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="7">
         <v>44345</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>9340</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="7">
         <v>44346</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>19780</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="7">
         <v>44347</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>25471</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="7">
         <v>44348</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>21750</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>48</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="7">
         <v>44349</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>17243</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>14</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="7">
         <v>44350</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>15803</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>11</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="7">
         <v>44351</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>17990</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="7">
         <v>44352</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>7332</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="7">
         <v>44353</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>16034</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>5</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="7">
         <v>44354</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>23015</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="7">
         <v>44355</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>21243</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>30</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="7">
         <v>44356</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>16937</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="7">
         <v>44357</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>17679</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>19</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="7">
         <v>44358</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>17477</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>18</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="7">
         <v>44359</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>10430</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="7">
         <v>44360</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>18547</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="7">
         <v>44361</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>26332</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>26</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>12</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>13</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="7">
         <v>44362</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>22502</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>26</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>18</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="7">
         <v>44363</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>18399</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>7</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="7">
         <v>44364</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>16588</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>26</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>17</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="7">
         <v>44365</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>20294</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>35</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>31</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="7">
         <v>44366</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>12658</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>46</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>38</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="7">
         <v>44367</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>24652</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>49</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>41</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="7">
         <v>44368</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>32418</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>125</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>117</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="7">
         <v>44369</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>30912</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>110</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>97</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="7">
         <v>44370</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>29660</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>141</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>127</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="7">
         <v>44371</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>29887</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>230</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>219</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="7">
         <v>44372</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>39766</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>231</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>215</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="7">
         <v>44373</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>21859</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>115</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>98</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="7">
         <v>44374</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83">
         <v>30381</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>145</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>133</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="7">
         <v>44375</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>47671</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>285</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>282</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="7">
         <v>44376</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>46864</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>294</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>269</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="7">
         <v>44377</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86">
         <v>43642</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>312</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86">
         <v>287</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="7">
         <v>44378</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87">
         <v>44597</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>296</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>272</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="7">
         <v>44379</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88">
         <v>49699</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88">
         <v>326</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88">
         <v>301</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="7">
         <v>44380</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>27152</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89">
         <v>187</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>168</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89">
         <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="7">
         <v>44381</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90">
         <v>36503</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90">
         <v>350</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>333</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="7">
         <v>44382</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91">
         <v>53793</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91">
         <v>507</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>478</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91">
         <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="7">
         <v>44383</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92">
         <v>60686</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92">
         <v>528</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>475</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92">
         <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="7">
         <v>44384</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93">
         <v>54845</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93">
         <v>525</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>482</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93">
         <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="7">
         <v>44385</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>52115</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>470</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>442</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94">
         <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="7">
         <v>44386</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>61506</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>539</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>490</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95">
         <v>46</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="7">
         <v>44387</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>34553</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>263</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96">
         <v>230</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96">
         <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="7">
         <v>44388</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>42471</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97">
         <v>441</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>388</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97">
         <v>57</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="7">
         <v>44389</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>62112</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>764</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>694</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98">
         <v>72</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="7">
         <v>44390</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>62201</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>754</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>674</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>93</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="7">
         <v>44391</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100">
         <v>63088</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100">
         <v>779</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>705</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100">
         <v>74</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="7">
         <v>44392</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101">
         <v>65609</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>869</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>773</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101">
         <v>93</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="7">
         <v>44393</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102">
         <v>81834</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102">
         <v>1140</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>1024</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102">
         <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="7">
         <v>44394</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103">
         <v>33009</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103">
         <v>433</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103">
         <v>371</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103">
         <v>70</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="7">
         <v>44395</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104">
         <v>56632</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104">
         <v>841</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>732</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104">
         <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="7">
         <v>44396</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105">
         <v>84240</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105">
         <v>1385</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>1239</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>154</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="7">
         <v>44397</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106">
         <v>90619</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106">
         <v>1419</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>1278</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106">
         <v>150</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="7">
         <v>44398</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107">
         <v>85831</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107">
         <v>1350</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>1241</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107">
         <v>116</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="n">
+      <c r="A108" s="7">
         <v>44399</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108">
         <v>78732</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108">
         <v>1290</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108">
         <v>1171</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108">
         <v>114</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="n">
+      <c r="A109" s="7">
         <v>44400</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109">
         <v>98197</v>
       </c>
-      <c r="C109" s="0" t="n">
-        <v>1445</v>
-      </c>
-      <c r="D109" s="0" t="n">
+      <c r="C109">
+        <v>1443</v>
+      </c>
+      <c r="D109">
         <v>1301</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109">
         <v>152</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="7">
         <v>44401</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110">
         <v>60738</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110">
         <v>973</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110">
         <v>838</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110">
         <v>141</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="n">
+      <c r="A111" s="7">
         <v>44402</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111">
         <v>77011</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111">
         <v>1415</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111">
         <v>1305</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111">
         <v>119</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="n">
+      <c r="A112" s="7">
         <v>44403</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112">
         <v>102846</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112">
         <v>2145</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112">
         <v>1944</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112">
         <v>209</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="n">
+      <c r="A113" s="7">
         <v>44404</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113">
         <v>106072</v>
       </c>
-      <c r="C113" s="0" t="n">
-        <v>2300</v>
-      </c>
-      <c r="D113" s="0" t="n">
+      <c r="C113">
+        <v>2299</v>
+      </c>
+      <c r="D113">
         <v>2102</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113">
         <v>214</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="n">
+      <c r="A114" s="7">
         <v>44405</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114">
         <v>102790</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114">
         <v>2202</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114">
         <v>2066</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114">
         <v>149</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="n">
+      <c r="A115" s="7">
         <v>44406</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115">
         <v>101795</v>
       </c>
-      <c r="C115" s="0" t="n">
-        <v>2185</v>
-      </c>
-      <c r="D115" s="0" t="n">
+      <c r="C115">
+        <v>2184</v>
+      </c>
+      <c r="D115">
         <v>2005</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115">
         <v>201</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="n">
+      <c r="A116" s="7">
         <v>44407</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116">
         <v>111138</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116">
         <v>2462</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116">
         <v>2238</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116">
         <v>221</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="n">
+      <c r="A117" s="7">
         <v>44408</v>
       </c>
-      <c r="B117" s="0" t="n">
-        <v>73892</v>
-      </c>
-      <c r="C117" s="0" t="n">
+      <c r="B117">
+        <v>73893</v>
+      </c>
+      <c r="C117">
         <v>2117</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117">
         <v>1932</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117">
         <v>194</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="n">
+      <c r="A118" s="7">
         <v>44409</v>
       </c>
-      <c r="B118" s="0" t="n">
-        <v>80705</v>
-      </c>
-      <c r="C118" s="0" t="n">
+      <c r="B118">
+        <v>80706</v>
+      </c>
+      <c r="C118">
         <v>2140</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118">
         <v>1947</v>
       </c>
-      <c r="E118" s="0" t="n">
+      <c r="E118">
         <v>200</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="n">
+      <c r="A119" s="7">
         <v>44410</v>
       </c>
-      <c r="B119" s="0" t="n">
-        <v>113851</v>
-      </c>
-      <c r="C119" s="0" t="n">
-        <v>3868</v>
-      </c>
-      <c r="D119" s="0" t="n">
+      <c r="B119">
+        <v>113863</v>
+      </c>
+      <c r="C119">
+        <v>3871</v>
+      </c>
+      <c r="D119">
         <v>3682</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119">
         <v>224</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="n">
+      <c r="A120" s="7">
         <v>44411</v>
       </c>
-      <c r="B120" s="0" t="n">
-        <v>110522</v>
-      </c>
-      <c r="C120" s="0" t="n">
-        <v>3303</v>
-      </c>
-      <c r="D120" s="0" t="n">
+      <c r="B120">
+        <v>110654</v>
+      </c>
+      <c r="C120">
+        <v>3312</v>
+      </c>
+      <c r="D120">
         <v>3136</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120">
         <v>203</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="n">
+      <c r="A121" s="7">
         <v>44412</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="B121">
+        <v>116089</v>
+      </c>
+      <c r="C121">
+        <v>3452</v>
+      </c>
+      <c r="D121">
         <v>3274</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121">
         <v>195</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +84,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
     <border/>
     <border/>
   </borders>
@@ -114,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -133,8 +131,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D121" activeCellId="0" sqref="D121"/>
+      <selection pane="bottomLeft" activeCell="E124" activeCellId="0" sqref="E124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -172,27 +168,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>44293</v>
       </c>
       <c r="B2">
@@ -209,7 +205,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>44294</v>
       </c>
       <c r="B3">
@@ -226,7 +222,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>44295</v>
       </c>
       <c r="B4">
@@ -243,7 +239,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>44296</v>
       </c>
       <c r="B5">
@@ -260,7 +256,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>44297</v>
       </c>
       <c r="B6">
@@ -277,7 +273,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>44298</v>
       </c>
       <c r="B7">
@@ -294,7 +290,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>44299</v>
       </c>
       <c r="B8">
@@ -311,7 +307,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>44300</v>
       </c>
       <c r="B9">
@@ -328,7 +324,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>44301</v>
       </c>
       <c r="B10">
@@ -345,7 +341,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>44302</v>
       </c>
       <c r="B11">
@@ -362,7 +358,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>44303</v>
       </c>
       <c r="B12">
@@ -379,7 +375,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>44304</v>
       </c>
       <c r="B13">
@@ -399,7 +395,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>44305</v>
       </c>
       <c r="B14">
@@ -419,7 +415,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>44306</v>
       </c>
       <c r="B15">
@@ -439,11 +435,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>44307</v>
       </c>
       <c r="B16">
-        <v>41281</v>
+        <v>41280</v>
       </c>
       <c r="C16">
         <v>118</v>
@@ -459,7 +455,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>44308</v>
       </c>
       <c r="B17">
@@ -479,7 +475,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>44309</v>
       </c>
       <c r="B18">
@@ -496,7 +492,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>44310</v>
       </c>
       <c r="B19">
@@ -516,7 +512,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>44311</v>
       </c>
       <c r="B20">
@@ -536,7 +532,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>44312</v>
       </c>
       <c r="B21">
@@ -553,7 +549,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>44313</v>
       </c>
       <c r="B22">
@@ -573,7 +569,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>44314</v>
       </c>
       <c r="B23">
@@ -590,7 +586,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>44315</v>
       </c>
       <c r="B24">
@@ -607,7 +603,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>44316</v>
       </c>
       <c r="B25">
@@ -624,7 +620,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>44317</v>
       </c>
       <c r="B26">
@@ -644,7 +640,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>44318</v>
       </c>
       <c r="B27">
@@ -664,7 +660,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>44319</v>
       </c>
       <c r="B28">
@@ -684,7 +680,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>44320</v>
       </c>
       <c r="B29">
@@ -704,7 +700,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>44321</v>
       </c>
       <c r="B30">
@@ -724,7 +720,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>44322</v>
       </c>
       <c r="B31">
@@ -744,7 +740,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>44323</v>
       </c>
       <c r="B32">
@@ -761,7 +757,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>44324</v>
       </c>
       <c r="B33">
@@ -781,7 +777,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>44325</v>
       </c>
       <c r="B34">
@@ -801,7 +797,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>44326</v>
       </c>
       <c r="B35">
@@ -818,7 +814,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>44327</v>
       </c>
       <c r="B36">
@@ -838,7 +834,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>44328</v>
       </c>
       <c r="B37">
@@ -858,7 +854,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>44329</v>
       </c>
       <c r="B38">
@@ -878,7 +874,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>44330</v>
       </c>
       <c r="B39">
@@ -895,7 +891,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
       <c r="B40">
@@ -915,7 +911,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>44332</v>
       </c>
       <c r="B41">
@@ -932,7 +928,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>44333</v>
       </c>
       <c r="B42">
@@ -949,7 +945,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>44334</v>
       </c>
       <c r="B43">
@@ -966,7 +962,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>44335</v>
       </c>
       <c r="B44">
@@ -986,7 +982,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>44336</v>
       </c>
       <c r="B45">
@@ -1006,7 +1002,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>44337</v>
       </c>
       <c r="B46">
@@ -1023,7 +1019,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>44338</v>
       </c>
       <c r="B47">
@@ -1043,7 +1039,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>44339</v>
       </c>
       <c r="B48">
@@ -1063,7 +1059,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>44340</v>
       </c>
       <c r="B49">
@@ -1080,7 +1076,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>44341</v>
       </c>
       <c r="B50">
@@ -1100,7 +1096,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>44342</v>
       </c>
       <c r="B51">
@@ -1117,7 +1113,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>44343</v>
       </c>
       <c r="B52">
@@ -1134,7 +1130,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7">
+      <c r="A53" s="5">
         <v>44344</v>
       </c>
       <c r="B53">
@@ -1151,7 +1147,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7">
+      <c r="A54" s="5">
         <v>44345</v>
       </c>
       <c r="B54">
@@ -1168,7 +1164,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7">
+      <c r="A55" s="5">
         <v>44346</v>
       </c>
       <c r="B55">
@@ -1185,7 +1181,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7">
+      <c r="A56" s="5">
         <v>44347</v>
       </c>
       <c r="B56">
@@ -1202,7 +1198,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7">
+      <c r="A57" s="5">
         <v>44348</v>
       </c>
       <c r="B57">
@@ -1219,7 +1215,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7">
+      <c r="A58" s="5">
         <v>44349</v>
       </c>
       <c r="B58">
@@ -1236,7 +1232,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7">
+      <c r="A59" s="5">
         <v>44350</v>
       </c>
       <c r="B59">
@@ -1253,7 +1249,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7">
+      <c r="A60" s="5">
         <v>44351</v>
       </c>
       <c r="B60">
@@ -1270,7 +1266,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7">
+      <c r="A61" s="5">
         <v>44352</v>
       </c>
       <c r="B61">
@@ -1287,7 +1283,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7">
+      <c r="A62" s="5">
         <v>44353</v>
       </c>
       <c r="B62">
@@ -1304,7 +1300,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7">
+      <c r="A63" s="5">
         <v>44354</v>
       </c>
       <c r="B63">
@@ -1321,7 +1317,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7">
+      <c r="A64" s="5">
         <v>44355</v>
       </c>
       <c r="B64">
@@ -1338,7 +1334,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7">
+      <c r="A65" s="5">
         <v>44356</v>
       </c>
       <c r="B65">
@@ -1355,7 +1351,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7">
+      <c r="A66" s="5">
         <v>44357</v>
       </c>
       <c r="B66">
@@ -1375,7 +1371,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7">
+      <c r="A67" s="5">
         <v>44358</v>
       </c>
       <c r="B67">
@@ -1392,7 +1388,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7">
+      <c r="A68" s="5">
         <v>44359</v>
       </c>
       <c r="B68">
@@ -1409,7 +1405,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7">
+      <c r="A69" s="5">
         <v>44360</v>
       </c>
       <c r="B69">
@@ -1426,7 +1422,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7">
+      <c r="A70" s="5">
         <v>44361</v>
       </c>
       <c r="B70">
@@ -1446,7 +1442,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7">
+      <c r="A71" s="5">
         <v>44362</v>
       </c>
       <c r="B71">
@@ -1463,7 +1459,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7">
+      <c r="A72" s="5">
         <v>44363</v>
       </c>
       <c r="B72">
@@ -1480,7 +1476,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7">
+      <c r="A73" s="5">
         <v>44364</v>
       </c>
       <c r="B73">
@@ -1497,7 +1493,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7">
+      <c r="A74" s="5">
         <v>44365</v>
       </c>
       <c r="B74">
@@ -1514,7 +1510,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7">
+      <c r="A75" s="5">
         <v>44366</v>
       </c>
       <c r="B75">
@@ -1531,7 +1527,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7">
+      <c r="A76" s="5">
         <v>44367</v>
       </c>
       <c r="B76">
@@ -1548,7 +1544,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7">
+      <c r="A77" s="5">
         <v>44368</v>
       </c>
       <c r="B77">
@@ -1565,7 +1561,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7">
+      <c r="A78" s="5">
         <v>44369</v>
       </c>
       <c r="B78">
@@ -1582,7 +1578,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7">
+      <c r="A79" s="5">
         <v>44370</v>
       </c>
       <c r="B79">
@@ -1599,7 +1595,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7">
+      <c r="A80" s="5">
         <v>44371</v>
       </c>
       <c r="B80">
@@ -1616,7 +1612,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7">
+      <c r="A81" s="5">
         <v>44372</v>
       </c>
       <c r="B81">
@@ -1633,7 +1629,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7">
+      <c r="A82" s="5">
         <v>44373</v>
       </c>
       <c r="B82">
@@ -1650,7 +1646,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7">
+      <c r="A83" s="5">
         <v>44374</v>
       </c>
       <c r="B83">
@@ -1667,7 +1663,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7">
+      <c r="A84" s="5">
         <v>44375</v>
       </c>
       <c r="B84">
@@ -1684,7 +1680,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7">
+      <c r="A85" s="5">
         <v>44376</v>
       </c>
       <c r="B85">
@@ -1701,7 +1697,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7">
+      <c r="A86" s="5">
         <v>44377</v>
       </c>
       <c r="B86">
@@ -1718,7 +1714,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7">
+      <c r="A87" s="5">
         <v>44378</v>
       </c>
       <c r="B87">
@@ -1735,7 +1731,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7">
+      <c r="A88" s="5">
         <v>44379</v>
       </c>
       <c r="B88">
@@ -1752,7 +1748,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7">
+      <c r="A89" s="5">
         <v>44380</v>
       </c>
       <c r="B89">
@@ -1769,7 +1765,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7">
+      <c r="A90" s="5">
         <v>44381</v>
       </c>
       <c r="B90">
@@ -1786,7 +1782,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7">
+      <c r="A91" s="5">
         <v>44382</v>
       </c>
       <c r="B91">
@@ -1803,7 +1799,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7">
+      <c r="A92" s="5">
         <v>44383</v>
       </c>
       <c r="B92">
@@ -1820,7 +1816,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7">
+      <c r="A93" s="5">
         <v>44384</v>
       </c>
       <c r="B93">
@@ -1837,7 +1833,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7">
+      <c r="A94" s="5">
         <v>44385</v>
       </c>
       <c r="B94">
@@ -1854,7 +1850,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7">
+      <c r="A95" s="5">
         <v>44386</v>
       </c>
       <c r="B95">
@@ -1871,7 +1867,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7">
+      <c r="A96" s="5">
         <v>44387</v>
       </c>
       <c r="B96">
@@ -1888,7 +1884,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7">
+      <c r="A97" s="5">
         <v>44388</v>
       </c>
       <c r="B97">
@@ -1905,7 +1901,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7">
+      <c r="A98" s="5">
         <v>44389</v>
       </c>
       <c r="B98">
@@ -1922,7 +1918,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7">
+      <c r="A99" s="5">
         <v>44390</v>
       </c>
       <c r="B99">
@@ -1939,7 +1935,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7">
+      <c r="A100" s="5">
         <v>44391</v>
       </c>
       <c r="B100">
@@ -1956,7 +1952,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7">
+      <c r="A101" s="5">
         <v>44392</v>
       </c>
       <c r="B101">
@@ -1973,7 +1969,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7">
+      <c r="A102" s="5">
         <v>44393</v>
       </c>
       <c r="B102">
@@ -1990,7 +1986,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7">
+      <c r="A103" s="5">
         <v>44394</v>
       </c>
       <c r="B103">
@@ -2007,7 +2003,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7">
+      <c r="A104" s="5">
         <v>44395</v>
       </c>
       <c r="B104">
@@ -2024,7 +2020,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7">
+      <c r="A105" s="5">
         <v>44396</v>
       </c>
       <c r="B105">
@@ -2041,7 +2037,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7">
+      <c r="A106" s="5">
         <v>44397</v>
       </c>
       <c r="B106">
@@ -2058,7 +2054,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7">
+      <c r="A107" s="5">
         <v>44398</v>
       </c>
       <c r="B107">
@@ -2075,7 +2071,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7">
+      <c r="A108" s="5">
         <v>44399</v>
       </c>
       <c r="B108">
@@ -2092,14 +2088,14 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7">
+      <c r="A109" s="5">
         <v>44400</v>
       </c>
       <c r="B109">
         <v>98197</v>
       </c>
       <c r="C109">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D109">
         <v>1301</v>
@@ -2109,7 +2105,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7">
+      <c r="A110" s="5">
         <v>44401</v>
       </c>
       <c r="B110">
@@ -2126,7 +2122,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7">
+      <c r="A111" s="5">
         <v>44402</v>
       </c>
       <c r="B111">
@@ -2143,7 +2139,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7">
+      <c r="A112" s="5">
         <v>44403</v>
       </c>
       <c r="B112">
@@ -2160,7 +2156,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7">
+      <c r="A113" s="5">
         <v>44404</v>
       </c>
       <c r="B113">
@@ -2177,7 +2173,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7">
+      <c r="A114" s="5">
         <v>44405</v>
       </c>
       <c r="B114">
@@ -2194,7 +2190,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7">
+      <c r="A115" s="5">
         <v>44406</v>
       </c>
       <c r="B115">
@@ -2211,7 +2207,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7">
+      <c r="A116" s="5">
         <v>44407</v>
       </c>
       <c r="B116">
@@ -2228,7 +2224,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7">
+      <c r="A117" s="5">
         <v>44408</v>
       </c>
       <c r="B117">
@@ -2245,24 +2241,24 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7">
+      <c r="A118" s="5">
         <v>44409</v>
       </c>
       <c r="B118">
         <v>80706</v>
       </c>
       <c r="C118">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D118">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E118">
         <v>200</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7">
+      <c r="A119" s="5">
         <v>44410</v>
       </c>
       <c r="B119">
@@ -2272,44 +2268,95 @@
         <v>3871</v>
       </c>
       <c r="D119">
-        <v>3682</v>
+        <v>3732</v>
       </c>
       <c r="E119">
-        <v>224</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7">
+      <c r="A120" s="5">
         <v>44411</v>
       </c>
       <c r="B120">
         <v>110654</v>
       </c>
       <c r="C120">
-        <v>3312</v>
+        <v>3321</v>
       </c>
       <c r="D120">
-        <v>3136</v>
+        <v>3146</v>
       </c>
       <c r="E120">
         <v>203</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7">
+      <c r="A121" s="5">
         <v>44412</v>
       </c>
       <c r="B121">
-        <v>116089</v>
+        <v>117362</v>
       </c>
       <c r="C121">
-        <v>3452</v>
+        <v>3525</v>
       </c>
       <c r="D121">
-        <v>3274</v>
+        <v>3345</v>
       </c>
       <c r="E121">
-        <v>195</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5">
+        <v>44413</v>
+      </c>
+      <c r="B122">
+        <v>116146</v>
+      </c>
+      <c r="C122">
+        <v>3906</v>
+      </c>
+      <c r="D122">
+        <v>3657</v>
+      </c>
+      <c r="E122">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5">
+        <v>44414</v>
+      </c>
+      <c r="B123">
+        <v>116029</v>
+      </c>
+      <c r="C123">
+        <v>3896</v>
+      </c>
+      <c r="D123">
+        <v>3686</v>
+      </c>
+      <c r="E123">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5">
+        <v>44415</v>
+      </c>
+      <c r="B124">
+        <v>72797</v>
+      </c>
+      <c r="C124">
+        <v>2491</v>
+      </c>
+      <c r="D124">
+        <v>2755</v>
+      </c>
+      <c r="E124">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/infected_abroad.xlsx
+++ b/data/Israel/infected_abroad.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,12 +10,17 @@
   <sheets>
     <sheet name="crit_by_age" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -76,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,8 +89,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -112,7 +115,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,8 +132,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,2226 +145,2237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E124" activeCellId="0" sqref="E124"/>
+      <selection pane="bottomLeft" activeCell="E123" activeCellId="0" sqref="E123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="14.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="1021" max="1024" width="11.52" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5">
+      <c r="A2" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>47157</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5">
+      <c r="A3" s="3" t="n">
         <v>44294</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>38113</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5">
+      <c r="A4" s="3" t="n">
         <v>44295</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>36047</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5">
+      <c r="A5" s="3" t="n">
         <v>44296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>11188</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5">
+      <c r="A6" s="3" t="n">
         <v>44297</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>33688</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5">
+      <c r="A7" s="3" t="n">
         <v>44298</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>50871</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5">
+      <c r="A8" s="3" t="n">
         <v>44299</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>62974</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5">
+      <c r="A9" s="3" t="n">
         <v>44300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>51476</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5">
+      <c r="A10" s="3" t="n">
         <v>44301</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>14218</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5">
+      <c r="A11" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>30592</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5">
+      <c r="A12" s="3" t="n">
         <v>44303</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11152</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5">
+      <c r="A13" s="3" t="n">
         <v>44304</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>33945</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>4931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5">
+      <c r="A14" s="3" t="n">
         <v>44305</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>46073</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5">
+      <c r="A15" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>46359</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>2158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5">
+      <c r="A16" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>41280</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5">
+      <c r="A17" s="3" t="n">
         <v>44308</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>31618</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5">
+      <c r="A18" s="3" t="n">
         <v>44309</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>35245</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5">
+      <c r="A19" s="3" t="n">
         <v>44310</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>8762</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>1869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5">
+      <c r="A20" s="3" t="n">
         <v>44311</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>28338</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>4355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5">
+      <c r="A21" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>36111</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5">
+      <c r="A22" s="3" t="n">
         <v>44313</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>31255</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>2565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5">
+      <c r="A23" s="3" t="n">
         <v>44314</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>34946</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5">
+      <c r="A24" s="3" t="n">
         <v>44315</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>31718</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5">
+      <c r="A25" s="3" t="n">
         <v>44316</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>35430</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5">
+      <c r="A26" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>9169</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5">
+      <c r="A27" s="3" t="n">
         <v>44318</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>25566</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>4542</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5">
+      <c r="A28" s="3" t="n">
         <v>44319</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>33707</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>5171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5">
+      <c r="A29" s="3" t="n">
         <v>44320</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>33889</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5">
+      <c r="A30" s="3" t="n">
         <v>44321</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>34913</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>3581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5">
+      <c r="A31" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>28526</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>4596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5">
+      <c r="A32" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>32904</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5">
+      <c r="A33" s="3" t="n">
         <v>44324</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>10397</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5">
+      <c r="A34" s="3" t="n">
         <v>44325</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>23529</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>4022</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5">
+      <c r="A35" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>35517</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5">
+      <c r="A36" s="3" t="n">
         <v>44327</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>31566</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>2779</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5">
+      <c r="A37" s="3" t="n">
         <v>44328</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>28694</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>4231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5">
+      <c r="A38" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>20927</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>5222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5">
+      <c r="A39" s="3" t="n">
         <v>44330</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>20244</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5">
+      <c r="A40" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>5525</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5">
+      <c r="A41" s="3" t="n">
         <v>44332</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>14776</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5">
+      <c r="A42" s="3" t="n">
         <v>44333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>8745</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5">
+      <c r="A43" s="3" t="n">
         <v>44334</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>2